--- a/Data/市领导数据/二次爬虫-edu_etc/全291人信息整理.xlsx
+++ b/Data/市领导数据/二次爬虫-edu_etc/全291人信息整理.xlsx
@@ -606,7 +606,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>'沈强在淮北煤炭师范学院中文系汉语言文学专业学习'</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>1983-07</t>
@@ -785,8 +789,16 @@
           <t>1984-08</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>'毕业于中央党校在职研究生班政治学理论专业'</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>'毕业于中央党校在职研究生班政治学理论专业'</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>1981-09</t>
@@ -853,7 +865,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>'1983年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J7" t="n">
         <v>22</v>
       </c>
@@ -917,7 +933,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>'1989年3月参加工作'</t>
+        </is>
+      </c>
       <c r="J8" t="n">
         <v>22</v>
       </c>
@@ -981,7 +1001,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>'1982年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J9" t="n">
         <v>19</v>
       </c>
@@ -1030,7 +1054,11 @@
           <t>内蒙古自治区包头市</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>'1983年6月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>本科</t>
@@ -1104,7 +1132,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>'中央党校经济学专业毕业'</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>1984-07</t>
@@ -1693,7 +1725,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>'1989年5月参加工作'</t>
+        </is>
+      </c>
       <c r="J21" t="n">
         <v>19</v>
       </c>
@@ -1811,9 +1847,21 @@
           <t>1991-06</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>'安徽师范大学中文系汉语言文学专业毕业', '任安徽省委党校常务副校长'</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>'安徽师范大学中文系汉语言文学专业毕业'</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="b">
         <v>1</v>
@@ -2041,9 +2089,21 @@
           <t>1985-06</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>'南京化工学院本科毕业', '厦门大学工商管理专业在职硕士研究生学历'</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>'厦门大学工商管理专业在职硕士研究生学历', '是国家能源局领导班子中首名来自于原国家能源局及原国家电力监管委员会系统之外的副局长4'</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>'1982年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="b">
         <v>1</v>
@@ -2219,7 +2279,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J30" t="n">
         <v>16</v>
       </c>
@@ -2382,11 +2446,31 @@
           <t>1962-3</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>'山西朔州人', '任中华人民共和国科学技术部科研条件与财务司司长'</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>'\n1983年10月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>'清华大学水利工程系毕业', '水利电力部水利水电科学研究院硕士研究生学位', '清华大学在职研究生', '管理学博士', '1984年9月从清华大学水利工程系毕业', '1987年4月从水利电力部水利水电科学研究院硕士研究生毕业', '任中国21世纪议程管理中心和科学技术部生命科学技术发展中心代主任、主任', '任中华人民共和国科学技术部科研条件与财务司司长', '任科学技术部副部长12'</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>'清华大学水利工程系毕业', '1984年9月从清华大学水利工程系毕业'</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="b">
@@ -2623,8 +2707,16 @@
           <t>1990-12</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>'毕业于安徽师范大学数学系数学专业', '历任西藏自治区拉萨中学教师、教研组长', '副校长、校长', '2004年9月至2006年3月在新加坡南洋理工大学公共管理专业学习'</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>'毕业于安徽师范大学数学系数学专业', '2004年9月至2006年3月在新加坡南洋理工大学公共管理专业学习'</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>1985-07</t>
@@ -2691,7 +2783,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>'1986年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J38" t="n">
         <v>19</v>
       </c>
@@ -3115,8 +3211,16 @@
           <t>1984-05</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>'郑州大学经济系本科毕业'</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>'郑州大学经济系本科毕业'</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>1984-07</t>
@@ -3158,12 +3262,36 @@
           <t>1962-5</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>'河南长垣人', '2019年1月当选阳江市人大常委会主任'</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>'1985年2月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>'毕业于西安冶金建筑学院工业与民用建筑专业', '中山大学在职研究生学历', '工商管理硕士学位1'</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>'毕业于西安冶金建筑学院工业与民用建筑专业'</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>'1982年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="b">
         <v>1</v>
@@ -3310,12 +3438,36 @@
           <t>1967-10</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>'湖南平江人', '中国人民大学行政管理学研究所行政管理学专业硕士研究生', '在中国人民大学行政管理学研究所行政管理学专业读硕士研究生', '任湖北省人民政府党组成员2'</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>'2004年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>'北京大学经济管理系国民经济管理专业毕业', '中国人民大学行政管理学研究所行政管理学专业硕士研究生', '加拿大卡尔顿大学公共管理专业硕士研究生学历', '美国兰德公司研究生院政策分析专业在职政策分析博士学位', '在北京大学经济管理系国民经济管理专业学习', '在中国人民大学行政管理学研究所行政管理学专业读硕士研究生', '任中国社会科学院世界经济与政治研究所助理研究员', '在加拿大卡尔顿大学公共管理专业读硕士研究生', '在美国兰德公司研究生院政策分析专业在职学习', '获政策分析博士学位'</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>'北京大学经济管理系国民经济管理专业毕业', '中国人民大学行政管理学研究所行政管理学专业硕士研究生', '加拿大卡尔顿大学公共管理专业硕士研究生学历', '美国兰德公司研究生院政策分析专业在职政策分析博士学位', '在北京大学经济管理系国民经济管理专业学习', '在中国人民大学行政管理学研究所行政管理学专业读硕士研究生', '在加拿大卡尔顿大学公共管理专业读硕士研究生', '在美国兰德公司研究生院政策分析专业在职学习'</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>'1991年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="b">
         <v>1</v>
@@ -3463,10 +3615,26 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>'山东胶南人', '还兼任第七届世界军人运动会执行委员会副主任、秘书长', '兼任随州市人大常委会主任4'</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>'1989年4月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>'陈瑞峰考入青岛师范专科学校政治系学习', '转入曲阜师范大学政治系学习', '他考入北京大学政治学与行政管理系中共党史专业攻读硕士研究生', '毕业后分配到北京计算机二厂党委宣传部'</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>'陈瑞峰考入青岛师范专科学校政治系学习', '转入曲阜师范大学政治系学习', '他考入北京大学政治学与行政管理系中共党史专业攻读硕士研究生'</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="b">
@@ -3649,9 +3817,21 @@
           <t>1988-09</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>'浙江省委党校工商管理硕士研究生', '在浙江大学经济学专业研究生课程班学习）', '在中央党校经济管理专业本科班学习）'</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>'在浙江大学经济学专业研究生课程班学习）', '在中央党校经济管理专业本科班学习）'</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>'1984年2月参加工作'</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="b">
         <v>1</v>
@@ -3709,7 +3889,11 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J59" t="n">
         <v>19</v>
       </c>
@@ -3822,7 +4006,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>'1990年毕业于绍兴高专管理系秘书专业'</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>1990-08</t>
@@ -3881,8 +4069,16 @@
           <t>1984-01</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>'广西大学商学院政治经济学专业毕业', '在职研究生学历', '法学学士', '在广西民族学院政治系政治专业学习', '在广西壮族自治区党委党校中青年干部培训班学习）', '任共青团广西壮族自治区委常委、少年部部长兼权益部部长（1997年9月至1999年12月在广西大学商学院政治经济学专业学习）', '2002年8月）（其间：2002年3月至2002年5月在广西壮族自治区党委党校地厅级干部进修班学习', '2003年9月至2004年1月在中央党校西部地区干部培训班学习）'</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>'广西大学商学院政治经济学专业毕业', '在广西民族学院政治系政治专业学习', '任共青团广西壮族自治区委常委、少年部部长兼权益部部长（1997年9月至1999年12月在广西大学商学院政治经济学专业学习）'</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>1984-07</t>
@@ -4089,8 +4285,16 @@
           <t>1992-06</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>'内蒙古工学院机械制造工艺设备及自动化专业学习\n1987.07—1994.04', '国家电力公司党校学习）\n1999.10—2001.05', '中央党校中青年 干部培训班学习）\n2013.05—2013.08'</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>'内蒙古工学院机械制造工艺设备及自动化专业学习\n1987.07—1994.04'</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>1987-07</t>
@@ -4257,11 +4461,31 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>'江苏海安人', '、第十三届全国人民代表大会江苏地区代表', '江苏省环本农场干部、副指导员、南通市公安局政治处干部、南通市委研究室干部、副科级研究员、正科级研究员、综合科科长、主任助理、综合科科长、副处级秘书、副主任、如皋市委副书记、代市长、市长、如东县委书记、县人大常委会主任、无锡市委常委、市纪委书记、江阴市委书记、江阴高新技术产业开发区党工委书记', '被选为全国人大代表2'</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>'1984年11月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>'中共江苏省委党校大学学历、南京大学工商管理专业研究生课程进修班毕业', '在江苏公安专科学校治安系学习'</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>'中共江苏省委党校大学学历、南京大学工商管理专业研究生课程进修班毕业', '在江苏公安专科学校治安系学习'</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="b">
         <v>1</v>
@@ -4372,7 +4596,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>'\n1984.09——1986.07 宁波高等专科学校（宁波工程学院）中文秘书系学生'</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>1986-08</t>
@@ -4416,12 +4644,36 @@
           <t>1963-8</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>'黑龙江宾县人', '任黑龙江商学院成人教育部教师', '任黑龙江商学院成人教育部教务科副科长', '任黑龙江商学院成人教育部教务科科长', '任黑龙江省计划委员会人事处处长', '任黑龙江省发展计划委员会人事处处长', '黑龙江省第十二届人大常委会第二十四次会议补选为第十二届全国人民代表大会代表3'</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>'1985年7月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>'黑龙江商学院商业经济专业毕业', '黑龙江大学经济学专业硕士学位', '任黑龙江商学院商业经济专业学生', '任黑龙江商学院成人教育部教师', '任黑龙江商学院成人教育部教务科副科长', '任黑龙江商学院成人教育部教务科科长', '在黑龙江大学经济学专业学习', '研究生毕业', '获硕士学位）'</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>'黑龙江商学院商业经济专业毕业', '黑龙江大学经济学专业硕士学位', '任黑龙江商学院商业经济专业学生', '在黑龙江大学经济学专业学习'</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="b">
         <v>1</v>
@@ -4455,11 +4707,31 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>'山东宁阳人', '2003年12月挂职出任衢州市人民政府副市长', '2014年1月正式当选台州市人民政府市长1'</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>'1985年4月加入中共'</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>'研究生学历', '管理学博士', '\n早年毕业于杭州大学（今浙江大学）心理系工业心理学专业', '后留校攻读本专业研究生', '毕业后任共青团浙江省委学校部科员、省学联副秘书长'</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>'\n早年毕业于杭州大学（今浙江大学）心理系工业心理学专业', '后留校攻读本专业研究生'</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>'1990年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="b">
         <v>1</v>
@@ -4507,9 +4779,21 @@
           <t>1995-05</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>'研究生学历', '北京交通大学本科毕业', '清华大学EMBA硕士毕业', '\n胡海峰本科就读于北方交通大学（现北京交通大学）计算机与科学技术系', '是清华大学经济管理学院第一届EMBA毕业生', '任清华大学副秘书长2', '兼任中共嘉兴市委政法委书记和嘉兴市委党校校长6'</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>'\n胡海峰本科就读于北方交通大学（现北京交通大学）计算机与科学技术系', '据称是为了改善台海关系11'</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>'1998年5月参加工作'</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="b">
         <v>1</v>
@@ -4585,10 +4869,22 @@
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>'进入重庆钢铁公司技术工人学校学习', '1981年11月进入重庆钢铁公司大型轧钢厂当工人', '任四川省纪委常委、秘书长、办公厅主任（2009年12月至2011年12月在西南财经大学高级管理人员工商管理专业学习,获工商管理硕士)'</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>'进入重庆钢铁公司技术工人学校学习', '1982年8月进入四川广播电视大学中文专业干部专修科学习', '任四川省纪委常委、秘书长、办公厅主任（2009年12月至2011年12月在西南财经大学高级管理人员工商管理专业学习,获工商管理硕士)'</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>'1982年8月进入四川广播电视大学中文专业干部专修科学习', '任四川省纪委常委、秘书长、办公厅主任（2009年12月至2011年12月在西南财经大学高级管理人员工商管理专业学习,获工商管理硕士)'</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="b">
@@ -4716,12 +5012,36 @@
           <t>1965-8</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>'湖南望城人', '任湖南省人民政府副省长1'</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>'1984年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>'武汉水利电力学院（今武汉大学）河流力学及治河工程系河流力学及治河工程专业本科、硕士毕业', '湖南大学环境科学与工程学院环境科学与工程专业在职工学博士学位', '在武汉水利电力学院（今武汉大学水利水电学院）河流力学及治河工程系河流力学及治河工程专业学习', '攻读本系水力学及河流动力学专业研究生', '获硕士学位'</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>'武汉水利电力学院（今武汉大学）河流力学及治河工程系河流力学及治河工程专业本科、硕士毕业', '湖南大学环境科学与工程学院环境科学与工程专业在职工学博士学位', '在武汉水利电力学院（今武汉大学水利水电学院）河流力学及治河工程系河流力学及治河工程专业学习', '攻读本系水力学及河流动力学专业研究生'</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>'1988年6月参加工作'</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="b">
         <v>1</v>
@@ -4874,11 +5194,27 @@
           <t>1968-9</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>'湖北武穴人', '第十三届全国人大代表', '担任中共红安县委副书记、县人民政府县长', '\n董卫民是第十三届全国人大代表（2018年－）5'</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>'在湖北工学院机械制造工艺及设备专业学习', '在中共黄冈市委党校中青年干部班学习', '在华中师范大学科技哲学专业在职硕士研究生班学习', '在中共黄冈市委党校县级干部进修班学习', '在英国伍斯特大学留学', '在中共中央组织部延安干部学院进修班学习'</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>'在湖北工学院机械制造工艺及设备专业学习', '在华中师范大学科技哲学专业在职硕士研究生班学习'</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="b">
@@ -4913,11 +5249,31 @@
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>'河南商丘人'</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>'1984年9月加入中共'</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>'商丘师范学校毕业', '河南省委党校研究生班经济管理专业在职研究生学历'</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>'河南省委党校研究生班经济管理专业在职研究生学历'</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>'1981年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="b">
         <v>1</v>
@@ -4988,12 +5344,28 @@
           <t>1964-9</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>'辽宁鞍山人', '、第十三届全国人民代表大会辽宁地区代表', '抚顺市人民政府副市长', '被选为全国人大代表1'</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>'1997年6月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="b">
         <v>1</v>
@@ -5103,10 +5475,22 @@
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>'广东潮州人', '、第十三届全国人民代表大会广东地区代表', '被选为全国人大代表2'</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>'\n毕业于南开大学旅游学系旅游经济管理专业'</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>'\n毕业于南开大学旅游学系旅游经济管理专业'</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="b">
@@ -5140,12 +5524,36 @@
           <t>1963-7</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>'河北永年人', '任人民日报社经济部编辑', '任山西省人民政府副秘书长、山西省政府研究室主任', '任山西省人民政府秘书长1', '被选为第十二届全国人大代表8', '\n6 副主任☆\n 晋城市人民政府市长\n 运城市人民政府市长\n'</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>'1986年8月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>'南开大学哲学系本科毕业', '中国社会科学院研究生院国民经济专业毕业', '在南开大学哲学系学习'</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>'南开大学哲学系本科毕业', '中国社会科学院研究生院国民经济专业毕业', '在南开大学哲学系学习'</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>'1983年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="b">
         <v>1</v>
@@ -5217,10 +5625,22 @@
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>'四川西充人', '、第十三届全国人民代表大会广东地区代表', '被选为全国人大代表2'</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>'1987年毕业于四川师范大学教育系', '1990年取得华南师范大学心理学系发展心理学专业硕士'</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>'1987年毕业于四川师范大学教育系', '1990年取得华南师范大学心理学系发展心理学专业硕士'</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="b">
@@ -5331,11 +5751,31 @@
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>'江苏无锡人', '第十三届全国人民代表大会江苏地区代表', '被选为全国人大代表1', '\n蔡丽新担任淮安市人民政府市长期间', '接种人员郭岳涧、杨士涛', '县疾控中心疾控一科工作人员柏云霞、宋爱佳给予立案调查', '其他相关责任人县纪委监委已介入调查处理4', '数以百计的孩子家长前往县政府及县人民医院抗议', '江苏省卫生健康委迅速派出由委相关负责人带队', '金湖县人民政府针对口服过期脊灰疫苗事件处理进行了通报：已对金湖县副县长高昌萍政务立案', '对黎城卫生院院长汪泓等17人分别予以立案调查和开除党籍'</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>'1992年10月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>'苏州大学政治系思想政治教育专业毕业', '在职研究生学历、博士学位', '督导组将指导当地做好对接种儿童的咨询服务、医学观察和疫苗补种工作'</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>'苏州大学政治系思想政治教育专业毕业'</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>'1994年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="b">
         <v>1</v>
@@ -5368,12 +5808,36 @@
           <t>1970-4</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>'上海人', '任黄浦区人民广场街道党工委书记'</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>'1991年7月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '进入上海师范专科学校小学教育专业学习', '任上海第六师范学校教师、团委书记', '任上海市黄浦区团委办公室副主任（其间：1992年9月至1995年7月在华东师范大学政教系政教专业学习并本科毕业）', '任黄浦区委宣传部副部长、区文明办主任（其间：2001年3月至2001年7月参加中共上海市委党校第21期中青年干部培训班学习', '1998年1月至1999年12月参加华东师范大学经济学专业研究生课程班学习）', '任共青团上海市委副书记（其间：2004年5月至2004年6月参加中共上海市委党校第55期局级领导干部培训班学习', '2005年12月-2008年1月在复旦大学管理学院工商管理专业学习并获高级工商管理硕士学位', '2009年3月至2009年9月兼任上海市学习实践科学发展观活动第六指导检查组副组长）', '任中共上海市青浦区委常委、青浦区副区长（其间：2010年9月至2010年10月参加中共上海市委组织部、美国芝加哥大学主办的新经济、新业态研修班学习', '在上海海事大学交通运输规划管理专业学习并研究生毕业）1'</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>'进入上海师范专科学校小学教育专业学习', '任上海市黄浦区团委办公室副主任（其间：1992年9月至1995年7月在华东师范大学政教系政教专业学习并本科毕业）', '1998年1月至1999年12月参加华东师范大学经济学专业研究生课程班学习）', '2005年12月-2008年1月在复旦大学管理学院工商管理专业学习并获高级工商管理硕士学位', '在上海海事大学交通运输规划管理专业学习并研究生毕业）1'</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="b">
         <v>1</v>
@@ -5559,10 +6023,26 @@
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>'河南济源人'</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>'1999年10月加入中共'</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>'1988年毕业于武汉大学政治学系行政管理专业', '厦门大学金融学专业在职经济学硕士学位'</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>'1988年毕业于武汉大学政治学系行政管理专业', '厦门大学金融学专业在职经济学硕士学位'</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="b">
@@ -5635,7 +6115,11 @@
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>'山东日照人', '、第十三届全国人民代表大会山东地区代表', '被选为全国人大代表1'</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -5672,12 +6156,28 @@
           <t>1967-11</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>'浙江绍兴人'</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>'1988年12月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>'1990年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="b">
         <v>1</v>
@@ -5711,11 +6211,31 @@
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>'内蒙古和林格尔人', '第十二届全国人民代表大会内蒙古地区代表', '被选为全国人大代表2'</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>'1989年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>'毕业于中共内蒙古自治区委员会党校经济管理专业', '大学学历'</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>'毕业于中共内蒙古自治区委员会党校经济管理专业'</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>'1980年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="b">
         <v>1</v>
@@ -5748,12 +6268,36 @@
           <t>1966-12</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>'河北广宗人', '第十三届全国人民代表大会河北地区代表', '被选为全国人大代表1', '任河北省人民政府国有资产监督管理委员会党委书记、主任'</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>'1996年5月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>'南开大学金融专业毕业', '大学学历', '经济学硕士学位'</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>'南开大学金融专业毕业'</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>'\n1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="b">
         <v>1</v>
@@ -5786,8 +6330,16 @@
           <t>1962-10</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>'江苏昆山人', '曾任无锡市人民政府市长'</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -5839,9 +6391,17 @@
           <t>1992-06</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>'山东大学在职研究生学历', '管理学博士学位', '任青岛市崂山区委书记、区委党校校长', '任中共青岛市委常委、崂山区委书记、区委党校校长', '任中共日照市委书记、市委党校校长'</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>'\n1989年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="b">
         <v>1</v>
@@ -5916,12 +6476,28 @@
           <t>1965-5</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>'江苏盐城人', '担任江苏省人民政府副秘书长3', '出任中共扬州市委副书记、扬州市人民政府副市长、代市长'</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>'1988年4月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>'\n1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="b">
         <v>1</v>
@@ -6031,11 +6607,31 @@
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>'江西高安人', '第十一届全国人民代表大会四川地区代表1', '任成都市锦江区人民政府副区长', '兼任荥经县人大常委会主任', '兼任县人大常委会主任', '出任中共遂宁市委副书记、市人民政府副市长、代理市长', '担任全国人大代表2'</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>'1985年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>'历史学博士学位', '山东大学历史学专业', '经济学副教授', '\n早年在成都理工大学资源与经济系学习', '毕业后留校任教'</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>'山东大学历史学专业', '\n早年在成都理工大学资源与经济系学习', '历任资源与经济系教师、团总支书记'</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>'1986年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="b">
         <v>1</v>
@@ -6183,11 +6779,31 @@
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>'河南禹州人'</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>'1996年5月加入中共'</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>'1988年毕业于西安交通大学材料科学与工程专业', '1991年取得西安交大材料科学与工程专业硕士学位', '1991年6月任西北工业大学材料科学与工程系教师', '1996年取得西北工大材料科学与工程专业博士学位'</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>'1988年毕业于西安交通大学材料科学与工程专业', '1991年取得西安交大材料科学与工程专业硕士学位', '1991年6月任西北工业大学材料科学与工程系教师', '1996年取得西北工大材料科学与工程专业博士学位'</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>'1991年6月参加工作'</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="b">
         <v>1</v>
@@ -6297,7 +6913,11 @@
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>'吉林梨树人', '、第十三届全国人民代表大会吉林地区代表', '被选为全国人大代表1'</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -6335,11 +6955,31 @@
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>'河南永城人', '兼任汕头市人大常委会主任'</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>'1991年3月加入中共'</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>'研究生学历', '工学博士、经济学博士', '毕业于周口市水利学校水利工程建设专业', '取得武汉水利电力学院计算机应用专业硕士学位', '以及华南理工大学建筑工程系结构工程专业博士学位'</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>'毕业于周口市水利学校水利工程建设专业', '取得武汉水利电力学院计算机应用专业硕士学位', '以及华南理工大学建筑工程系结构工程专业博士学位'</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>'1984年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="b">
         <v>1</v>
@@ -6372,12 +7012,36 @@
           <t>1964-5</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>'山东安丘人', '\n1997年5月任广东省人事厅调配录用处助理调研员', '省人才评价中心副主任', '2001年11月任广东省人才评价中心主任（在2004年10月-2005年11月期间作为中共中央组织部、共青团中央选派的“博士服务团”成员', '任广东省人事考试局局长', '任广东省人力资源社会保障厅党组成员、副巡视员', '任广东省人民政府副秘书长、广东省信访局局长', '兼任潮州市人大常委会主任3'</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>'1986年11月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>'山东师范大学教育系学校教育专业本科毕业', '华南师范大学心理学系发展心理学专业博士研究生学历', '教育学博士', '\n1994年7月在华南师范大学担任心理学系讲师、副教授', '任佛山市委常委、组织部长、市委党校校长'</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>'山东师范大学教育系学校教育专业本科毕业', '华南师范大学心理学系发展心理学专业博士研究生学历', '\n1994年7月在华南师范大学担任心理学系讲师、副教授'</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>'1988年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="b">
         <v>1</v>
@@ -6411,10 +7075,22 @@
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>'山东肥城人', '第十三届全国人民代表大会山东地区代表', '第十三届全国人大代表', '2007年12月兼任县人大常委会主任'</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>'山东大学运筹学与控制论专业研究生班学历', '理学硕士学位', '\n1986年毕业于山东大学物理系物理学专业', '1986-88年在山东大学运筹学与控制论专业研究生班学习'</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>'山东大学运筹学与控制论专业研究生班学历', '\n1986年毕业于山东大学物理系物理学专业', '1986-88年在山东大学运筹学与控制论专业研究生班学习'</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="b">
@@ -6565,7 +7241,11 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>'管理学博士'</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6601,7 +7281,11 @@
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>'河北清苑人', '、贵州省遵义市现任市委书记、第十三届全国人民代表大会贵州省代表1', '魏树旺被选为贵州省出席第十三届全国人民代表大会代表2'</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -6638,12 +7322,36 @@
           <t>1964-6</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>'女'</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>'辽宁建平人', '曾任陕西省人民政府副省长', '当选陕西省人民政府副省长1'</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>'1992年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>'辽宁大学经济系统计学专业毕业', '陕西财经学院经济学硕士', '厦门大学经济学博士', '自辽宁大学经济系计划统计专业毕业后', '王莉霞考入陕西财经学院（今西安交通大学经济与金融学院）统计系', '攻读硕士学位', '1988年7月毕业后', '在西安统计学院任教', '历任该校经济统计系讲师、副教授（其间', '于1997年9月至2000年7月在厦门大学经济学院进修', '获经济学博士学位）'</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>'辽宁大学经济系统计学专业毕业', '自辽宁大学经济系计划统计专业毕业后', '王莉霞考入陕西财经学院（今西安交通大学经济与金融学院）统计系', '历任该校经济统计系讲师、副教授（其间'</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>'1985年9月参加工作'</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="b">
         <v>1</v>
@@ -6790,12 +7498,36 @@
           <t>1963-1</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>'山西省闻喜县人', '任运城市人民政府副市长'</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>'1985年1月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>'山西师范大学数学专业毕业', '大学本科学历'</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>'山西师范大学数学专业毕业'</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="b">
         <v>1</v>
@@ -6957,7 +7689,11 @@
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>'福建南安人', '、第十三届全国人民代表大会福建省代表1', '任南平市人民政府市长', '许维泽被选为福建省出席第十三届全国人民代表大会代表2'</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -7108,11 +7844,31 @@
           <t>1967-12</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>'安徽太湖人', '第十三届全国人民代表大会广东地区代表', '担任广州市人民政府副市长', '市人民政府市长4', '被选为全国人大代表5', '出任广东省人民政府秘书长、办公厅主任78'</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>'1993年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>'考入安徽大学历史系文秘档案专业', '毕业于中山大学历史系中国近现代史专业硕士', '担任广州大学城建设指挥部办公室副主任'</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>'考入安徽大学历史系文秘档案专业', '毕业于中山大学历史系中国近现代史专业硕士'</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="b">
@@ -7167,7 +7923,11 @@
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>'1985年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J139" t="n">
         <v>19</v>
       </c>
@@ -7226,7 +7986,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>'中央党校经济管理专业毕业', '安徽大学经济系经济学专业学习', '参加中央党校函授学院在职研究生班经济管理专业学习）'</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr">
         <is>
           <t>1982-08</t>

--- a/Data/市领导数据/二次爬虫-edu_etc/全291人信息整理.xlsx
+++ b/Data/市领导数据/二次爬虫-edu_etc/全291人信息整理.xlsx
@@ -542,7 +542,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>'1987年7月毕业于云南财经大学贸易经济专业'</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>1987-07</t>
@@ -608,7 +612,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>'沈强在淮北煤炭师范学院中文系汉语言文学专业学习'</t>
+          <t>'1979年09月至1983年07月在淮北煤炭师范学院中文系汉语言文学专业学习', '砀山县委书记、县人大常委会主任（其间：2004年03月至07月参加中央党校第8期县委书记进修班学习）2006年04月宿州市委常委、市经济开发区党工委第一书记（2004年09月至2006年09月参加中央党校在职研究生班国际政治专业学习）2007年04月亳州市委常委、副市长2009年11月亳州市委副书记2010年12月亳州市委副书记、副市长、代理市长2011年01月亳州市委副书记、市长2014年08月淮南市委书记2018年01月安徽省人大常委会副主任'</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -659,7 +663,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>'2015.12吉林省白城市委书记（人民网资料截至2015年12月）'</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>1984-12</t>
@@ -671,7 +679,11 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>'1983年9月参加工作'</t>
+        </is>
+      </c>
       <c r="J4" t="n">
         <v>19</v>
       </c>
@@ -730,7 +742,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>'中国人民大学哲学系中国哲学专业毕业', '1983.09东北师范大学历史系历史专业学习1987.07西北大学中国思想文化研究所硕士研究生学习1990.07内蒙古大学哲学系教师1992.07中国人民大学哲学系中国哲学专业博士研究生学习1995.07全国供销合作总社人事教育部教育处干部1996.07全国供销合作总社人事教育部教育处主任科员1997.09全国供销合作总社人事教育部教育处副处长1998.12全国供销合作总社办公厅副处级秘书2000.06全国供销合作总社办公厅正处级秘书2003.06全国供销合作总社办公厅秘书（副局长级）（期间：2002.12-2003.12借调到安徽省人民政府办公厅工作）2003.12安徽省政府办公厅副主任党组成员2007.04安徽省政府副秘书长办公厅党组成员2007.12安徽省委副秘书长2008.06安徽省委副秘书长省委政策研究室主任2013.02黄山市委副书记'</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>1990-07</t>
@@ -791,14 +807,10 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>'毕业于中央党校在职研究生班政治学理论专业'</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>'毕业于中央党校在职研究生班政治学理论专业'</t>
-        </is>
-      </c>
+          <t>'1981.09崇义县崇义中学教师、公安局干部、政府办秘书、副主任1987.02崇义县聂都乡党委副书记(主持工作)、人大主席1988.04崇义县政府办副主任1988.07崇义县体改办主任兼政府办副主任1990.02崇义县经济委员会主任、县委办公室主任1992.10上犹县政府副县长1994.01上犹县委常委'</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>1981-09</t>
@@ -1001,11 +1013,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>'1982年8月参加工作'</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>19</v>
       </c>
@@ -1132,11 +1140,7 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>'中央党校经济学专业毕业'</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>1984-07</t>
@@ -1255,9 +1259,17 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>'云南省委党校研究生学历'</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>'1982年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="b">
         <v>1</v>
@@ -1319,7 +1331,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>'1987年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J14" t="n">
         <v>16</v>
       </c>
@@ -1437,8 +1453,16 @@
           <t>1992-05</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>'1981.09湘潭大学马克思主义哲学专业学习1985.09湘潭大学现代西方哲学专业学习', '获哲学硕士学位1988.07湖南省委宣传部《学习导报》编辑1992.08湖南省委办公厅综合调研室干部1992.12湖南省委办公厅综合调研室主任科员1996.01湖南省委办公厅综合调研室副处级研究员1997.02湖南省委办公厅综合调研室副主任1999.08湖南省委办公厅秘书处副处长级秘书2001.05湖南省委办公厅秘书处、信息处正处长级秘书2004.02湘潭市委常委、秘书长2006.09湘潭市委常委、组织部部长2010.09湖南省政府办公厅党组成员、省政府研究室副主任2012.02湖南省政府办公厅党组成员、省政府研究室主任2013.03湖南省政府副秘书长、办公厅党组成员'</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>'1981.09湘潭大学马克思主义哲学专业学习1985.09湘潭大学现代西方哲学专业学习'</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>1988-07</t>
@@ -1495,8 +1519,16 @@
           <t>1987-06</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '1979.09—1983.08山东师范大学数学系数学专业学习1983.08—1984.10西藏自治区拉萨市第三中学教师1984.10—1987.06西藏自治区拉萨市第三中学副校长（其间：1985.03—1985.06杭州教育学院学习）1987.06—1989.08西藏自治区拉萨市教体委政治处副主任1989.08—1991.09西藏自治区拉萨市第一中学校长、党支部副书记1991.09—1992.12共青团西藏自治区拉萨市委副书记1992.12—1993.05共青团西藏自治区委员会副处级干部1993.05—1995.03共青团西藏自治区委员会农牧青少部副部长1995.03—1996.12共青团西藏自治区委员会城市青少部部长1996.12—1998.07共青团西藏自治区委员会组宣部部长1998.07—2003.08西藏自治区阿里地委委员、组织部部长2003.08—2007.05西藏自治区教育工委副书记、教育纪工委书记（2002.09—2004.07四川省工商管理学院工商管理专业在职研究生学习', '2006.03—2006.06国家行政学院司〈厅、局〉级公务员任职培训班学习）2007.05—2012.12西藏自治区政府驻北京办事处党委书记、副主任（其间：2010.09—2010.11中央党校地厅级干部进修班学习）2012.12—2013.01西藏自治区教育工委副书记（正厅级）2013.01—2015.06西藏自治区教育工委副书记'</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>'1979.09—1983.08山东师范大学数学系数学专业学习1983.08—1984.10西藏自治区拉萨市第三中学教师1984.10—1987.06西藏自治区拉萨市第三中学副校长（其间：1985.03—1985.06杭州教育学院学习）1987.06—1989.08西藏自治区拉萨市教体委政治处副主任1989.08—1991.09西藏自治区拉萨市第一中学校长、党支部副书记1991.09—1992.12共青团西藏自治区拉萨市委副书记1992.12—1993.05共青团西藏自治区委员会副处级干部1993.05—1995.03共青团西藏自治区委员会农牧青少部副部长1995.03—1996.12共青团西藏自治区委员会城市青少部部长1996.12—1998.07共青团西藏自治区委员会组宣部部长1998.07—2003.08西藏自治区阿里地委委员、组织部部长2003.08—2007.05西藏自治区教育工委副书记、教育纪工委书记（2002.09—2004.07四川省工商管理学院工商管理专业在职研究生学习'</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>1983-08</t>
@@ -1553,7 +1585,11 @@
           <t>1983-01</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>'在职研究生学历'</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1611,9 +1647,17 @@
           <t>1984-06</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '农学博士'</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>'1986年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="b">
         <v>1</v>
@@ -1655,15 +1699,27 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>'凤城市委副书记、市人民政府代市长', '凤城市委副书记、市人民政府市长', '凤城市委书记兼人大常委会主任', '丹东市人民政府副市长', '市政府市长2016.09营口市委书记（人民网资料截至2016年9月）'</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>1982-07</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>'大学学历', '工学学士学位'</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="b">
         <v>1</v>
@@ -1727,7 +1783,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>'1989年5月参加工作'</t>
+          <t>'1989年5月参加工作', '参加工作后'</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1849,7 +1905,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>'安徽师范大学中文系汉语言文学专业毕业', '任安徽省委党校常务副校长'</t>
+          <t>'安徽师范大学中文系汉语言文学专业毕业', '大学学历', '文学学士', '2013.06安徽省委党校常务副校长、校委委员2016.12安徽省委教育工委书记2017.12安徽省马鞍山市委书记第十届安徽省委委员'</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1908,7 +1964,11 @@
           <t>河南省周口市太康县</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>'1990年10月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>硕士研究生</t>
@@ -1919,7 +1979,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>'1983年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J24" t="n">
         <v>19</v>
       </c>
@@ -1973,8 +2037,16 @@
           <t>1986-10</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>'研究生学历', '经济学博士学位', '1983.09武汉大学经济管理系经济管理专业学习1987.09中山大学管理学院企业管理专业研究生学习1990.07海口市委办公室综合科科员1991.06海口市委办公室综合科副科长1995.08海口市委督查室副主任1999.02海口市委政策研究室（体改办）副主任1999.03海口市新华区委常委、组织部部长2002.08海口市人大常委会选举任免联络工作室主任2003.05海口市审计局局长、党组书记2005.07海口市美兰区委副书记、区政府区长2007.01海口市人民政府副市长（其间：2010.03-2010.12在财政部经济建设司挂职锻炼'</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>'1983.09武汉大学经济管理系经济管理专业学习1987.09中山大学管理学院企业管理专业研究生学习1990.07海口市委办公室综合科科员1991.06海口市委办公室综合科副科长1995.08海口市委督查室副主任1999.02海口市委政策研究室（体改办）副主任1999.03海口市新华区委常委、组织部部长2002.08海口市人大常委会选举任免联络工作室主任2003.05海口市审计局局长、党组书记2005.07海口市美兰区委副书记、区政府区长2007.01海口市人民政府副市长（其间：2010.03-2010.12在财政部经济建设司挂职锻炼'</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>1990-07</t>
@@ -2031,8 +2103,16 @@
           <t>1983-04</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>'中央党校研究生学历', '1979年10月至1984年1月解放军35010部队战士、文书、班长1984年1月至1985年3月贵州省仁怀县物价局工作员1985年3月至1993年1月贵州省仁怀县人民法院科员、助理审判员、审判员（其间：1985年10月至1988年10月在全国法院法律大学学习）1993年1月至1993年6月贵州省仁怀县坛厂镇党委副书记1993年6月至1994年5月贵州省仁怀县坛厂镇党委副书记、镇长1994年5月至1997年9月贵州省仁怀市坛厂镇党委书记1997年9月至1998年3月贵州省赤水市人民法院副院长、代院长1998年3月至2001年4月贵州省赤水市人民法院院长、党组书记（其间：1998年3月至1998年7月在国家法官学院民事法律专业培训班学习', '1998年11月评为四级高级法官）（1996年8月至1998年12月在中央党校经济管理专业学习', '1997年9月至1999年10月在贵州师范大学教育系基础心理学专业在职研究生课程进修班学习）2001年4月至2002年2月贵州省桐梓县人民检察院检察长2002年2月至2011年6月贵州省人口和计划生育委员会副主任、党组成员（其间：2004年4月至2005年4月挂职任贵州省贵定县委副书记', '2004年9月至2004年11月在贵州省委党校地厅班学习', '2004年9月至2007年7月在中央党校在职研究生班经济学&lt;经济管理&gt;专业学习', '2008年4月至2009年6月参加高等教育自学考试法律专业本科学习）2011年6月至2014年2月贵州省人口和计划生育委员会主任、党组书记2014年2月至2017年12月贵州省卫生和计划生育委员会主任、党组书记2017年12月贵州省六盘水市委书记十一届省委候补委员'</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>'1979年10月至1984年1月解放军35010部队战士、文书、班长1984年1月至1985年3月贵州省仁怀县物价局工作员1985年3月至1993年1月贵州省仁怀县人民法院科员、助理审判员、审判员（其间：1985年10月至1988年10月在全国法院法律大学学习）1993年1月至1993年6月贵州省仁怀县坛厂镇党委副书记1993年6月至1994年5月贵州省仁怀县坛厂镇党委副书记、镇长1994年5月至1997年9月贵州省仁怀市坛厂镇党委书记1997年9月至1998年3月贵州省赤水市人民法院副院长、代院长1998年3月至2001年4月贵州省赤水市人民法院院长、党组书记（其间：1998年3月至1998年7月在国家法官学院民事法律专业培训班学习', '1998年11月评为四级高级法官）（1996年8月至1998年12月在中央党校经济管理专业学习', '1997年9月至1999年10月在贵州师范大学教育系基础心理学专业在职研究生课程进修班学习）2001年4月至2002年2月贵州省桐梓县人民检察院检察长2002年2月至2011年6月贵州省人口和计划生育委员会副主任、党组成员（其间：2004年4月至2005年4月挂职任贵州省贵定县委副书记', '2004年9月至2007年7月在中央党校在职研究生班经济学&lt;经济管理&gt;专业学习', '2008年4月至2009年6月参加高等教育自学考试法律专业本科学习）2011年6月至2014年2月贵州省人口和计划生育委员会主任、党组书记2014年2月至2017年12月贵州省卫生和计划生育委员会主任、党组书记2017年12月贵州省六盘水市委书记十一届省委候补委员'</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>1984-01</t>
@@ -2091,14 +2171,10 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>'南京化工学院本科毕业', '厦门大学工商管理专业在职硕士研究生学历'</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>'厦门大学工商管理专业在职硕士研究生学历', '是国家能源局领导班子中首名来自于原国家能源局及原国家电力监管委员会系统之外的副局长4'</t>
-        </is>
-      </c>
+          <t>'在职研究生学历'</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>'1982年8月参加工作'</t>
@@ -2209,7 +2285,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>'2017.03昭通市委书记（人民网资料截至2017年3月）'</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2343,7 +2423,11 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>'1989年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J31" t="n">
         <v>19</v>
       </c>
@@ -2453,25 +2537,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>'山西朔州人', '任中华人民共和国科学技术部科研条件与财务司司长'</t>
+          <t>'山西朔州人', '（人民网资料截至2018年12月）'</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>'\n1983年10月加入中国共产党'</t>
+          <t>'1983年10月入党'</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>'清华大学水利工程系毕业', '水利电力部水利水电科学研究院硕士研究生学位', '清华大学在职研究生', '管理学博士', '1984年9月从清华大学水利工程系毕业', '1987年4月从水利电力部水利水电科学研究院硕士研究生毕业', '任中国21世纪议程管理中心和科学技术部生命科学技术发展中心代主任、主任', '任中华人民共和国科学技术部科研条件与财务司司长', '任科学技术部副部长12'</t>
+          <t>'清华大学公共管理学院管理科学与工程专业毕业', '研究生学历', '管理学博士', '1979-1984年清华大学水利工程系水资源工程专业学习1984-1987年水利电力部水利水电科学研究院水资源研究所工程水文及水资源专业硕士研究生学习1987-1988年水利电力部水资源办公室干部1988-1991年水利部水资源司规划处干部、主任科员（其间：1990.01-1991.08借调国家科委社会发展科技司工作）1991-1992年国家科委社会发展科技司资源环境处主任科员1992-1994年国家科委社会发展科技司综合资源处副处长1994-1998年国家科委社会发展科技司生态环境处处长（其间：1995.03-1995.12在美国能源部国家气候变化研究办公室做客座分析家）1998-1999年科学技术部中国21世纪议程管理中心和生命科学技术发展中心代主任（正处级）1999-2001年科学技术部中国21世纪议程管理中心和生命科学技术发展中心主任（副局级）2001-2006年科学技术部中国21世纪议程管理中心主任（正局级', '其间：2004.02-2006.02挂任云南省昭通市委常委、副市长）2006-2010年科学技术部条件财务司、科研条件与财务司司长（1999.05-2006.07清华大学公共管理学院管理科学与工程专业在职研究生学习', '获管理学博士学位', '2008.03-2008.07中央党校中青年干部培训班学习）2010-2014年科学技术部副部长、党组成员（其间：2012.08-2012.12在哈佛大学肯尼迪政府学院做高级研究员）2014-2015年山西省委常委、秘书长2015-2016年山西省委常委、秘书长'</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>'清华大学水利工程系毕业', '1984年9月从清华大学水利工程系毕业'</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>'清华大学公共管理学院管理科学与工程专业毕业', '1979-1984年清华大学水利工程系水资源工程专业学习1984-1987年水利电力部水利水电科学研究院水资源研究所工程水文及水资源专业硕士研究生学习1987-1988年水利电力部水资源办公室干部1988-1991年水利部水资源司规划处干部、主任科员（其间：1990.01-1991.08借调国家科委社会发展科技司工作）1991-1992年国家科委社会发展科技司资源环境处主任科员1992-1994年国家科委社会发展科技司综合资源处副处长1994-1998年国家科委社会发展科技司生态环境处处长（其间：1995.03-1995.12在美国能源部国家气候变化研究办公室做客座分析家）1998-1999年科学技术部中国21世纪议程管理中心和生命科学技术发展中心代主任（正处级）1999-2001年科学技术部中国21世纪议程管理中心和生命科学技术发展中心主任（副局级）2001-2006年科学技术部中国21世纪议程管理中心主任（正局级', '其间：2004.02-2006.02挂任云南省昭通市委常委、副市长）2006-2010年科学技术部条件财务司、科研条件与财务司司长（1999.05-2006.07清华大学公共管理学院管理科学与工程专业在职研究生学习'</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>'1987年4月参加工作'</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="b">
         <v>1</v>
@@ -2525,7 +2613,11 @@
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>'1987年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J34" t="n">
         <v>16</v>
       </c>
@@ -2709,12 +2801,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>'毕业于安徽师范大学数学系数学专业', '历任西藏自治区拉萨中学教师、教研组长', '副校长、校长', '2004年9月至2006年3月在新加坡南洋理工大学公共管理专业学习'</t>
+          <t>'在职研究生学历', '1981.09—1985.07安徽师范大学数学系数学专业学习1985.07—1991.03西藏自治区拉萨中学教师、教研组长1991.03—1994.09西藏自治区拉萨中学教务处副主任1994.09—1996.09西藏自治区拉萨中学副校长（其间：1996.03—1996.06国家教委中学校长培训中心学习）1996.09—2000.08西藏自治区拉萨中学校长2000.08—2002.12西藏自治区教育厅考试院院长2002.12—2008.01西藏自治区拉萨市副市长（其间：2005.02—2006.01新加坡南洋理工大学公共管理专业在职研究生学习', '获公共管理硕士学位）2008.01—2012.01西藏自治区昌都地委副书记、行署常务副专员2012.01—2014.02西藏自治区昌都地委副书记、行署专员2014.02—2016.07西藏自治区党委组织部常务副部长（其间：2016.02—2016.06抽调到中央巡视组任中央第十一巡视组副组长）2016.07—2017.06西藏自治区教育工委副书记'</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>'毕业于安徽师范大学数学系数学专业', '2004年9月至2006年3月在新加坡南洋理工大学公共管理专业学习'</t>
+          <t>'1981.09—1985.07安徽师范大学数学系数学专业学习1985.07—1991.03西藏自治区拉萨中学教师、教研组长1991.03—1994.09西藏自治区拉萨中学教务处副主任1994.09—1996.09西藏自治区拉萨中学副校长（其间：1996.03—1996.06国家教委中学校长培训中心学习）1996.09—2000.08西藏自治区拉萨中学校长2000.08—2002.12西藏自治区教育厅考试院院长2002.12—2008.01西藏自治区拉萨市副市长（其间：2005.02—2006.01新加坡南洋理工大学公共管理专业在职研究生学习'</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2841,8 +2933,16 @@
           <t>1985-06</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>'四川省委党校在职研究生班科学社会主义专业毕业', '四川省委党校研究生学历', '1983.09沈阳冶金机械专科学校机械制造工艺及设备专业学习1986.07攀枝花钢铁（集团）公司自动化部设备研究室技术员1986.12攀枝花钢铁（集团）公司自动化部团委副书记、书记（其间：1991.08-1993.07四川省委党校研究生部科学社会主义专业学习）1993.08攀枝花钢铁（集团）公司党委组织部党员教育科副科长1994.01攀枝花钢铁（集团）公司党委组织部党员教育科科长1997.08四川省委组织部组织处、办公室主任科员2001.05四川省委组织部办公室副主任（其间：2002.09-2003.05借调中组部干部二局工作）2003.06中组部干部二局办公室副处级调研员2003.09中组部干部二局综合处副处长2004.12中组部干部二局办公室主任2010.12中组部干部二局副巡视员、办公室主任2011.09中组部干部二局副巡视员2013.04宁夏自治区党委副秘书长、中组部干部二局副巡视员2013.07宁夏自治区党委副秘书长、办公厅主任2015.09宁夏自治区党委秘书长、办公厅主任2017.06宁夏自治区中卫市委书记'</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>'四川省委党校在职研究生班科学社会主义专业毕业', '1983.09沈阳冶金机械专科学校机械制造工艺及设备专业学习1986.07攀枝花钢铁（集团）公司自动化部设备研究室技术员1986.12攀枝花钢铁（集团）公司自动化部团委副书记、书记（其间：1991.08-1993.07四川省委党校研究生部科学社会主义专业学习）1993.08攀枝花钢铁（集团）公司党委组织部党员教育科副科长1994.01攀枝花钢铁（集团）公司党委组织部党员教育科科长1997.08四川省委组织部组织处、办公室主任科员2001.05四川省委组织部办公室副主任（其间：2002.09-2003.05借调中组部干部二局工作）2003.06中组部干部二局办公室副处级调研员2003.09中组部干部二局综合处副处长2004.12中组部干部二局办公室主任2010.12中组部干部二局副巡视员、办公室主任2011.09中组部干部二局副巡视员2013.04宁夏自治区党委副秘书长、中组部干部二局副巡视员2013.07宁夏自治区党委副秘书长、办公厅主任2015.09宁夏自治区党委秘书长、办公厅主任2017.06宁夏自治区中卫市委书记'</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>1986-07</t>
@@ -2905,7 +3005,11 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J40" t="n">
         <v>16</v>
       </c>
@@ -2969,7 +3073,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>'1984年9月参加工作'</t>
+        </is>
+      </c>
       <c r="J41" t="n">
         <v>22</v>
       </c>
@@ -3033,7 +3141,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>'1986年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J42" t="n">
         <v>19</v>
       </c>
@@ -3097,7 +3209,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>'1991年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J43" t="n">
         <v>19</v>
       </c>
@@ -3213,12 +3329,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>'郑州大学经济系本科毕业'</t>
+          <t>'大学学历', '经济学学士', '郑州大学经济系政治经济学专业学习1984年07月—1987年03月', '在河南省委党校第34期中青班学习）2004年06月—2006年06月', '在中央党校第八期中青年干部培训二班学习）2009年02月—2009年03月'</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>'郑州大学经济系本科毕业'</t>
+          <t>'郑州大学经济系政治经济学专业学习1984年07月—1987年03月'</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3269,7 +3385,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>'河南长垣人', '2019年1月当选阳江市人大常委会主任'</t>
+          <t>'高级管理人员工商管理硕士学位', '2004.05-2006.08珠海市临港工业区党委书记、管委会主任（其间：2002.12-2004.12中山大学管理学院高级管理人员工商管理硕士专业学习）', '2008.08-2008.11珠海市斗门区委书记、区人大主任', '2008.11-2011.12珠海市斗门区委书记、区人大主任', '斗门区委书记、区人大主任', '（人民网资料截至2018年10月）'</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3279,12 +3395,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>'毕业于西安冶金建筑学院工业与民用建筑专业', '中山大学在职研究生学历', '工商管理硕士学位1'</t>
+          <t>'大学学历', '高级管理人员工商管理硕士学位', '1978.09-1982.08西安冶金建筑学院工业与民用建筑专业大学本科学习', '1993.10-2001.03珠海市市政基础设施土地开发管理中心副主任（其间：1993.08-1995.12中央党校经济管理专业大学本科学习）', '2004.05-2006.08珠海市临港工业区党委书记、管委会主任（其间：2002.12-2004.12中山大学管理学院高级管理人员工商管理硕士专业学习）'</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>'毕业于西安冶金建筑学院工业与民用建筑专业'</t>
+          <t>'1978.09-1982.08西安冶金建筑学院工业与民用建筑专业大学本科学习', '1993.10-2001.03珠海市市政基础设施土地开发管理中心副主任（其间：1993.08-1995.12中央党校经济管理专业大学本科学习）', '2004.05-2006.08珠海市临港工业区党委书记、管委会主任（其间：2002.12-2004.12中山大学管理学院高级管理人员工商管理硕士专业学习）'</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3324,12 +3440,36 @@
           <t>1965-8</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>'四川井研人', '党组书记2018.10中共泸州市委书记（人民网资料截至2018年10月）'</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>'1985年4月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>'中央党校经济管理专业毕业', '研究生学历', '1983.08共青团犍为县委干事、副书记、书记(其间：1988.09-1991.07在中央党校经济管理专业大专班学习)1992.05中共犍为县定文区委副书记、区公所区长1992.10中共犍为县玉津镇党委书记1993.05挂职任云南省潞西县政府副县长1994.12中共犍为县纪委副书记1996.03犍为县政府县长助理、副县长1997.08中共犍为县委副书记、县政府代县长1998.01中共犍为县委副书记、县政府县长(1995.09-1998.02在省委党校经济管理专业本科班学习)2000.01中共犍为县委书记2001.12乐山市政府副市长(1999.09-2002.06在中央党校经济管理专业研究生班学习;2002.07参加中组部举办的赴新加坡经济管理高级研修班学习)2004.11中共南充市委常委、组织部部长2008.08中共遂宁市委常委、市政府副市长、党组副书记(其间：2009.03-2011.10任四川陆军预备役高射炮兵师副政委兼第二团第一政委', '预备役大校军衔)2011.10中共泸州市委副书记2011.11中共泸州市委副书记'</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>'中央党校经济管理专业毕业', '1983.08共青团犍为县委干事、副书记、书记(其间：1988.09-1991.07在中央党校经济管理专业大专班学习)1992.05中共犍为县定文区委副书记、区公所区长1992.10中共犍为县玉津镇党委书记1993.05挂职任云南省潞西县政府副县长1994.12中共犍为县纪委副书记1996.03犍为县政府县长助理、副县长1997.08中共犍为县委副书记、县政府代县长1998.01中共犍为县委副书记、县政府县长(1995.09-1998.02在省委党校经济管理专业本科班学习)2000.01中共犍为县委书记2001.12乐山市政府副市长(1999.09-2002.06在中央党校经济管理专业研究生班学习;2002.07参加中组部举办的赴新加坡经济管理高级研修班学习)2004.11中共南充市委常委、组织部部长2008.08中共遂宁市委常委、市政府副市长、党组副书记(其间：2009.03-2011.10任四川陆军预备役高射炮兵师副政委兼第二团第一政委'</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="b">
         <v>1</v>
@@ -3363,9 +3503,17 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>'2018.10石嘴山市委书记（人民网资料截至2018年10月）'</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>'大学学历'</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3400,8 +3548,16 @@
           <t>1962-5</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>'男', '男', '男', '男'</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>'湖南城步人', '1973年...省人大主任陈求发简历：陈求发', '湖南城步人', '辽宁丹东人', '山东荣成人'</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3445,7 +3601,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>'湖南平江人', '中国人民大学行政管理学研究所行政管理学专业硕士研究生', '在中国人民大学行政管理学研究所行政管理学专业读硕士研究生', '任湖北省人民政府党组成员2'</t>
+          <t>'湖南平江人', '1984.09北京大学经济管理系国民经济管理专业学习1988.07中国人民大学行政管理学研究所行政管理学专业硕士研究生1991.07中国社会科学院世界经济与政治研究所助理研究员1992.07加拿大卡尔顿大学公共管理专业硕士研究生1994.08美国兰德公司研究生院政策分析专业在职学习', '国务院扶贫开发领导小组成员(2015.10)2016.11湖北省政府党组成员2016.12湖北省政府副省长、党组成员2018.11海南省委常委、三亚市委书记（人民网资料截至2018年11月）'</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3455,12 +3611,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>'北京大学经济管理系国民经济管理专业毕业', '中国人民大学行政管理学研究所行政管理学专业硕士研究生', '加拿大卡尔顿大学公共管理专业硕士研究生学历', '美国兰德公司研究生院政策分析专业在职政策分析博士学位', '在北京大学经济管理系国民经济管理专业学习', '在中国人民大学行政管理学研究所行政管理学专业读硕士研究生', '任中国社会科学院世界经济与政治研究所助理研究员', '在加拿大卡尔顿大学公共管理专业读硕士研究生', '在美国兰德公司研究生院政策分析专业在职学习', '获政策分析博士学位'</t>
+          <t>'研究生学历', '1984.09北京大学经济管理系国民经济管理专业学习1988.07中国人民大学行政管理学研究所行政管理学专业硕士研究生1991.07中国社会科学院世界经济与政治研究所助理研究员1992.07加拿大卡尔顿大学公共管理专业硕士研究生1994.08美国兰德公司研究生院政策分析专业在职学习', '获政策分析博士学位（其间：1994.08-1998.07美国兰德公司国际部亚太研究中心研究员）1999.04世界银行总部企业发展部公司治理局公司治理专家2000.10中国证监会规划发展委员会干部2000.11中国证监会规划发展委员会委员(副局级)2001.04中国证监会上市公司监管部副主任2006.08中国证监会发行监管部副主任2007.04中国证监会国际合作部副主任(主持工作)兼发行监管部副主任2008.02中国证监会国际合作部主任2014.04商务部部长助理、党组成员'</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>'北京大学经济管理系国民经济管理专业毕业', '中国人民大学行政管理学研究所行政管理学专业硕士研究生', '加拿大卡尔顿大学公共管理专业硕士研究生学历', '美国兰德公司研究生院政策分析专业在职政策分析博士学位', '在北京大学经济管理系国民经济管理专业学习', '在中国人民大学行政管理学研究所行政管理学专业读硕士研究生', '在加拿大卡尔顿大学公共管理专业读硕士研究生', '在美国兰德公司研究生院政策分析专业在职学习'</t>
+          <t>'1984.09北京大学经济管理系国民经济管理专业学习1988.07中国人民大学行政管理学研究所行政管理学专业硕士研究生1991.07中国社会科学院世界经济与政治研究所助理研究员1992.07加拿大卡尔顿大学公共管理专业硕士研究生1994.08美国兰德公司研究生院政策分析专业在职学习'</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3500,12 +3656,36 @@
           <t>1968-1</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>'甘肃平凉人', '2001.09--2003.12自治区高等教育自学考试农学专业学习）2005.12--2008.03昌吉市委常委、常务副市长（其间：2006.05--2006.06中组部县市长培训班学习）2008.03--2009.01吉木萨尔县委副书记、代理县长2009.01--2012.02吉木萨尔县委副书记、县长2012.02--2015.04阜康市委书记、新疆天山天池风景名胜管理委员会（天池自然保护区管理局）党委书记（2010.12--2014.01北京科技大学高级管理人员工商管理硕士专业学习）2015.04--2016.02昌吉市委书记2016.02--2017.02昌吉州党委常委、昌吉市委书记2017.02--2017.11自治区公安厅党委委员、副厅长2017.11--2018.06自治区公安厅党委副书记、副厅长、政治部主任2018.06--2018.11喀什地委副书记、政法委副书记2018.11哈密市委书记（人民网资料截止2018年11月）'</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>'1997年7月入党'</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>'大学学历', '1985.09--1988.07新疆八一农学院农学专业学习1988.07--1994.09玛纳斯县职业高中教师1994.09--1996.01玛纳斯县头工乡农技站技术员1996.01--1999.04玛纳斯县头工乡科技副乡长、副乡长1999.04--2000.01玛纳斯县六户地镇党委副书记（主持镇政府工作）2000.01--2000.11玛纳斯县六户地镇党委副书记、镇长2000.11--2001.01玛纳斯县六户地镇党委书记（2000.07--2000.09昌吉州党委党校乡镇长理论培训班学习）2001.01--2005.12玛纳斯县副县长（其间：2001.09--2002.07福建省委党校县级领导理论培训班学习', '2001.09--2003.12自治区高等教育自学考试农学专业学习）2005.12--2008.03昌吉市委常委、常务副市长（其间：2006.05--2006.06中组部县市长培训班学习）2008.03--2009.01吉木萨尔县委副书记、代理县长2009.01--2012.02吉木萨尔县委副书记、县长2012.02--2015.04阜康市委书记、新疆天山天池风景名胜管理委员会（天池自然保护区管理局）党委书记（2010.12--2014.01北京科技大学高级管理人员工商管理硕士专业学习）2015.04--2016.02昌吉市委书记2016.02--2017.02昌吉州党委常委、昌吉市委书记2017.02--2017.11自治区公安厅党委委员、副厅长2017.11--2018.06自治区公安厅党委副书记、副厅长、政治部主任2018.06--2018.11喀什地委副书记、政法委副书记2018.11哈密市委书记（人民网资料截止2018年11月）'</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>'1985.09--1988.07新疆八一农学院农学专业学习1988.07--1994.09玛纳斯县职业高中教师1994.09--1996.01玛纳斯县头工乡农技站技术员1996.01--1999.04玛纳斯县头工乡科技副乡长、副乡长1999.04--2000.01玛纳斯县六户地镇党委副书记（主持镇政府工作）2000.01--2000.11玛纳斯县六户地镇党委副书记、镇长2000.11--2001.01玛纳斯县六户地镇党委书记（2000.07--2000.09昌吉州党委党校乡镇长理论培训班学习）2001.01--2005.12玛纳斯县副县长（其间：2001.09--2002.07福建省委党校县级领导理论培训班学习', '2001.09--2003.12自治区高等教育自学考试农学专业学习）2005.12--2008.03昌吉市委常委、常务副市长（其间：2006.05--2006.06中组部县市长培训班学习）2008.03--2009.01吉木萨尔县委副书记、代理县长2009.01--2012.02吉木萨尔县委副书记、县长2012.02--2015.04阜康市委书记、新疆天山天池风景名胜管理委员会（天池自然保护区管理局）党委书记（2010.12--2014.01北京科技大学高级管理人员工商管理硕士专业学习）2015.04--2016.02昌吉市委书记2016.02--2017.02昌吉州党委常委、昌吉市委书记2017.02--2017.11自治区公安厅党委委员、副厅长2017.11--2018.06自治区公安厅党委副书记、副厅长、政治部主任2018.06--2018.11喀什地委副书记、政法委副书记2018.11哈密市委书记（人民网资料截止2018年11月）'</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>'1988年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="b">
         <v>1</v>
@@ -3538,12 +3718,36 @@
           <t>1961-7</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>'江苏淮安人', '2003年1月至2003年4月江苏省昆山市委书记、市人大常委会主任', '2009年1月至2014年7月江苏省泰州市委书记、市人大常委会主任', '沈阳市委书记2019年1月辽宁省委常委、沈阳市委书记（人民网资料截至2019年1月）'</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>'1985年4月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>'工学学士', '1978年9月至1982年8月南京航空学院基础课系机械设计专业师资班学习', '辽宁行政学院（辽宁农业管理干部学院）院长（兼）', '辽宁行政学院（辽宁农业管理干部学院）院长（兼）'</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>'1978年9月至1982年8月南京航空学院基础课系机械设计专业师资班学习'</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>'1982年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="b">
         <v>1</v>
@@ -3576,12 +3780,36 @@
           <t>1964-10</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>'吉林伊通人', '2001.12吉林市城市管理行政执法局局长2004.04桦甸市委副书记、副市长、代市长2004.12桦甸市委副书记、市长2006.08公主岭市副市长、代理市长2006.10公主岭市委副书记、副市长、代市长、公主岭国家农业科技园区党工委副书记、管委会主任2006.11公主岭市委副书记、市长、公主岭国家农业科技园区党工委副书记、管委会主任2008.03公主岭市委书记、市长、公主岭国家农业科技园区党工委副书记、管委会主任2008.05公主岭市委书记、公主岭国家农业科技园区党工委书记2010.05四平市人民政府副市长、党组成员2012.01四平市委常委、常务副市长2012.06松原市委常委、常务副市长2015.11吉林省安全生产监督管理局局长、党组书记2018.02吉林省环境保护厅厅长、党组书记2018.10吉林省生态环境厅厅长、党组书记2018.11任辽源市委委员、常委、书记（人民网资料截至2018年11月）'</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>'1986年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>'东北电力学院建筑工程系电厂建筑结构工程专业毕业', '全日制教育大学学历', '工学学士', '吉林省委党校经济管理专业在职研究生'</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>'东北电力学院建筑工程系电厂建筑结构工程专业毕业', '吉林省委党校经济管理专业在职研究生'</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>'1987年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="b">
         <v>1</v>
@@ -3614,10 +3842,14 @@
           <t>1966-5</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>'山东胶南人', '还兼任第七届世界军人运动会执行委员会副主任、秘书长', '兼任随州市人大常委会主任4'</t>
+          <t>'山东胶南人', '市委武汉长江新城工委书记（兼）2018.06--2018.11第七届世界军人运动会执行委员会副主任、秘书长2018.11--2018.12湖北省委委员', '随州市委书记、市人大常委会主任、军分区党委第一书记、市委党校第一校长2019.12--2020.07湖北省委委员', '随州市委书记、军分区党委第一书记、市委党校第一校长2020.07--青海省委常委、宣传部长（人民网资料截至2020年7月）'</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3627,15 +3859,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>'陈瑞峰考入青岛师范专科学校政治系学习', '转入曲阜师范大学政治系学习', '他考入北京大学政治学与行政管理系中共党史专业攻读硕士研究生', '毕业后分配到北京计算机二厂党委宣传部'</t>
+          <t>'法学硕士', '1983.09--1985.09青岛师专政治系学生1985.09--1987.09曲阜师范大学政治系学生1987.09--1990.01北京大学政治学与行政管理系中共党史专业硕士研究生1990.01--1990.11北京计算机二厂党委宣传部干部1990.11--1992.03中宣部宣传局党员教育处干部1992.03--1994.06中宣部宣传局党员教育处副主任科员1994.06--1996.08中宣部宣教局党员教育处主任科员1996.08--2000.08中宣部宣教局党员教育处副处长2000.08--2004.07中宣部宣教局党员教育处处长2004.07--2009.10中央文明委办公室调研组副组长2009.10--2014.07中国志愿服务基金会秘书处秘书长(正局长级)2014.07--2016.08中宣部宣教局局长2016.08--2016.10武汉市委副书记2016.10--2017.01武汉市委副书记、市委党校校长（兼）2017.01--2017.05武汉市委副书记、市委政法委书记（兼）、市委党校校长（兼）2017.05--2017.07武汉市委副书记', '市委党校校长（兼）、武汉行政学院院长（兼）2017.07--2017.09湖北省委委员', '市委党校校长（兼）、武汉行政学院院长（兼）', '市委党校校长（兼）、武汉行政学院院长（兼）', '随州市委书记、市委党校第一校长2018.12--2019.01湖北省委委员', '随州市委书记、军分区党委第一书记、市委党校第一校长2019.01--2019.12湖北省委委员', '随州市委书记、市人大常委会主任、军分区党委第一书记、市委党校第一校长2019.12--2020.07湖北省委委员', '随州市委书记、军分区党委第一书记、市委党校第一校长2020.07--青海省委常委、宣传部长（人民网资料截至2020年7月）'</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>'陈瑞峰考入青岛师范专科学校政治系学习', '转入曲阜师范大学政治系学习', '他考入北京大学政治学与行政管理系中共党史专业攻读硕士研究生'</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>'1983.09--1985.09青岛师专政治系学生1985.09--1987.09曲阜师范大学政治系学生1987.09--1990.01北京大学政治学与行政管理系中共党史专业硕士研究生1990.01--1990.11北京计算机二厂党委宣传部干部1990.11--1992.03中宣部宣传局党员教育处干部1992.03--1994.06中宣部宣传局党员教育处副主任科员1994.06--1996.08中宣部宣教局党员教育处主任科员1996.08--2000.08中宣部宣教局党员教育处副处长2000.08--2004.07中宣部宣教局党员教育处处长2004.07--2009.10中央文明委办公室调研组副组长2009.10--2014.07中国志愿服务基金会秘书处秘书长(正局长级)2014.07--2016.08中宣部宣教局局长2016.08--2016.10武汉市委副书记2016.10--2017.01武汉市委副书记、市委党校校长（兼）2017.01--2017.05武汉市委副书记、市委政法委书记（兼）、市委党校校长（兼）2017.05--2017.07武汉市委副书记'</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>'1990年1月参加工作'</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="b">
         <v>1</v>
@@ -3668,12 +3904,32 @@
           <t>1962-9</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>'省委提名绥化市政府副市长人选', '2011.10-2014.07中共绥化市委常委、市人民政府副市长'</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>'研究生学历', '中央党校国际政治专业毕业', '1986.01泰来县宏升乡财政所副所长(其间：1983.10~1986.07在黑龙江大学党政干部基础专业自考班函授学习)', '1999.03中共拜泉县委副书记、政府县长(其间：1996.09~1999.07在省委党校经济管理专业本科函授班学习)', '2001.01中共富裕县委书记(其间：2001.09~2002.01在省委党校青干班学习', '2002.09~2003.01在中央党校进修三班学习', '2003.09~2003.12在黑龙江第三期赴加拿大阿尔伯塔大学经济管理培训班学习)', '2004.02齐齐哈尔市政府副市长(其间：2006.09~2008.07在中央党校国际政治专业研究生班函授学习)'</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>'中央党校国际政治专业毕业', '1986.01泰来县宏升乡财政所副所长(其间：1983.10~1986.07在黑龙江大学党政干部基础专业自考班函授学习)', '1999.03中共拜泉县委副书记、政府县长(其间：1996.09~1999.07在省委党校经济管理专业本科函授班学习)', '2004.02齐齐哈尔市政府副市长(其间：2006.09~2008.07在中央党校国际政治专业研究生班函授学习)'</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>'1980年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="b">
         <v>1</v>
@@ -3706,11 +3962,27 @@
           <t>1963-6</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>'高级管理人员工商管理硕士学位', '1980.09～1984.07山东纺织工学院机电系工业电气自动化专业学生1984.07～1985.12青岛地毯公司办公室秘书1985.12～1998.11中共青岛市委组织部秘书科帮助工作、秘书科干事、办公室干事、副科级巡视员、正科级巡视员、干部二处副处长、青岛市委组织部干部二处处长(期间：1996.09～1998.07青岛海洋大学企业管理专业研究生班学员)1998.11～2001.04青岛市知识分子工作领导小组办公室主任(副局级)、企业经营者评荐中心副主任2001.04～2004.12青岛市人事局副局长、党组成员2004.12～2007.03中共青岛市委组织部副部长(期间：2005.10～2007.03在南开大学商学院工商管理专业硕士学位课程班学习)2007.03～2010.04中共青岛市委组织部常务副部长（正局级）2010.04～2015.07中共青岛市市北区委书记、党校校长2015.07～2015.08青岛市委常委、宣传部部长', '（人民网资料截至2018年12月）'</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>'大学学历', '高级管理人员工商管理硕士学位', '1980.09～1984.07山东纺织工学院机电系工业电气自动化专业学生1984.07～1985.12青岛地毯公司办公室秘书1985.12～1998.11中共青岛市委组织部秘书科帮助工作、秘书科干事、办公室干事、副科级巡视员、正科级巡视员、干部二处副处长、青岛市委组织部干部二处处长(期间：1996.09～1998.07青岛海洋大学企业管理专业研究生班学员)1998.11～2001.04青岛市知识分子工作领导小组办公室主任(副局级)、企业经营者评荐中心副主任2001.04～2004.12青岛市人事局副局长、党组成员2004.12～2007.03中共青岛市委组织部副部长(期间：2005.10～2007.03在南开大学商学院工商管理专业硕士学位课程班学习)2007.03～2010.04中共青岛市委组织部常务副部长（正局级）2010.04～2015.07中共青岛市市北区委书记、党校校长2015.07～2015.08青岛市委常委、宣传部部长', '市北区委书记、区委党校校长2015.08～2016.11青岛市委常委、宣传部部长2016.11～2017.07山东省委组织部副部长2017.07～2018.12', '市委党校校长'</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>'1980.09～1984.07山东纺织工学院机电系工业电气自动化专业学生1984.07～1985.12青岛地毯公司办公室秘书1985.12～1998.11中共青岛市委组织部秘书科帮助工作、秘书科干事、办公室干事、副科级巡视员、正科级巡视员、干部二处副处长、青岛市委组织部干部二处处长(期间：1996.09～1998.07青岛海洋大学企业管理专业研究生班学员)1998.11～2001.04青岛市知识分子工作领导小组办公室主任(副局级)、企业经营者评荐中心副主任2001.04～2004.12青岛市人事局副局长、党组成员2004.12～2007.03中共青岛市委组织部副部长(期间：2005.10～2007.03在南开大学商学院工商管理专业硕士学位课程班学习)2007.03～2010.04中共青岛市委组织部常务副部长（正局级）2010.04～2015.07中共青岛市市北区委书记、党校校长2015.07～2015.08青岛市委常委、宣传部部长'</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="b">
@@ -3759,8 +4031,16 @@
           <t>1984-12</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>'省委党校大学学历', '1983.08江阴县云亭乡团委书记1986.05共青团江阴县（市）委副书记（其间：1988.09-1990.07江苏省青年管理干部学院经济管理专业干部专修科脱产学习）1992.03江阴市长寿镇党委副书记1995.02江阴市长寿镇党委副书记、镇长1996.10江阴市长寿镇党委书记、镇长1997.02江阴市长寿镇党委书记、人大主席1998.11江阴市青阳镇党委书记2001.03江阴市政府副市长'</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>'1983.08江阴县云亭乡团委书记1986.05共青团江阴县（市）委副书记（其间：1988.09-1990.07江苏省青年管理干部学院经济管理专业干部专修科脱产学习）1992.03江阴市长寿镇党委副书记1995.02江阴市长寿镇党委副书记、镇长1996.10江阴市长寿镇党委书记、镇长1997.02江阴市长寿镇党委书记、人大主席1998.11江阴市青阳镇党委书记2001.03江阴市政府副市长'</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>1983-08</t>
@@ -3819,14 +4099,10 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>'浙江省委党校工商管理硕士研究生', '在浙江大学经济学专业研究生课程班学习）', '在中央党校经济管理专业本科班学习）'</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>'在浙江大学经济学专业研究生课程班学习）', '在中央党校经济管理专业本科班学习）'</t>
-        </is>
-      </c>
+          <t>'省委党校研究生学历', '台州市委常委、组织部部长、市委党校校长'</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
           <t>'1984年2月参加工作'</t>
@@ -3947,9 +4223,17 @@
           <t>1992-02</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>'中央党校研究生学历'</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>'1986年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="b">
         <v>1</v>
@@ -4006,11 +4290,7 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>'1990年毕业于绍兴高专管理系秘书专业'</t>
-        </is>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
           <t>1990-08</t>
@@ -4071,12 +4351,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>'广西大学商学院政治经济学专业毕业', '在职研究生学历', '法学学士', '在广西民族学院政治系政治专业学习', '在广西壮族自治区党委党校中青年干部培训班学习）', '任共青团广西壮族自治区委常委、少年部部长兼权益部部长（1997年9月至1999年12月在广西大学商学院政治经济学专业学习）', '2002年8月）（其间：2002年3月至2002年5月在广西壮族自治区党委党校地厅级干部进修班学习', '2003年9月至2004年1月在中央党校西部地区干部培训班学习）'</t>
+          <t>'广西大学商学院政治经济学专业毕业', '在职研究生学历', '法学学士', '1980.09-1984.07广西民族学院政治系政治专业学习1984.07-1997.12共青团广西壮族自治区委员会干事、副主任科员、主任科员、办公室副主任、少年部部长（其间：1986.08-1988.08挂任共青团南丹县委员会副书记', '1995.09-1996.01自治区党委党校中青年干部培训班学习）1997.12-2000.08共青团广西壮族自治区委员会常委、少年部部长兼权益部部长（1997.09-1999.12广西大学商学院政治经济学专业学习）2000.08-2006.09共青团广西壮族自治区委员会副书记', '2002.08）（其间：2002.03-2002.05自治区党委党校地厅级干部进修班学习', '2003.09-2004.01中央党校西部地区干部培训班学习）2006.09-2009.02共青团广西壮族自治区委员会书记'</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>'广西大学商学院政治经济学专业毕业', '在广西民族学院政治系政治专业学习', '任共青团广西壮族自治区委常委、少年部部长兼权益部部长（1997年9月至1999年12月在广西大学商学院政治经济学专业学习）'</t>
+          <t>'广西大学商学院政治经济学专业毕业', '1980.09-1984.07广西民族学院政治系政治专业学习1984.07-1997.12共青团广西壮族自治区委员会干事、副主任科员、主任科员、办公室副主任、少年部部长（其间：1986.08-1988.08挂任共青团南丹县委员会副书记', '1995.09-1996.01自治区党委党校中青年干部培训班学习）1997.12-2000.08共青团广西壮族自治区委员会常委、少年部部长兼权益部部长（1997.09-1999.12广西大学商学院政治经济学专业学习）2000.08-2006.09共青团广西壮族自治区委员会副书记'</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4141,7 +4421,11 @@
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J63" t="n">
         <v>16</v>
       </c>
@@ -4180,12 +4464,32 @@
           <t>1963-10</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>'（人民网资料截至2018年2月）'</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>'1984年7月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '硕士学位'</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>'1986年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="b">
         <v>1</v>
@@ -4223,7 +4527,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>'2018.02吉林市委书记（人民网资料截至2018年2月）'</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
@@ -4287,12 +4595,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>'内蒙古工学院机械制造工艺设备及自动化专业学习\n1987.07—1994.04', '国家电力公司党校学习）\n1999.10—2001.05', '中央党校中青年 干部培训班学习）\n2013.05—2013.08'</t>
+          <t>'大学文化程度', '1983.09--1987.07内蒙古工学院机械制造工艺与设备专业学习1987.07--1994.04内蒙古电力勘测设计院机务室技术人员1994.04--1994.12内蒙古电力勘测设计院团委书记、青工科科长1994.12--1997.10内蒙古电力总公司（内蒙古电业管理局）青工处副处长、团委书记1997.10--1999.10呼和浩特供电局党委书记（其间：1998.09--1999.01国家电力公司党校学习）1999.10--2001.05呼和浩特供电局党委书记、副局长2001.05--2005.03内蒙古超高压供电局局长、党委委员2005.03--2006.12内蒙古超高压供电局局长、党委副书记2006-12--2013.05内蒙古电力（集团）有限责任公司党委委员、副总经理（其间：2008.03--2008.09挂职任国家电网公司农电工作部副主任', '2010.03--2011.01中央党校中青年干部培训班学习）2013.05--2013.08内蒙古电力（集团）有限责任公司总经理（正厅级）2013.08--2015.05内蒙古电力（集团）有限责任公司总经理（正厅级）、党委副书记、董事2015.05--2016.02内蒙古自治区呼和浩特市委副书记、政法委书记（正厅级）2016.02--2016.03内蒙古自治区呼伦贝尔市委副书记、市政府市长提名人选2016.03--2017.02内蒙古自治区呼伦贝尔市委副书记、市政府代市长、党组书记2017.02--2018.03内蒙古自治区呼伦贝尔市委副书记、市政府市长、党组书记'</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>'内蒙古工学院机械制造工艺设备及自动化专业学习\n1987.07—1994.04'</t>
+          <t>'1983.09--1987.07内蒙古工学院机械制造工艺与设备专业学习1987.07--1994.04内蒙古电力勘测设计院机务室技术人员1994.04--1994.12内蒙古电力勘测设计院团委书记、青工科科长1994.12--1997.10内蒙古电力总公司（内蒙古电业管理局）青工处副处长、团委书记1997.10--1999.10呼和浩特供电局党委书记（其间：1998.09--1999.01国家电力公司党校学习）1999.10--2001.05呼和浩特供电局党委书记、副局长2001.05--2005.03内蒙古超高压供电局局长、党委委员2005.03--2006.12内蒙古超高压供电局局长、党委副书记2006-12--2013.05内蒙古电力（集团）有限责任公司党委委员、副总经理（其间：2008.03--2008.09挂职任国家电网公司农电工作部副主任'</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4460,10 +4768,14 @@
           <t>1962-11</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>'江苏海安人', '、第十三届全国人民代表大会江苏地区代表', '江苏省环本农场干部、副指导员、南通市公安局政治处干部、南通市委研究室干部、副科级研究员、正科级研究员、综合科科长、主任助理、综合科科长、副处级秘书、副主任、如皋市委副书记、代市长、市长、如东县委书记、县人大常委会主任、无锡市委常委、市纪委书记、江阴市委书记、江阴高新技术产业开发区党工委书记', '被选为全国人大代表2'</t>
+          <t>'江苏海安人', '2011.01兼任县人大常委会主任）2011.05-2013.12无锡市委常委、市纪委书记2013.12-2014.02无锡市委常委、市纪委书记', '江阴市委书记、江阴高新技术产业开发区党工委书记2014.02-2015.12无锡市委常委、江阴市委书记、江阴高新技术产业开发区党工委书记2015.12-2018.04徐州市委副书记、代市长、市长、市政府党组书记2018.04徐州市委书记、市人大常委会党组书记十三届全国人大代表', '省十一届、十二届、十三届人大代表', '（人民网资料截至2018年4月）'</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4473,12 +4785,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>'中共江苏省委党校大学学历、南京大学工商管理专业研究生课程进修班毕业', '在江苏公安专科学校治安系学习'</t>
+          <t>'1982.09-1985.07江苏公安专科学校治安系学习1985.07-1986.05江苏省环本农场干部、副指导员1986.05-1987.09南通市公安局政治处干部1987.09-1989.05南通市委研究室干部1989.05-1993.10南通市委研究室副科级研究员、正科级研究员（其间：1989.09-1991.07省委党校函授学院对外经济专业在职大学学习）1993.10-1994.02南通市委办公室综合科科长1994.02-1995.04南通市委办公室主任助理、综合科科长1995.04-1996.09南通市委办公室主任助理、副处级秘书1996.09-2000.12南通市委办公室副主任（其间：1996.09-1998.07南京大学工商管理专业研究生课程进修班学习）2000.12-2002.12如皋市委副书记2002.12-2006.06如皋市委副书记、代市长、市长2006.06-2011.05如东县委书记（2009.12明确副市级'</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>'中共江苏省委党校大学学历、南京大学工商管理专业研究生课程进修班毕业', '在江苏公安专科学校治安系学习'</t>
+          <t>'1982.09-1985.07江苏公安专科学校治安系学习1985.07-1986.05江苏省环本农场干部、副指导员1986.05-1987.09南通市公安局政治处干部1987.09-1989.05南通市委研究室干部1989.05-1993.10南通市委研究室副科级研究员、正科级研究员（其间：1989.09-1991.07省委党校函授学院对外经济专业在职大学学习）1993.10-1994.02南通市委办公室综合科科长1994.02-1995.04南通市委办公室主任助理、综合科科长1995.04-1996.09南通市委办公室主任助理、副处级秘书1996.09-2000.12南通市委办公室副主任（其间：1996.09-1998.07南京大学工商管理专业研究生课程进修班学习）2000.12-2002.12如皋市委副书记2002.12-2006.06如皋市委副书记、代市长、市长2006.06-2011.05如东县委书记（2009.12明确副市级'</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4533,7 +4845,11 @@
           <t>1991-11</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>'区政府副区长、代区长、区长、党组书记2008.12李沧区委书记、区委党校校长2013.05济宁市委副书记2015.09济宁市委副书记'</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -4596,11 +4912,7 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>'\n1984.09——1986.07 宁波高等专科学校（宁波工程学院）中文秘书系学生'</t>
-        </is>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
           <t>1986-08</t>
@@ -4651,27 +4963,23 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>'黑龙江宾县人', '任黑龙江商学院成人教育部教师', '任黑龙江商学院成人教育部教务科副科长', '任黑龙江商学院成人教育部教务科科长', '任黑龙江省计划委员会人事处处长', '任黑龙江省发展计划委员会人事处处长', '黑龙江省第十二届人大常委会第二十四次会议补选为第十二届全国人民代表大会代表3'</t>
+          <t>'浙江宁海人', '宁海县前童镇党委书记、人大主席', '温州市委书记2019.07浙江省委常委、温州市委书记（人民网资料截至2019年8月）'</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>'1985年7月加入中国共产党'</t>
+          <t>'1985年6月加入中国共产党'</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>'黑龙江商学院商业经济专业毕业', '黑龙江大学经济学专业硕士学位', '任黑龙江商学院商业经济专业学生', '任黑龙江商学院成人教育部教师', '任黑龙江商学院成人教育部教务科副科长', '任黑龙江商学院成人教育部教务科科长', '在黑龙江大学经济学专业学习', '研究生毕业', '获硕士学位）'</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>'黑龙江商学院商业经济专业毕业', '黑龙江大学经济学专业硕士学位', '任黑龙江商学院商业经济专业学生', '在黑龙江大学经济学专业学习'</t>
-        </is>
-      </c>
+          <t>'中央党校研究生学历'</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>'1985年7月参加工作'</t>
+          <t>'1986年8月参加工作'</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -4706,27 +5014,27 @@
           <t>1966-4</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>'山东宁阳人', '2003年12月挂职出任衢州市人民政府副市长', '2014年1月正式当选台州市人民政府市长1'</t>
+          <t>'山东宁阳人', '市政府市长2018.02丽水市委书记2018.07嘉兴市委书记（人民网资料截至2018年7月）'</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>'1985年4月加入中共'</t>
+          <t>'1985年4月加入中国共产党'</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>'研究生学历', '管理学博士', '\n早年毕业于杭州大学（今浙江大学）心理系工业心理学专业', '后留校攻读本专业研究生', '毕业后任共青团浙江省委学校部科员、省学联副秘书长'</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>'\n早年毕业于杭州大学（今浙江大学）心理系工业心理学专业', '后留校攻读本专业研究生'</t>
-        </is>
-      </c>
+          <t>'研究生学历', '舟山市委常委、组织部部长、市委党校校长兼舟山医院第一党委书记、市委副书记、政法委书记等职'</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
           <t>'1990年8月参加工作'</t>
@@ -4781,14 +5089,10 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>'研究生学历', '北京交通大学本科毕业', '清华大学EMBA硕士毕业', '\n胡海峰本科就读于北方交通大学（现北京交通大学）计算机与科学技术系', '是清华大学经济管理学院第一届EMBA毕业生', '任清华大学副秘书长2', '兼任中共嘉兴市委政法委书记和嘉兴市委党校校长6'</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>'\n胡海峰本科就读于北方交通大学（现北京交通大学）计算机与科学技术系', '据称是为了改善台海关系11'</t>
-        </is>
-      </c>
+          <t>'研究生学历', '2005.09中华全国青年联合会第十届委员会委员2010.04浙江清华长三角研究院党委委员、书记2013.05嘉兴市委副书记（挂职）2013.08嘉兴市委党校校长2014.03嘉兴市委副书记、政法委书记2016.03嘉兴市委副书记'</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
           <t>'1998年5月参加工作'</t>
@@ -4830,12 +5134,36 @@
           <t>1962-11</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>'安徽桐城人', '天柱山风景名胜区管委会主任、党委书记(1998.03起不再兼任党委书记)1998.06--2003.03安庆市郊区区委书记（1997.09--1999.12参加中央党校领导干部函授本科班经济管理专业学习）2003.03--2004.02安庆市郊区区委书记、区人大常委会主任（2000.09--2003.07参加中央党校经济管理专业在职研究生班学习', '郊区区委书记、区人大常委会主任2004.05--2006.09安庆市副市长2006.09--2009.11安庆市委常委、副市长2009.11--2014.12安庆市委副书记2014.12--2016.12省物价局局长（高配为正厅级）、分党组书记', '市人大常委会主任候选人2019.01--2020.01宣城市委书记', '市人大常委会主任', '中共十九大代表（人民网资料截至2020年1月）'</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>'1982年11月入党'</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>'中央党校研究生学历', '1979.09--1981.07安庆农校农学专业学生1981.07--1982.10望江县武昌乡团干1982.10--1985.02望江团县委学少部副部长、副书记1985.02--1990.11望江县华阳区委副书记', '长岭区委书记、区长（1984.09--1989.07自修党政干部基础科大专班学习）1990.11--1991.01望江县委常委、组织部部长,长岭区委书记1991.01--1993.01望江县委常委、组织部部长1993.01--1994.06望江县委常委、副县长1994.06--1995.03潜山县委副书记、代县长1995.03--1996.07潜山县委副书记、县长（1992.09--1995.07参加安庆师院中文专业本科班学习）1996.07--1998.06潜山县委副书记、县长', '天柱山风景名胜区管委会主任、党委书记(1998.03起不再兼任党委书记)1998.06--2003.03安庆市郊区区委书记（1997.09--1999.12参加中央党校领导干部函授本科班经济管理专业学习）2003.03--2004.02安庆市郊区区委书记、区人大常委会主任（2000.09--2003.07参加中央党校经济管理专业在职研究生班学习', '2003.09--2004.01参加中央党校秋季培训三班学习）2004.02--2004.05安庆市副市长'</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>'1979.09--1981.07安庆农校农学专业学生1981.07--1982.10望江县武昌乡团干1982.10--1985.02望江团县委学少部副部长、副书记1985.02--1990.11望江县华阳区委副书记', '长岭区委书记、区长（1984.09--1989.07自修党政干部基础科大专班学习）1990.11--1991.01望江县委常委、组织部部长,长岭区委书记1991.01--1993.01望江县委常委、组织部部长1993.01--1994.06望江县委常委、副县长1994.06--1995.03潜山县委副书记、代县长1995.03--1996.07潜山县委副书记、县长（1992.09--1995.07参加安庆师院中文专业本科班学习）1996.07--1998.06潜山县委副书记、县长', '天柱山风景名胜区管委会主任、党委书记(1998.03起不再兼任党委书记)1998.06--2003.03安庆市郊区区委书记（1997.09--1999.12参加中央党校领导干部函授本科班经济管理专业学习）2003.03--2004.02安庆市郊区区委书记、区人大常委会主任（2000.09--2003.07参加中央党校经济管理专业在职研究生班学习'</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>'1981年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="b">
         <v>1</v>
@@ -4868,24 +5196,36 @@
           <t>1963-8</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>'进入重庆钢铁公司技术工人学校学习', '1981年11月进入重庆钢铁公司大型轧钢厂当工人', '任四川省纪委常委、秘书长、办公厅主任（2009年12月至2011年12月在西南财经大学高级管理人员工商管理专业学习,获工商管理硕士)'</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>'河南淅川人', '1979.09--1981.11重庆钢铁公司技术工人学校学习1981.11--1982.08重庆钢铁公司大型轧钢厂工人1982.08--1985.08四川广播电视大学中文专业干部专修科学习1985.08--1987.01重庆钢铁公司大型轧钢厂党办秘书1987.01--1993.05重庆钢铁公司团委副书记、书记1993.05--1995.05重庆钢铁公司驻大连、成都办事处主任兼工贸公司经理1995.05--1997.12四川省经委印刷厂厂长(1994.09--1996.07四川联合大学现代经济管理专业研究生课程班学习)1997.12--2000.10四川省经贸委办公室副主任2000.10--2003.03四川省经贸委对外经济协调处处长(其间:2001.03--2001.07四川省委党校中青班学习)2003.03--2005.01四川省德阳市委秘书长、办公室主任(2001.09--2003.07四川省工商管理学院工商管理专业研究生班学习)2005.01--2005.03四川省中江县委书记2005.03--2007.01四川省中江县委书记、县人大常委会主任2007.01--2007.04四川省德阳市委常委、市纪委书记,中江县委书记、县人大常委会主任2007.04--2009.07四川省德阳市委常委、市纪委书记(2005.09--2008.07四川省委党校经济学专业研究生班学习)2009.07--2009.09四川省纪委秘书长2009.09--2011.08四川省纪委秘书长、办公厅主任2011.08--2012.10四川省纪委常委、秘书长、办公厅主任(2009.12--2011.12西南财经大学高级管理人员工商管理专业学习,获高级管理人员工商管理硕士学位)2012.10--2017.05四川省纪委常委、省监察厅副厅长(其间:2015.04--2015.07四川省优秀干部人才递进培养计划第四期党政综合班学习)2017.05--2017.09四川省纪委副书记、省监察厅副厅长2017.09--2018.02四川省纪委副书记2018.02--2018.07四川省纪委副书记、省监察委员会副主任2018.07--四川省攀枝花市委书记（人民网资料截至2018年7月）'</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>'1985年8月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>'进入重庆钢铁公司技术工人学校学习', '1982年8月进入四川广播电视大学中文专业干部专修科学习', '任四川省纪委常委、秘书长、办公厅主任（2009年12月至2011年12月在西南财经大学高级管理人员工商管理专业学习,获工商管理硕士)'</t>
+          <t>'四川省工商管理学院工商管理专业毕业', '1979.09--1981.11重庆钢铁公司技术工人学校学习1981.11--1982.08重庆钢铁公司大型轧钢厂工人1982.08--1985.08四川广播电视大学中文专业干部专修科学习1985.08--1987.01重庆钢铁公司大型轧钢厂党办秘书1987.01--1993.05重庆钢铁公司团委副书记、书记1993.05--1995.05重庆钢铁公司驻大连、成都办事处主任兼工贸公司经理1995.05--1997.12四川省经委印刷厂厂长(1994.09--1996.07四川联合大学现代经济管理专业研究生课程班学习)1997.12--2000.10四川省经贸委办公室副主任2000.10--2003.03四川省经贸委对外经济协调处处长(其间:2001.03--2001.07四川省委党校中青班学习)2003.03--2005.01四川省德阳市委秘书长、办公室主任(2001.09--2003.07四川省工商管理学院工商管理专业研究生班学习)2005.01--2005.03四川省中江县委书记2005.03--2007.01四川省中江县委书记、县人大常委会主任2007.01--2007.04四川省德阳市委常委、市纪委书记,中江县委书记、县人大常委会主任2007.04--2009.07四川省德阳市委常委、市纪委书记(2005.09--2008.07四川省委党校经济学专业研究生班学习)2009.07--2009.09四川省纪委秘书长2009.09--2011.08四川省纪委秘书长、办公厅主任2011.08--2012.10四川省纪委常委、秘书长、办公厅主任(2009.12--2011.12西南财经大学高级管理人员工商管理专业学习,获高级管理人员工商管理硕士学位)2012.10--2017.05四川省纪委常委、省监察厅副厅长(其间:2015.04--2015.07四川省优秀干部人才递进培养计划第四期党政综合班学习)2017.05--2017.09四川省纪委副书记、省监察厅副厅长2017.09--2018.02四川省纪委副书记2018.02--2018.07四川省纪委副书记、省监察委员会副主任2018.07--四川省攀枝花市委书记（人民网资料截至2018年7月）'</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>'1982年8月进入四川广播电视大学中文专业干部专修科学习', '任四川省纪委常委、秘书长、办公厅主任（2009年12月至2011年12月在西南财经大学高级管理人员工商管理专业学习,获工商管理硕士)'</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>'四川省工商管理学院工商管理专业毕业', '1979.09--1981.11重庆钢铁公司技术工人学校学习1981.11--1982.08重庆钢铁公司大型轧钢厂工人1982.08--1985.08四川广播电视大学中文专业干部专修科学习1985.08--1987.01重庆钢铁公司大型轧钢厂党办秘书1987.01--1993.05重庆钢铁公司团委副书记、书记1993.05--1995.05重庆钢铁公司驻大连、成都办事处主任兼工贸公司经理1995.05--1997.12四川省经委印刷厂厂长(1994.09--1996.07四川联合大学现代经济管理专业研究生课程班学习)1997.12--2000.10四川省经贸委办公室副主任2000.10--2003.03四川省经贸委对外经济协调处处长(其间:2001.03--2001.07四川省委党校中青班学习)2003.03--2005.01四川省德阳市委秘书长、办公室主任(2001.09--2003.07四川省工商管理学院工商管理专业研究生班学习)2005.01--2005.03四川省中江县委书记2005.03--2007.01四川省中江县委书记、县人大常委会主任2007.01--2007.04四川省德阳市委常委、市纪委书记,中江县委书记、县人大常委会主任2007.04--2009.07四川省德阳市委常委、市纪委书记(2005.09--2008.07四川省委党校经济学专业研究生班学习)2009.07--2009.09四川省纪委秘书长2009.09--2011.08四川省纪委秘书长、办公厅主任2011.08--2012.10四川省纪委常委、秘书长、办公厅主任(2009.12--2011.12西南财经大学高级管理人员工商管理专业学习,获高级管理人员工商管理硕士学位)2012.10--2017.05四川省纪委常委、省监察厅副厅长(其间:2015.04--2015.07四川省优秀干部人才递进培养计划第四期党政综合班学习)2017.05--2017.09四川省纪委副书记、省监察厅副厅长2017.09--2018.02四川省纪委副书记2018.02--2018.07四川省纪委副书记、省监察委员会副主任2018.07--四川省攀枝花市委书记（人民网资料截至2018年7月）'</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>'1981年11月参加工作'</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="b">
         <v>1</v>
@@ -4935,7 +5275,11 @@
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J77" t="n">
         <v>22</v>
       </c>
@@ -4974,12 +5318,36 @@
           <t>1962-11</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>'湖南华容人', '湖北省蒲圻县团委副书记、书记、人大常委', '湖北随州市委常委、市人民政府常务副市长', '湖北随州市委常委、市人民政府常务副市长、党组副书记', '（人民网资料截至2018年7月）'</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>'1984年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>'在职硕士研究生学历', '管理学硕士学位', '湖北师范学院中文专业学习'</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>'湖北师范学院中文专业学习'</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>'1984年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="b">
         <v>1</v>
@@ -5019,22 +5387,22 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>'湖南望城人', '任湖南省人民政府副省长1'</t>
+          <t>'湖南长沙人', '（人民网资料截至2018年7月）'</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>'1984年6月加入中国共产党'</t>
+          <t>'1984年6月入党'</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>'武汉水利电力学院（今武汉大学）河流力学及治河工程系河流力学及治河工程专业本科、硕士毕业', '湖南大学环境科学与工程学院环境科学与工程专业在职工学博士学位', '在武汉水利电力学院（今武汉大学水利水电学院）河流力学及治河工程系河流力学及治河工程专业学习', '攻读本系水力学及河流动力学专业研究生', '获硕士学位'</t>
+          <t>'研究生学历', '工学博士学位', '1981.09武汉水利电力学院河流力学及治河工程系河流力学及治河工程专业学习1985.07武汉水利电力学院河流力学及治河工程系水力学及河流动力学专业硕士研究生1988.06湖南省水利水电厅洞庭湖水利工程局干部', '计划综合科副科长、科长1993.10湖南省水利水电厅洞庭湖水利工程局副局长1995.06湖南省防汛抗旱指挥部办公室副主任(正处级)1997.04湖南省水利水电厅厅长助理1998.04湖南省水利水电厅助理巡视员2000.04湖南省水利厅副厅长、党组成员2003.03益阳市委副书记2005.10湖南省水利厅副厅长、党组副书记2006.12湖南省水利厅厅长、党组书记（2000.09-2007.09湖南大学环境科学与工程学院环境科学与工程专业在职研究生学习', '获工学博士学位）2008.03娄底市委副书记'</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>'武汉水利电力学院（今武汉大学）河流力学及治河工程系河流力学及治河工程专业本科、硕士毕业', '湖南大学环境科学与工程学院环境科学与工程专业在职工学博士学位', '在武汉水利电力学院（今武汉大学水利水电学院）河流力学及治河工程系河流力学及治河工程专业学习', '攻读本系水力学及河流动力学专业研究生'</t>
+          <t>'1981.09武汉水利电力学院河流力学及治河工程系河流力学及治河工程专业学习1985.07武汉水利电力学院河流力学及治河工程系水力学及河流动力学专业硕士研究生1988.06湖南省水利水电厅洞庭湖水利工程局干部', '计划综合科副科长、科长1993.10湖南省水利水电厅洞庭湖水利工程局副局长1995.06湖南省防汛抗旱指挥部办公室副主任(正处级)1997.04湖南省水利水电厅厅长助理1998.04湖南省水利水电厅助理巡视员2000.04湖南省水利厅副厅长、党组成员2003.03益阳市委副书记2005.10湖南省水利厅副厅长、党组副书记2006.12湖南省水利厅厅长、党组书记（2000.09-2007.09湖南大学环境科学与工程学院环境科学与工程专业在职研究生学习'</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5079,7 +5447,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>'曾任辽宁省人力资源和社会保障厅党组书记、厅长等职务'</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>1986-05</t>
@@ -5091,7 +5463,11 @@
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>'1988年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J80" t="n">
         <v>19</v>
       </c>
@@ -5135,7 +5511,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>'1984.09--1988.08沈阳工业大学管理工程系工业管理工程专业学习1988.08--1993.05沈阳科学技术总院工作人员1993.05--1995.05沈阳轴瓦材料研究所所长1995.05--1996.03辽宁省沈阳市科技局工作人员1996.03--1999.02辽宁省沈阳市科技局人事处副处长(主持工作)1999.02--2001.03辽宁省沈阳市科技局人事处处长(1997.09--1999.09沈阳工业大学管理工程系会计学专业在职研究生学习,获工学硕士学位)2001.03--2001.06辽宁省沈阳市科技局人事处处长、机关党委专职副书记、纪委书记(兼)2001.06--2004.07辽宁省沈阳市科技局助理巡视员,西藏自治区安多县委书记(援藏)2004.07--2006.04辽宁省沈阳市新城子区委副书记2006.04--2006.11辽宁省沈阳市沈北新区区委副书记2006.11--2007.01辽宁省沈阳市苏家屯区委副书记、副区长、代区长、区长人选2007.01--2007.05辽宁省沈阳市苏家屯区委副书记、区长2007.05--2008.12辽宁省沈阳市苏家屯区委副书记、区长,沈阳浑河新城管委会主任2008.12--2010.12辽宁省沈阳市苏家屯区委副书记、区长,沈阳浑河新城管委会主任,沈阳民用航空产业国家高技术产业基地管委会副主任(兼)2010.12--2011.01辽宁省沈阳市大东区委副书记、副区长、代区长、区长人选,沈阳-欧盟经济开发区管委会主任(兼)2011.01--2011.09辽宁省沈阳市大东区委副书记、区长,沈阳-欧盟经济技术开发区管委会主任(兼)2011.09--2013.01辽宁省沈阳市大东区委副书记、区长2013.01--2013.02辽宁省沈阳市大东区委书记、区长2013.02--2016.07辽宁省沈阳市大东区委书记2016.07--2016.10辽宁省沈阳市浑南区委书记、沈阳高新区党工委书记2016.10--2016.11辽宁省沈阳市委常委'</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>1985-11</t>
@@ -5201,21 +5581,29 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>'湖北武穴人', '第十三届全国人大代表', '担任中共红安县委副书记、县人民政府县长', '\n董卫民是第十三届全国人大代表（2018年－）5'</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>'湖北省武穴人', '市政府市长2018.08—2019.01黄石市委书记、市政府市长2019.01—黄石市委书记（人民网资料截至2019年1月）'</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>'1990年3月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>'在湖北工学院机械制造工艺及设备专业学习', '在中共黄冈市委党校中青年干部班学习', '在华中师范大学科技哲学专业在职硕士研究生班学习', '在中共黄冈市委党校县级干部进修班学习', '在英国伍斯特大学留学', '在中共中央组织部延安干部学院进修班学习'</t>
+          <t>'在职研究生学历', '哲学硕士', '1986.09湖北工学院机械制造专业学生1990.07黄冈团地委干部（其间：1990.10-1992.10蕲春县漕河镇挂职锻炼）1993.08黄冈团地委学少部副部长1994.12黄冈团地委组织部部长（1997.08任黄冈团市委党组成员', '1996.05-1996.06黄冈市委党校中青班学习）1998.10黄冈团市委副书记（其间：1996.09-1999.11华中师范大学科技哲学专业在职硕士研究生班学习）2001.11黄冈团市委书记、党组书记2002.12红安县委副书记', '2004.12-2005.03赴英国伍斯特大学学习）2005.12湖北省国土资源厅副厅长、党组成员2007.11十堰市委常委、市委组织部部长2009.08十堰市委常委、市委组织部部长、市委党校校长（其间：2010.03-12中组部挂职任干部监督局副局长）2010.12十堰市委副书记、市委组织部部长、市委党校校长2011.11十堰市委副书记(其间：2012.11中组部延安干部学院进修班学习)2013.04湖北省地质矿产勘查开发局局长、党组书记'</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>'在湖北工学院机械制造工艺及设备专业学习', '在华中师范大学科技哲学专业在职硕士研究生班学习'</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>'1986.09湖北工学院机械制造专业学生1990.07黄冈团地委干部（其间：1990.10-1992.10蕲春县漕河镇挂职锻炼）1993.08黄冈团地委学少部副部长1994.12黄冈团地委组织部部长（1997.08任黄冈团市委党组成员', '1996.05-1996.06黄冈市委党校中青班学习）1998.10黄冈团市委副书记（其间：1996.09-1999.11华中师范大学科技哲学专业在职硕士研究生班学习）2001.11黄冈团市委书记、党组书记2002.12红安县委副书记'</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="b">
         <v>1</v>
@@ -5248,25 +5636,29 @@
           <t>1963-10</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>'河南商丘人'</t>
+          <t>'河南商丘人', '2011年8月任河南省永城市委副书记、市长人选', '2011年9月任河南省商丘市人民政府党组成员、永城市委副书记、副市长、代市长', '2011年9月任河南省商丘市人民政府党组成员、永城市委副书记、市长', '（人民网资料截至2018年10月）'</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>'1984年9月加入中共'</t>
+          <t>'1984年9月加入中国共产党'</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>'商丘师范学校毕业', '河南省委党校研究生班经济管理专业在职研究生学历'</t>
+          <t>'在职研究生学历', '1979年7月河南省商丘师范学校学习', '1986年3月任共青团河南省商丘县委副书记（其间：1987年7月至1989年7月在河南省委党校学习）', '1989年9月任河南省商丘地区审计局党组成员、办公室主任（其间：在河南大学经济管理专业在职研究生）', '1998年2月任河南省民权县委副书记（其间：1999年7月至2002年7月河南省委党校研究生班经济管理专业学习）'</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>'河南省委党校研究生班经济管理专业在职研究生学历'</t>
+          <t>'1989年9月任河南省商丘地区审计局党组成员、办公室主任（其间：在河南大学经济管理专业在职研究生）', '1998年2月任河南省民权县委副书记（其间：1999年7月至2002年7月河南省委党校研究生班经济管理专业学习）'</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5306,12 +5698,36 @@
           <t>1965-12</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>'江苏无锡人', '获经济学硕士学位（其间：1988.09-1991.07南开大学、约克大学联合硕士生培训项目）1991年07月中国电子进出口深圳工贸公司进出口三处干部1992年06月深圳市经济体制改革办公室企业处科员1993年04月深圳市证券管理办科员、副主任科员、主任科员1997年12月深圳市证券管理办秘书处副处长1998年04月深圳市委办公厅副处级、正处级秘书（2000.01正处级）2000年07月深圳市政协办公厅正处级秘书2001年02月广东省府办公厅正处级秘书（其间：2004.02-2005.04挂任清远市清城区区委副书记）2005年04月深圳市委办公厅正处职干部2007年01月云浮市云安县委书记、县人大常委会主任2008年07月云浮罗定市委书记、市人大常委会主任（2002.09-2008.12中山大学地理科学与规划学院人文地理专业博士研究生学习', '罗定市委书记、市人大常委会主任2011年11月云浮市政府副市长', '罗定市委书记、市人大常委会主任2011年12月云浮市委常委、组织部长', '罗定市委书记、市人大常委会主任2012年01月云浮市委常委、组织部长2015年04月云浮市委常委', '市政府副市长2016年10月广东省广业资产经营有限公司董事、总经理、党委副书记2017年03月广东省广业集团有限公司董事、总经理、党委副书记2018年03月梅州市委副书记、市政府市长候选人2018年04月梅州市委副书记', '市政府党组书记、副市长、代市长、市长2018年09月梅州市委书记、市人大常委会党组书记2018年10月梅州市委书记', '市人大常委会党组书记、主任（人民网资料截至2018年10月）'</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>'1985年4月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>'博士研究生学历', '理学博士', '1988年07月天津大学电子工程系无线电技术专业大学毕业1991年07月南开大学经济学院管理学系企业管理专业硕士研究生毕业', '获经济学硕士学位（其间：1988.09-1991.07南开大学、约克大学联合硕士生培训项目）1991年07月中国电子进出口深圳工贸公司进出口三处干部1992年06月深圳市经济体制改革办公室企业处科员1993年04月深圳市证券管理办科员、副主任科员、主任科员1997年12月深圳市证券管理办秘书处副处长1998年04月深圳市委办公厅副处级、正处级秘书（2000.01正处级）2000年07月深圳市政协办公厅正处级秘书2001年02月广东省府办公厅正处级秘书（其间：2004.02-2005.04挂任清远市清城区区委副书记）2005年04月深圳市委办公厅正处职干部2007年01月云浮市云安县委书记、县人大常委会主任2008年07月云浮罗定市委书记、市人大常委会主任（2002.09-2008.12中山大学地理科学与规划学院人文地理专业博士研究生学习', '获理学博士学位）2010年07月云浮市政府副市长'</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>'1988年07月天津大学电子工程系无线电技术专业大学毕业1991年07月南开大学经济学院管理学系企业管理专业硕士研究生毕业', '获经济学硕士学位（其间：1988.09-1991.07南开大学、约克大学联合硕士生培训项目）1991年07月中国电子进出口深圳工贸公司进出口三处干部1992年06月深圳市经济体制改革办公室企业处科员1993年04月深圳市证券管理办科员、副主任科员、主任科员1997年12月深圳市证券管理办秘书处副处长1998年04月深圳市委办公厅副处级、正处级秘书（2000.01正处级）2000年07月深圳市政协办公厅正处级秘书2001年02月广东省府办公厅正处级秘书（其间：2004.02-2005.04挂任清远市清城区区委副书记）2005年04月深圳市委办公厅正处职干部2007年01月云浮市云安县委书记、县人大常委会主任2008年07月云浮罗定市委书记、市人大常委会主任（2002.09-2008.12中山大学地理科学与规划学院人文地理专业博士研究生学习'</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>'1991年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="b">
         <v>1</v>
@@ -5351,7 +5767,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>'辽宁鞍山人', '、第十三届全国人民代表大会辽宁地区代表', '抚顺市人民政府副市长', '被选为全国人大代表1'</t>
+          <t>'辽宁鞍山人', '抚顺市人民政府副市长'</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5359,7 +5775,11 @@
           <t>'1997年6月加入中国共产党'</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>'大学学历'</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
@@ -5398,12 +5818,36 @@
           <t>1961-1</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>'山东淄博人', '市政府市长2018.09枣庄市委书记2019.01枣庄市委书记、枣庄市人大常委会主任（人民网资料截至2019年1月）'</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>'1985年11月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>'省委党校研究生学历', '1977.08临沭县玉山公社河湾大队下乡知青1978.09莱阳农学院园艺系果树专业学生1982.07临沂地区林业局技术员1983.04临沂地区农业局果茶站技术员1985.10临沂地区农业局果茶站副站长(其间：1986.11-1988.11挂职费县新桥乡副乡长)1993.07临沂地区果茶技术服务中心副主任兼生产经营科科长1995.03临沂市果茶技术推广服务中心主任1998.02费县副县长2001.01临沂市罗庄区委副书记、代区长2001.03临沂市罗庄区委副书记、区长2003.01临沂市罗庄区委书记、区委党校校长2004.12临沂市副市长、罗庄区委书记、区委党校校长2006.12临沂市副市长2007.03临沂市委常委、秘书长(2004.09-2007.06在山东省委党校在职干部研究生班经济管理专业学习)2011.12临沂市委常委2012.02临沂市委副书记2015.02枣庄市委副书记'</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>'1977.08临沭县玉山公社河湾大队下乡知青1978.09莱阳农学院园艺系果树专业学生1982.07临沂地区林业局技术员1983.04临沂地区农业局果茶站技术员1985.10临沂地区农业局果茶站副站长(其间：1986.11-1988.11挂职费县新桥乡副乡长)1993.07临沂地区果茶技术服务中心副主任兼生产经营科科长1995.03临沂市果茶技术推广服务中心主任1998.02费县副县长2001.01临沂市罗庄区委副书记、代区长2001.03临沂市罗庄区委副书记、区长2003.01临沂市罗庄区委书记、区委党校校长2004.12临沂市副市长、罗庄区委书记、区委党校校长2006.12临沂市副市长2007.03临沂市委常委、秘书长(2004.09-2007.06在山东省委党校在职干部研究生班经济管理专业学习)2011.12临沂市委常委2012.02临沂市委副书记2015.02枣庄市委副书记'</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>'1977年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="b">
         <v>1</v>
@@ -5436,12 +5880,36 @@
           <t>1963-3</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>'山东潍坊人', '2015年2月山东省商务厅党组书记2015年4月山东省商务厅厅长、党组书记2019年2月山东滨州市委书记（人民网资料截至2019年2月）'</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>'1985年7月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>'南开大学与澳大利亚弗林德斯大学合作办学国际经贸关系专业毕业', '在职研究生学历', '文学硕士'</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>'南开大学与澳大利亚弗林德斯大学合作办学国际经贸关系专业毕业'</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>'1982年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="b">
         <v>1</v>
@@ -5474,24 +5942,36 @@
           <t>1968-5</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>'广东潮州人', '、第十三届全国人民代表大会广东地区代表', '被选为全国人大代表2'</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>'广东潮州人', '1986.09-1990.07南开大学旅游系旅游经济管理专业本科学习1990.07-1992.02惠州市惠海工贸实业总公司业务员、部门经理1992.02-1993.09惠州市外经企业集团公司总经理助理1993.09-1995.09惠州市外经企业集团公司副总经理1995.09-2000.09惠州市惠城区汝湖镇副镇长2000.09-2001.12惠州市惠城区汝湖镇党委副书记、镇长2001.12-2003.04惠州市惠城区汝湖镇党委书记、人大主席2003.04-2007.03惠州市惠城区人民政府副区长2007.03-2007.05惠州市龙门县委副书记', '县人民政府代理县长2007.05-2009.02惠州市龙门县委副书记', '县人民政府县长（2003.09-2007.06参加南京大学城市资源系自然地理学专业博士研究生学习）2009.02-2009.04惠州市龙门县委书记2009.04-2013.09惠州市龙门县委书记、县人大常委会主任（其间：2010.07-2010.08参加广东省第3期领导干部早稻田大学经济管理专题研究班学习', '市人民政府党组副书记2017.01-2017.03潮州市委常委', '市人民政府党组副书记、副市长2017.03-2017.04茂名市委副书记2017.04-2018.12茂名市委副书记', '市人民政府市长、党组书记2018.12-2019.01茂名市委书记', '市人民政府市长、党组书记', '市人大常委会主任候选人2019.01-茂名市委书记', '市人大常委会主任、党组书记第十一届茂名市委委员', '第十二届广东省委委员（人民网资料'</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>'1998年10月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>'\n毕业于南开大学旅游学系旅游经济管理专业'</t>
+          <t>'在职博士研究生学历', '理学博士', '1986.09-1990.07南开大学旅游系旅游经济管理专业本科学习1990.07-1992.02惠州市惠海工贸实业总公司业务员、部门经理1992.02-1993.09惠州市外经企业集团公司总经理助理1993.09-1995.09惠州市外经企业集团公司副总经理1995.09-2000.09惠州市惠城区汝湖镇副镇长2000.09-2001.12惠州市惠城区汝湖镇党委副书记、镇长2001.12-2003.04惠州市惠城区汝湖镇党委书记、人大主席2003.04-2007.03惠州市惠城区人民政府副区长2007.03-2007.05惠州市龙门县委副书记', '县人民政府县长（2003.09-2007.06参加南京大学城市资源系自然地理学专业博士研究生学习）2009.02-2009.04惠州市龙门县委书记2009.04-2013.09惠州市龙门县委书记、县人大常委会主任（其间：2010.07-2010.08参加广东省第3期领导干部早稻田大学经济管理专题研究班学习', '2013.07-2013.08参加广东省第13期领导干部美国高级培训班学习）2013.09-2016.12潮州市委常委、组织部部长、党校校长2016.12-2017.01潮州市委常委'</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>'\n毕业于南开大学旅游学系旅游经济管理专业'</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>'1986.09-1990.07南开大学旅游系旅游经济管理专业本科学习1990.07-1992.02惠州市惠海工贸实业总公司业务员、部门经理1992.02-1993.09惠州市外经企业集团公司总经理助理1993.09-1995.09惠州市外经企业集团公司副总经理1995.09-2000.09惠州市惠城区汝湖镇副镇长2000.09-2001.12惠州市惠城区汝湖镇党委副书记、镇长2001.12-2003.04惠州市惠城区汝湖镇党委书记、人大主席2003.04-2007.03惠州市惠城区人民政府副区长2007.03-2007.05惠州市龙门县委副书记', '县人民政府县长（2003.09-2007.06参加南京大学城市资源系自然地理学专业博士研究生学习）2009.02-2009.04惠州市龙门县委书记2009.04-2013.09惠州市龙门县委书记、县人大常委会主任（其间：2010.07-2010.08参加广东省第3期领导干部早稻田大学经济管理专题研究班学习'</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="b">
         <v>1</v>
@@ -5531,7 +6011,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>'河北永年人', '任人民日报社经济部编辑', '任山西省人民政府副秘书长、山西省政府研究室主任', '任山西省人民政府秘书长1', '被选为第十二届全国人大代表8', '\n6 副主任☆\n 晋城市人民政府市长\n 运城市人民政府市长\n'</t>
+          <t>'河北永年人', '1979.09南开大学哲学系哲学专业学习1983.07黑龙江日报社记者1987.09中国社会科学院研究生院新闻系新闻业务专业硕士研究生1990.07人民日报社经济部编辑、主任记者1996.05中国改革报社副总编辑（副司级）2000.01中国信息报社总编辑（其间：2000.09-2003.07中国社会科学院研究生院政府政策与公共管理系国民经济专业学习', '市政府市长（其间：2014.06-2015.07主持市委工作）2016.05吕梁市委书记2016.11山西省委常委、宣传部部长2017.11山东省委常委、宣传部部长2018.04山东省委常委、省委秘书长2019.01山东省委常委、青岛市委书记十二届全国人大代表', '（人民网资料截至2019年1月）'</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5541,12 +6021,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>'南开大学哲学系本科毕业', '中国社会科学院研究生院国民经济专业毕业', '在南开大学哲学系学习'</t>
+          <t>'研究生学历', '经济学博士学位', '1979.09南开大学哲学系哲学专业学习1983.07黑龙江日报社记者1987.09中国社会科学院研究生院新闻系新闻业务专业硕士研究生1990.07人民日报社经济部编辑、主任记者1996.05中国改革报社副总编辑（副司级）2000.01中国信息报社总编辑（其间：2000.09-2003.07中国社会科学院研究生院政府政策与公共管理系国民经济专业学习', '获经济学博士学位）2004.09山西省政府副秘书长、研究室主任2006.02山西省委宣传部常务副部长2008.01山西省政府党组成员', '市政府市长（其间：2012.03-2012.07中央党校中青年干部培训一班学习）2013.02运城市委副书记'</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>'南开大学哲学系本科毕业', '中国社会科学院研究生院国民经济专业毕业', '在南开大学哲学系学习'</t>
+          <t>'1979.09南开大学哲学系哲学专业学习1983.07黑龙江日报社记者1987.09中国社会科学院研究生院新闻系新闻业务专业硕士研究生1990.07人民日报社经济部编辑、主任记者1996.05中国改革报社副总编辑（副司级）2000.01中国信息报社总编辑（其间：2000.09-2003.07中国社会科学院研究生院政府政策与公共管理系国民经济专业学习'</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5586,12 +6066,36 @@
           <t>1963-10</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>'黑龙江肇东人', '市政府副市长、代理市长、市长2019.10泰州市委书记（人民网资料截至2019年10月）'</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>'1990年5月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>'博士研究生学历', '1980.09辽宁财经学院物管系学习1984.07国家物资总局燃料局科员1988.10中国燃料总公司出口部副科、正科、副经理1993.04中国燃料总公司出口部经理1995.11中国燃料总公司副总经理（副局级）2000.05国内贸易局设备成套管理局副局长（其间：1999.01-2002.01清华大学经管学院技术经济专业在职研究生学习', '获管理学硕士学位）2002.01中国机电设备招标中心（中国机电设备成套服务中心）副主任（其间：2004.06-2012.06北京航空航天大学经管学院管理学专业在职研究生学习', '获工学博士学位）2013.04无锡市副市长（挂职）', '中国机电设备招标中心（中国机电设备成套服务中心）党委书记2014.12泰州市委副书记2015.04泰州市委副书记、党校校长2015.06泰州市委副书记、组织部部长、党校校长（其间：2015年9月明确正市级）2016.01泰州市委副书记'</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>'1980.09辽宁财经学院物管系学习1984.07国家物资总局燃料局科员1988.10中国燃料总公司出口部副科、正科、副经理1993.04中国燃料总公司出口部经理1995.11中国燃料总公司副总经理（副局级）2000.05国内贸易局设备成套管理局副局长（其间：1999.01-2002.01清华大学经管学院技术经济专业在职研究生学习', '获管理学硕士学位）2002.01中国机电设备招标中心（中国机电设备成套服务中心）副主任（其间：2004.06-2012.06北京航空航天大学经管学院管理学专业在职研究生学习'</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>'1984年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="b">
         <v>1</v>
@@ -5624,24 +6128,36 @@
           <t>1966-6</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>'四川西充人', '、第十三届全国人民代表大会广东地区代表', '被选为全国人大代表2'</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>'四川西充人', '市政府市长、党组书记2019.10--肇庆市委书记（人民网资料截至2019年10月）'</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>'1994年7月加入中国共产党'</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>'1987年毕业于四川师范大学教育系', '1990年取得华南师范大学心理学系发展心理学专业硕士'</t>
+          <t>'武汉大学社会学专业毕业', '在职博士研究生学历', '法学博士学位', '1983.09--1987.07四川师范大学教育系学习1987.07--1990.07华南师范大学心理学系发展心理学专业硕士研究生学习1990.07--1994.12惠阳师专教育科学部教师1994.12--1997.04惠州大学教育科学部副主任（其间：1996.09--1997.03学生处代理副处长）1997.04--1998.12惠州大学学生处副处长兼团委书记1998.12--2001.07惠州大学学生处处长兼团委书记2001.07--2005.08惠州市教育局副局长（其间：2002.02--2002.07省委党校中青二班学习）2005.08--2008.08惠州市教育局局长（其间：2005.09--2008.06武汉大学社会学系社会学专业博士研究生学习）2008.08--2011.10惠州市副厅级干部、市长助理、市政府党组成员'</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>'1987年毕业于四川师范大学教育系', '1990年取得华南师范大学心理学系发展心理学专业硕士'</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>'武汉大学社会学专业毕业', '1983.09--1987.07四川师范大学教育系学习1987.07--1990.07华南师范大学心理学系发展心理学专业硕士研究生学习1990.07--1994.12惠阳师专教育科学部教师1994.12--1997.04惠州大学教育科学部副主任（其间：1996.09--1997.03学生处代理副处长）1997.04--1998.12惠州大学学生处副处长兼团委书记1998.12--2001.07惠州大学学生处处长兼团委书记2001.07--2005.08惠州市教育局副局长（其间：2002.02--2002.07省委党校中青二班学习）2005.08--2008.08惠州市教育局局长（其间：2005.09--2008.06武汉大学社会学系社会学专业博士研究生学习）2008.08--2011.10惠州市副厅级干部、市长助理、市政府党组成员'</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="b">
         <v>1</v>
@@ -5674,12 +6190,36 @@
           <t>1969-12</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>'市政府副市长、代市长、市长2019.11-至今吉林省白山市委书记、市长（人民网资料截至2019年11月）'</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>'1992年10月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>'研究生学历', '2004.04-2008.03吉林省委办公厅综合一处副处长（2004.09-2007.06在吉林大学东北亚研究院世界经济专业研究生在职学习', '2007.06获经济学硕士学位）2008.03-2011.02吉林省委办公厅综合一处处长2011.02-2014.12吉林省委办公厅副主任2014.12-2015.05吉林省委办公厅副主任'</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>'2004.04-2008.03吉林省委办公厅综合一处副处长（2004.09-2007.06在吉林大学东北亚研究院世界经济专业研究生在职学习'</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>'1990年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="b">
         <v>1</v>
@@ -5712,12 +6252,36 @@
           <t>1968-9</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>'华中科技大学高级管理人员工商管理专业毕业', '1984.09--1987.07伊克昭盟师范学校普师专业学习1987.07--1990.01内蒙古自治区东胜市潮脑梁学校教师1990.01--1994.04内蒙古自治区东胜市委宣传部副科级宣传员1994.04--1995.05内蒙古自治区东胜市委办公室副科级秘书1995.05--1997.05内蒙古自治区东胜市团委书记1997.05--2000.09内蒙古自治区东胜市委办公室副主任、保密局局长2000.09--2003.10内蒙古自治区东胜市委常委、宣传部部长2003.10--2005.06内蒙古自治区鄂尔多斯市委组织部副部长2005.06--2006.09内蒙古自治区鄂尔多斯市委组织部副部长、正处级组织员(2003.08--2005.12内蒙古党校经济管理专业研究生班学习)2006.09--2008.10内蒙古自治区伊金霍洛旗旗委书记2008.10--2010.09内蒙古自治区伊金霍洛旗旗委书记,成吉思汗陵旅游区管委会党工委书记(兼)(2007.04--2009.12华中科技大学高级管理人员工商管理专业在职学习', '获高级管理人员工商管理硕士学位)2010.09--2012.12内蒙古自治区人力资源和社会保障厅副厅长、党组成员(其间:2011.03--2012.01中央党校第11期中青班学习)2012.12--2014.10内蒙古自治区锡林郭勒盟盟委委员、副盟长2014.10--2015.01内蒙古自治区满洲里市委副书记、代市长2015.01--2015.10内蒙古自治区满洲里市委副书记、市长2015.10--2016.06内蒙古自治区呼伦贝尔市委常委,满洲里市委书记2016.06--2018.03内蒙古自治区党委副秘书长、办公厅主任2018.03--2018.09内蒙古自治区阿拉善盟盟委副书记、盟长2018.09--2019.12内蒙古自治区党委委员、内蒙古自治区阿拉善盟盟委书记2019.12--佳木斯市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>'1991年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>'华中科技大学高级管理人员工商管理专业毕业', '研究生学历', '1984.09--1987.07伊克昭盟师范学校普师专业学习1987.07--1990.01内蒙古自治区东胜市潮脑梁学校教师1990.01--1994.04内蒙古自治区东胜市委宣传部副科级宣传员1994.04--1995.05内蒙古自治区东胜市委办公室副科级秘书1995.05--1997.05内蒙古自治区东胜市团委书记1997.05--2000.09内蒙古自治区东胜市委办公室副主任、保密局局长2000.09--2003.10内蒙古自治区东胜市委常委、宣传部部长2003.10--2005.06内蒙古自治区鄂尔多斯市委组织部副部长2005.06--2006.09内蒙古自治区鄂尔多斯市委组织部副部长、正处级组织员(2003.08--2005.12内蒙古党校经济管理专业研究生班学习)2006.09--2008.10内蒙古自治区伊金霍洛旗旗委书记2008.10--2010.09内蒙古自治区伊金霍洛旗旗委书记,成吉思汗陵旅游区管委会党工委书记(兼)(2007.04--2009.12华中科技大学高级管理人员工商管理专业在职学习', '获高级管理人员工商管理硕士学位)2010.09--2012.12内蒙古自治区人力资源和社会保障厅副厅长、党组成员(其间:2011.03--2012.01中央党校第11期中青班学习)2012.12--2014.10内蒙古自治区锡林郭勒盟盟委委员、副盟长2014.10--2015.01内蒙古自治区满洲里市委副书记、代市长2015.01--2015.10内蒙古自治区满洲里市委副书记、市长2015.10--2016.06内蒙古自治区呼伦贝尔市委常委,满洲里市委书记2016.06--2018.03内蒙古自治区党委副秘书长、办公厅主任2018.03--2018.09内蒙古自治区阿拉善盟盟委副书记、盟长2018.09--2019.12内蒙古自治区党委委员、内蒙古自治区阿拉善盟盟委书记2019.12--佳木斯市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>'华中科技大学高级管理人员工商管理专业毕业', '1984.09--1987.07伊克昭盟师范学校普师专业学习1987.07--1990.01内蒙古自治区东胜市潮脑梁学校教师1990.01--1994.04内蒙古自治区东胜市委宣传部副科级宣传员1994.04--1995.05内蒙古自治区东胜市委办公室副科级秘书1995.05--1997.05内蒙古自治区东胜市团委书记1997.05--2000.09内蒙古自治区东胜市委办公室副主任、保密局局长2000.09--2003.10内蒙古自治区东胜市委常委、宣传部部长2003.10--2005.06内蒙古自治区鄂尔多斯市委组织部副部长2005.06--2006.09内蒙古自治区鄂尔多斯市委组织部副部长、正处级组织员(2003.08--2005.12内蒙古党校经济管理专业研究生班学习)2006.09--2008.10内蒙古自治区伊金霍洛旗旗委书记2008.10--2010.09内蒙古自治区伊金霍洛旗旗委书记,成吉思汗陵旅游区管委会党工委书记(兼)(2007.04--2009.12华中科技大学高级管理人员工商管理专业在职学习'</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>'1987年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="b">
         <v>1</v>
@@ -5750,10 +6314,14 @@
           <t>1971-10</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>'女'</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>'江苏无锡人', '第十三届全国人民代表大会江苏地区代表', '被选为全国人大代表1', '\n蔡丽新担任淮安市人民政府市长期间', '接种人员郭岳涧、杨士涛', '县疾控中心疾控一科工作人员柏云霞、宋爱佳给予立案调查', '其他相关责任人县纪委监委已介入调查处理4', '数以百计的孩子家长前往县政府及县人民医院抗议', '江苏省卫生健康委迅速派出由委相关负责人带队', '金湖县人民政府针对口服过期脊灰疫苗事件处理进行了通报：已对金湖县副县长高昌萍政务立案', '对黎城卫生院院长汪泓等17人分别予以立案调查和开除党籍'</t>
+          <t>'江苏无锡人', '市政府市长2019.12淮安市委书记（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5763,14 +6331,10 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>'苏州大学政治系思想政治教育专业毕业', '在职研究生学历、博士学位', '督导组将指导当地做好对接种儿童的咨询服务、医学观察和疫苗补种工作'</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>'苏州大学政治系思想政治教育专业毕业'</t>
-        </is>
-      </c>
+          <t>'在职研究生学历', '博士学位'</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
           <t>'1994年8月参加工作'</t>
@@ -5815,24 +6379,16 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>'上海人', '任黄浦区人民广场街道党工委书记'</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>'1991年7月加入中国共产党'</t>
-        </is>
-      </c>
+          <t>'上海市人', '黄浦区人民广场街道党工委书记', '区政府区长2015.01中共金山区委书记2016.07中共杨浦区委书记2019.12浙江台州市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>'在职研究生学历', '进入上海师范专科学校小学教育专业学习', '任上海第六师范学校教师、团委书记', '任上海市黄浦区团委办公室副主任（其间：1992年9月至1995年7月在华东师范大学政教系政教专业学习并本科毕业）', '任黄浦区委宣传部副部长、区文明办主任（其间：2001年3月至2001年7月参加中共上海市委党校第21期中青年干部培训班学习', '1998年1月至1999年12月参加华东师范大学经济学专业研究生课程班学习）', '任共青团上海市委副书记（其间：2004年5月至2004年6月参加中共上海市委党校第55期局级领导干部培训班学习', '2005年12月-2008年1月在复旦大学管理学院工商管理专业学习并获高级工商管理硕士学位', '2009年3月至2009年9月兼任上海市学习实践科学发展观活动第六指导检查组副组长）', '任中共上海市青浦区委常委、青浦区副区长（其间：2010年9月至2010年10月参加中共上海市委组织部、美国芝加哥大学主办的新经济、新业态研修班学习', '在上海海事大学交通运输规划管理专业学习并研究生毕业）1'</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>'进入上海师范专科学校小学教育专业学习', '任上海市黄浦区团委办公室副主任（其间：1992年9月至1995年7月在华东师范大学政教系政教专业学习并本科毕业）', '1998年1月至1999年12月参加华东师范大学经济学专业研究生课程班学习）', '2005年12月-2008年1月在复旦大学管理学院工商管理专业学习并获高级工商管理硕士学位', '在上海海事大学交通运输规划管理专业学习并研究生毕业）1'</t>
-        </is>
-      </c>
+          <t>'历任上海第六师范学校教师、团委书记'</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
           <t>'1990年7月参加工作'</t>
@@ -5870,12 +6426,36 @@
           <t>1970-10</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>'江苏江阴人', '1988.09东南大学电气工程系电气技术专业大学学习1992.09电力自动化研究院电力系统及其自动化专业硕士研究生学习1995.04电力自动化研究院系统所助理工程师、工程师1998.12电力自动化研究院稳定技术研究所负责人1999.08电力自动化研究院稳定技术研究所副所长、南京南瑞集团公司稳定技术分公司副总经理（主持工作）2000.12电力自动化研究院稳定技术研究所所长、南京南瑞集团公司稳定技术分公司总经理（其间：2002.12高级工程师）2003.04共青团江苏省委副书记2008.11共青团江苏省委副书记、党组成员（其间：2009.04-2010.03江苏省中青年高级管理人才海外研修班赴美国学习', '市政府市长2019.12安徽铜陵市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>'1991年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>'研究生学历', '硕士学位', '1988.09东南大学电气工程系电气技术专业大学学习1992.09电力自动化研究院电力系统及其自动化专业硕士研究生学习1995.04电力自动化研究院系统所助理工程师、工程师1998.12电力自动化研究院稳定技术研究所负责人1999.08电力自动化研究院稳定技术研究所副所长、南京南瑞集团公司稳定技术分公司副总经理（主持工作）2000.12电力自动化研究院稳定技术研究所所长、南京南瑞集团公司稳定技术分公司总经理（其间：2002.12高级工程师）2003.04共青团江苏省委副书记2008.11共青团江苏省委副书记、党组成员（其间：2009.04-2010.03江苏省中青年高级管理人才海外研修班赴美国学习', '获马里兰大学公共管理硕士学位）2010.10扬州市委常委、组织部部长2010.11扬州市委常委、组织部部长兼市总工会主席2012.06历任扬州市委常委、副市长兼市总工会主席'</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>'1988.09东南大学电气工程系电气技术专业大学学习1992.09电力自动化研究院电力系统及其自动化专业硕士研究生学习1995.04电力自动化研究院系统所助理工程师、工程师1998.12电力自动化研究院稳定技术研究所负责人1999.08电力自动化研究院稳定技术研究所副所长、南京南瑞集团公司稳定技术分公司副总经理（主持工作）2000.12电力自动化研究院稳定技术研究所所长、南京南瑞集团公司稳定技术分公司总经理（其间：2002.12高级工程师）2003.04共青团江苏省委副书记2008.11共青团江苏省委副书记、党组成员（其间：2009.04-2010.03江苏省中青年高级管理人才海外研修班赴美国学习'</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>'1995年4月参加工作'</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="b">
         <v>1</v>
@@ -5908,12 +6488,36 @@
           <t>1966-4</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>'江西莲花人', '获公共管理硕士学位)2006.12南昌市政府副市长2010.04南昌市委常委(2010.03-2011.02中央党校第十期中青二班学习)2011.09南昌市委常委、副市长2016.09赣江新区党工委副书记、南昌市政府副市长2016.10赣江新区党工委副书记、管委会主任2018.03南昌市委副书记、市长提名人选', '赣江新区党工委副书记、管委会主任2019.12中共莆田市委委员、常委、书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>'1986年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '1981.09江西省交通学校公路与桥梁专业学生1985.70南昌市市政工程管理处技术员、副队长、副主任、科长、处长助理1991.10南昌市市政工程管理处副处长(正科级)(1986.09-1991.12同济大学给水排水专业学习', '1993.02-1995.06同济大学函授建筑管理工程专业学习)1996.12南昌市城乡规划局副局长2001.04南昌市城乡规划局局长2002.08南昌市政府副秘书长', '市城市管理行政执法局党委书记、城管支队政委(2002.02-2005.05中国科技大学公共管理专业学习', '获公共管理硕士学位)2006.12南昌市政府副市长2010.04南昌市委常委(2010.03-2011.02中央党校第十期中青二班学习)2011.09南昌市委常委、副市长2016.09赣江新区党工委副书记、南昌市政府副市长2016.10赣江新区党工委副书记、管委会主任2018.03南昌市委副书记、市长提名人选'</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>'1981.09江西省交通学校公路与桥梁专业学生1985.70南昌市市政工程管理处技术员、副队长、副主任、科长、处长助理1991.10南昌市市政工程管理处副处长(正科级)(1986.09-1991.12同济大学给水排水专业学习', '1993.02-1995.06同济大学函授建筑管理工程专业学习)1996.12南昌市城乡规划局副局长2001.04南昌市城乡规划局局长2002.08南昌市政府副秘书长', '市城市管理行政执法局党委书记、城管支队政委(2002.02-2005.05中国科技大学公共管理专业学习'</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="b">
         <v>1</v>
@@ -5946,12 +6550,36 @@
           <t>1962-1</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>'江西莲花人', '获公共管理硕士学位)2006.12南昌市政府副市长2010.04南昌市委常委(2010.03-2011.02中央党校第十期中青二班学习)2011.09南昌市委常委、副市长2016.09赣江新区党工委副书记、南昌市政府副市长2016.10赣江新区党工委副书记、管委会主任2018.03南昌市委副书记、市长提名人选', '赣江新区党工委副书记、管委会主任2019.12中共莆田市委委员、常委、书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>'1986年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '1981.09江西省交通学校公路与桥梁专业学生1985.70南昌市市政工程管理处技术员、副队长、副主任、科长、处长助理1991.10南昌市市政工程管理处副处长(正科级)(1986.09-1991.12同济大学给水排水专业学习', '1993.02-1995.06同济大学函授建筑管理工程专业学习)1996.12南昌市城乡规划局副局长2001.04南昌市城乡规划局局长2002.08南昌市政府副秘书长', '市城市管理行政执法局党委书记、城管支队政委(2002.02-2005.05中国科技大学公共管理专业学习', '获公共管理硕士学位)2006.12南昌市政府副市长2010.04南昌市委常委(2010.03-2011.02中央党校第十期中青二班学习)2011.09南昌市委常委、副市长2016.09赣江新区党工委副书记、南昌市政府副市长2016.10赣江新区党工委副书记、管委会主任2018.03南昌市委副书记、市长提名人选'</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>'1981.09江西省交通学校公路与桥梁专业学生1985.70南昌市市政工程管理处技术员、副队长、副主任、科长、处长助理1991.10南昌市市政工程管理处副处长(正科级)(1986.09-1991.12同济大学给水排水专业学习', '1993.02-1995.06同济大学函授建筑管理工程专业学习)1996.12南昌市城乡规划局副局长2001.04南昌市城乡规划局局长2002.08南昌市政府副秘书长', '市城市管理行政执法局党委书记、城管支队政委(2002.02-2005.05中国科技大学公共管理专业学习'</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>'1985年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="b">
         <v>1</v>
@@ -5984,12 +6612,36 @@
           <t>1969-9</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>'吉林省商务厅信息化处处长、对外经济合作处处长、人事教育处处长、白山市市长助理（挂职锻炼）、人事处处长、吉林省发改委主任助理（挂职锻炼）', '2010.04\xa0吉林省商务厅副厅长、党组成员2013.05\xa0吉林省人民政府副秘书长、办公厅党组成员2016.09吉林省经济技术合作局局长、党组书记2017.07\xa0吉林市委副书记、副市长、代市长2017.08\xa0吉林市委副书记、市长2019.12\xa0湖南省娄底市委委员、常委、书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>'1990年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>'吉林工业大学研究生院工业管理工程专业毕业', '工学硕士', '研究生学历', '管理学博士'</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>'吉林工业大学研究生院工业管理工程专业毕业', '吉林省外经贸厅国际关系与经济援助处副处长'</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>'1993年3月参加工作'</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="b">
         <v>1</v>
@@ -6022,28 +6674,36 @@
           <t>1970-2</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>'河南济源人'</t>
+          <t>'河南济源人', '1988.09--1992.07武汉大学政治学系行政管理专业学习1992.07--2002.05河南省计委(发展计划委)财金处干部、副主任科员、主任科员2002.05--2003.10河南省发展计划委《河南经济》杂志社副总编辑(副处级)(1997.09--2002.06厦门大学财金系金融学专业学习,获经济学硕士学位)2003.10--2004.08河南省发展计划委财政金融处副处长2004.08--2008.10河南省发改委办公室副主任2008.10--2009.02河南省省直机关事务管理局副局长2009.02--2011.12河南省委、省政府机关事务管理局副局长2011.12--2015.04河南省发改委副主任2015.04--2015.05河南省周口市委常委2015.05--2016.09河南省周口市委常委、组织部部长2016.09--2018.09河南省郑州市委副书记、秘书长2018.09--2019.12河南省安阳市委副书记、市长2019.12--四川省德阳市委书记（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>'1999年10月加入中共'</t>
+          <t>'1999年10月加入中国共产党'</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>'1988年毕业于武汉大学政治学系行政管理专业', '厦门大学金融学专业在职经济学硕士学位'</t>
+          <t>'厦门大学财金系金融学专业毕业', '经济学硕士', '1988.09--1992.07武汉大学政治学系行政管理专业学习1992.07--2002.05河南省计委(发展计划委)财金处干部、副主任科员、主任科员2002.05--2003.10河南省发展计划委《河南经济》杂志社副总编辑(副处级)(1997.09--2002.06厦门大学财金系金融学专业学习,获经济学硕士学位)2003.10--2004.08河南省发展计划委财政金融处副处长2004.08--2008.10河南省发改委办公室副主任2008.10--2009.02河南省省直机关事务管理局副局长2009.02--2011.12河南省委、省政府机关事务管理局副局长2011.12--2015.04河南省发改委副主任2015.04--2015.05河南省周口市委常委2015.05--2016.09河南省周口市委常委、组织部部长2016.09--2018.09河南省郑州市委副书记、秘书长2018.09--2019.12河南省安阳市委副书记、市长2019.12--四川省德阳市委书记（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>'1988年毕业于武汉大学政治学系行政管理专业', '厦门大学金融学专业在职经济学硕士学位'</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>'厦门大学财金系金融学专业毕业', '1988.09--1992.07武汉大学政治学系行政管理专业学习1992.07--2002.05河南省计委(发展计划委)财金处干部、副主任科员、主任科员2002.05--2003.10河南省发展计划委《河南经济》杂志社副总编辑(副处级)(1997.09--2002.06厦门大学财金系金融学专业学习,获经济学硕士学位)2003.10--2004.08河南省发展计划委财政金融处副处长2004.08--2008.10河南省发改委办公室副主任2008.10--2009.02河南省省直机关事务管理局副局长2009.02--2011.12河南省委、省政府机关事务管理局副局长2011.12--2015.04河南省发改委副主任2015.04--2015.05河南省周口市委常委2015.05--2016.09河南省周口市委常委、组织部部长2016.09--2018.09河南省郑州市委副书记、秘书长2018.09--2019.12河南省安阳市委副书记、市长2019.12--四川省德阳市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>'1992年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="b">
         <v>1</v>
@@ -6076,12 +6736,36 @@
           <t>1968-7</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>'女'</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>'湖北浠水人', '1986.09-1990.07湖北师范学院汉语言文学专业学习1990.07-1992.07浠水县师范学校工作1992.07-1994.01浠水县委办公室工作1994.01-1995.10湖北师范学院人事处、组织部干部、组织科副科长1995.10-1997.05黄石市委组织部干部三科干部1997.05-1999.12黄石市委组织部研究室副主任、经济科教干部科副科长、党政干部科副科长1999.12-2001.09黄石市委组织部党政干部科副科长、主任科员2001.09-2001.11大冶市委常委2001.11-2002.12大冶市委常委、组织部部长2002.12-2005.01大冶市委副书记、市纪委书记2005.01-2005.03黄石市铁山区委副书记', '市政府市长2019.12陕西省商洛市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>'1990年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>'省委党校研究生', '文学学士', '1986.09-1990.07湖北师范学院汉语言文学专业学习1990.07-1992.07浠水县师范学校工作1992.07-1994.01浠水县委办公室工作1994.01-1995.10湖北师范学院人事处、组织部干部、组织科副科长1995.10-1997.05黄石市委组织部干部三科干部1997.05-1999.12黄石市委组织部研究室副主任、经济科教干部科副科长、党政干部科副科长1999.12-2001.09黄石市委组织部党政干部科副科长、主任科员2001.09-2001.11大冶市委常委2001.11-2002.12大冶市委常委、组织部部长2002.12-2005.01大冶市委副书记、市纪委书记2005.01-2005.03黄石市铁山区委副书记'</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>'1986.09-1990.07湖北师范学院汉语言文学专业学习1990.07-1992.07浠水县师范学校工作1992.07-1994.01浠水县委办公室工作1994.01-1995.10湖北师范学院人事处、组织部干部、组织科副科长1995.10-1997.05黄石市委组织部干部三科干部1997.05-1999.12黄石市委组织部研究室副主任、经济科教干部科副科长、党政干部科副科长1999.12-2001.09黄石市委组织部党政干部科副科长、主任科员2001.09-2001.11大冶市委常委2001.11-2002.12大冶市委常委、组织部部长2002.12-2005.01大冶市委副书记、市纪委书记2005.01-2005.03黄石市铁山区委副书记'</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="b">
         <v>1</v>
@@ -6114,16 +6798,36 @@
           <t>1968-1</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>'女'</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>'山东日照人', '、第十三届全国人民代表大会山东地区代表', '被选为全国人大代表1'</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+          <t>'山东日照人', '市长2018.10—2019.12山东省市场监督管理局局长、党组书记2019.12—金昌市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>'1992年11月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>'大学文化程度', '1986.09—1990.07河北工学院土木工程系公路、城市道路与桥梁专业学习1990.07—1994.01日照市公路局助理工程师1994.01—1997.01日照市公路局设计室副主任(主持工作)1997.01—1998.06日照市公路局副总工程师、设计院院长1998.06—1998.08日照市公路局副总工程师、工程科科长1998.08—1999.08日照市公路局总工程师、党委委员1999.08—2001.04日照市公路局副局长、党委委员(1998.12—2000.09在山东大学哲学与社会发展学院马克思主义哲学专业研究生课程进修班学习)2001.04—2003.04共青团日照市委书记2003.04—2006.05日照市委常委、团市委书记(其间:2003.06—2003.12在山东省中青年干部赴美国康涅狄格州中央州立大学培训班学习)2006.05—2011.11日照市委常委、东港区委书记2011.11—2011.12日照市委常委2011.12—2013.06威海市委常委、组织部部长2013.06—2015.05烟台市委副书记2015.05—2015.06烟台市委副书记'</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>'1986.09—1990.07河北工学院土木工程系公路、城市道路与桥梁专业学习1990.07—1994.01日照市公路局助理工程师1994.01—1997.01日照市公路局设计室副主任(主持工作)1997.01—1998.06日照市公路局副总工程师、设计院院长1998.06—1998.08日照市公路局副总工程师、工程科科长1998.08—1999.08日照市公路局总工程师、党委委员1999.08—2001.04日照市公路局副局长、党委委员(1998.12—2000.09在山东大学哲学与社会发展学院马克思主义哲学专业研究生课程进修班学习)2001.04—2003.04共青团日照市委书记2003.04—2006.05日照市委常委、团市委书记(其间:2003.06—2003.12在山东省中青年干部赴美国康涅狄格州中央州立大学培训班学习)2006.05—2011.11日照市委常委、东港区委书记2011.11—2011.12日照市委常委2011.12—2013.06威海市委常委、组织部部长2013.06—2015.05烟台市委副书记2015.05—2015.06烟台市委副书记'</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>'1990年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="b">
         <v>1</v>
@@ -6163,7 +6867,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>'浙江绍兴人'</t>
+          <t>'浙江绍兴人', '市政府市长候选人2009.12浙江省诸暨市委副书记', '市政府党组书记、市长2019.12河北省邢台市委书记（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6171,8 +6875,16 @@
           <t>'1988年12月加入中国共产党'</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>'大学学历', '1986.09杭州大学政治系学习1990.08浙江省绍兴县报工作1992.01浙江省绍兴县委宣传部干部1994.12浙江省绍兴县湖塘镇党委副书记1995.02浙江省绍兴县湖塘镇党委副书记、镇长1996.01浙江省绍兴县湖塘镇党委书记、镇长1996.02浙江省绍兴县湖塘镇党委书记1997.12浙江省绍兴县马鞍镇党委书记2000.06浙江省绍兴市袍江工业区管委会副主任2002.12浙江省绍兴市越城区委常委、区政府党组书记、常务副区长2005.10浙江省绍兴市交通局局长、党委书记2009.11浙江省诸暨市委副书记'</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>'1986.09杭州大学政治系学习1990.08浙江省绍兴县报工作1992.01浙江省绍兴县委宣传部干部1994.12浙江省绍兴县湖塘镇党委副书记1995.02浙江省绍兴县湖塘镇党委副书记、镇长1996.01浙江省绍兴县湖塘镇党委书记、镇长1996.02浙江省绍兴县湖塘镇党委书记1997.12浙江省绍兴县马鞍镇党委书记2000.06浙江省绍兴市袍江工业区管委会副主任2002.12浙江省绍兴市越城区委常委、区政府党组书记、常务副区长2005.10浙江省绍兴市交通局局长、党委书记2009.11浙江省诸暨市委副书记'</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>'1990年8月参加工作'</t>
@@ -6210,10 +6922,14 @@
           <t>1963-7</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>'内蒙古和林格尔人', '第十二届全国人民代表大会内蒙古地区代表', '被选为全国人大代表2'</t>
+          <t>'内蒙古和林格尔人', '1980.08-1984.09内蒙古自治区和林格尔县黑老夭中学教师1984.09-1986.09内蒙古自治区和林格尔县黑老夭乡政府秘书（其间：1984.09-1986.09乌兰察布盟师范学院大专班中文专业学习）1986.09-1988.04内蒙古自治区和林格尔县委宣传部办公室主任1988.04-1990.01内蒙古自治区和林格尔县委办公室秘书1990.01-1991.06共青团内蒙古自治区和林格尔县委员会副书记1991.06-1995.09共青团内蒙古自治区和林格尔县委员会书记1995.09-1996.11共青团内蒙古自治区呼和浩特市委员会副书记（主持工作）1996.11-2000.07共青团内蒙古自治区呼和浩特市委员会书记、党组书记（1996.09-1998.12中国社会科学院研究生院市场经济专业学习）2000.07-2000.11内蒙古自治区呼和浩特市玉泉区委副书记（正处级）2000.11-2001.11内蒙古自治区乌海市海南区委副书记、区长2001.11-2004.02内蒙古自治区乌海市海南区委书记2004.02-2008.01内蒙古自治区乌海市委常委、秘书长（2003.09-2005.07中央广播电视大学本科班汉语言文学专业学习）2008.01-2008.07内蒙古自治区乌海市委常委、组织部部长2008.07-2011.11内蒙古自治区乌海市委常委、常务副市长2011.11-2017.06内蒙古自治区阿拉善盟盟委副书记、盟长2017.06-2017.07内蒙古自治区呼和浩特市委副书记、市长提名人选', '内蒙古和林格尔新区党工委书记2019.12-内蒙古自治区通辽市委委员、常委、书记十二届全国人大代表', '（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6223,12 +6939,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>'毕业于中共内蒙古自治区委员会党校经济管理专业', '大学学历'</t>
+          <t>'大学学历', '1980.08-1984.09内蒙古自治区和林格尔县黑老夭中学教师1984.09-1986.09内蒙古自治区和林格尔县黑老夭乡政府秘书（其间：1984.09-1986.09乌兰察布盟师范学院大专班中文专业学习）1986.09-1988.04内蒙古自治区和林格尔县委宣传部办公室主任1988.04-1990.01内蒙古自治区和林格尔县委办公室秘书1990.01-1991.06共青团内蒙古自治区和林格尔县委员会副书记1991.06-1995.09共青团内蒙古自治区和林格尔县委员会书记1995.09-1996.11共青团内蒙古自治区呼和浩特市委员会副书记（主持工作）1996.11-2000.07共青团内蒙古自治区呼和浩特市委员会书记、党组书记（1996.09-1998.12中国社会科学院研究生院市场经济专业学习）2000.07-2000.11内蒙古自治区呼和浩特市玉泉区委副书记（正处级）2000.11-2001.11内蒙古自治区乌海市海南区委副书记、区长2001.11-2004.02内蒙古自治区乌海市海南区委书记2004.02-2008.01内蒙古自治区乌海市委常委、秘书长（2003.09-2005.07中央广播电视大学本科班汉语言文学专业学习）2008.01-2008.07内蒙古自治区乌海市委常委、组织部部长2008.07-2011.11内蒙古自治区乌海市委常委、常务副市长2011.11-2017.06内蒙古自治区阿拉善盟盟委副书记、盟长2017.06-2017.07内蒙古自治区呼和浩特市委副书记、市长提名人选'</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>'毕业于中共内蒙古自治区委员会党校经济管理专业'</t>
+          <t>'1980.08-1984.09内蒙古自治区和林格尔县黑老夭中学教师1984.09-1986.09内蒙古自治区和林格尔县黑老夭乡政府秘书（其间：1984.09-1986.09乌兰察布盟师范学院大专班中文专业学习）1986.09-1988.04内蒙古自治区和林格尔县委宣传部办公室主任1988.04-1990.01内蒙古自治区和林格尔县委办公室秘书1990.01-1991.06共青团内蒙古自治区和林格尔县委员会副书记1991.06-1995.09共青团内蒙古自治区和林格尔县委员会书记1995.09-1996.11共青团内蒙古自治区呼和浩特市委员会副书记（主持工作）1996.11-2000.07共青团内蒙古自治区呼和浩特市委员会书记、党组书记（1996.09-1998.12中国社会科学院研究生院市场经济专业学习）2000.07-2000.11内蒙古自治区呼和浩特市玉泉区委副书记（正处级）2000.11-2001.11内蒙古自治区乌海市海南区委副书记、区长2001.11-2004.02内蒙古自治区乌海市海南区委书记2004.02-2008.01内蒙古自治区乌海市委常委、秘书长（2003.09-2005.07中央广播电视大学本科班汉语言文学专业学习）2008.01-2008.07内蒙古自治区乌海市委常委、组织部部长2008.07-2011.11内蒙古自治区乌海市委常委、常务副市长2011.11-2017.06内蒙古自治区阿拉善盟盟委副书记、盟长2017.06-2017.07内蒙古自治区呼和浩特市委副书记、市长提名人选'</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6275,7 +6991,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>'河北广宗人', '第十三届全国人民代表大会河北地区代表', '被选为全国人大代表1', '任河北省人民政府国有资产监督管理委员会党委书记、主任'</t>
+          <t>'河北广宗人', '衡水高新技术产业开发区党工委书记（兼）2018.10河北省国资委党委书记、主任2019.12阜新市委委员、常委、书记（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6285,17 +7001,13 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>'南开大学金融专业毕业', '大学学历', '经济学硕士学位'</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>'南开大学金融专业毕业'</t>
-        </is>
-      </c>
+          <t>'经济学硕士'</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>'\n1990年7月参加工作'</t>
+          <t>'1990年7月参加工作'</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -6332,16 +7044,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>'男'</t>
+          <t>'男', '男', '男', '女'</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>'江苏昆山人', '曾任无锡市人民政府市长'</t>
+          <t>'贵州桐梓人', '研究生学历...省人大主任娄勤俭简历：娄勤俭', '贵州桐梓人', '江苏南京人', '江苏宿迁人'</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>'研究生学历...省人大主任娄勤俭简历：娄勤俭', '研究生学历...省长吴政隆简历：吴政隆', '大学学历', '在职研究生学...'</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -6393,13 +7109,13 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>'山东大学在职研究生学历', '管理学博士学位', '任青岛市崂山区委书记、区委党校校长', '任中共青岛市委常委、崂山区委书记、区委党校校长', '任中共日照市委书记、市委党校校长'</t>
+          <t>'在职研究生学历', '管理学博士', '2005.12济南市信息产业局党组书记（正局级）2006.01济南市信息产业局局长2008.01济南市发展和改革委员会党组书记、主任2011.11青岛市崂山区委书记、区委党校校长', '青岛市崂山风景区管理局党委书记2014.09青岛市崂山区委书记、区委党校校长', '崂山区委书记、区委党校校长', '市政府市长2018.04日照市委书记、市委党校校长', '兼市委党校校长2019.12常州市委书记（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>'\n1989年7月参加工作'</t>
+          <t>'1989年7月参加工作'</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -6438,12 +7154,36 @@
           <t>1963-4</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>'江苏苏州人', '市政府代市长、党组书记2019年01月至2019年12月南通市委副书记、市长2019年12月至今南通市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>'1987年5月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>'中央党校研究生学历', '1979年09月至1981年07月江苏省洛社师范吴江分校学习1981年07月至1987年09月吴江县政府办公室秘书（其间：1983年06月至1986年08月江苏省高等教育自学考试党政干部基础专业学习）1987年09月至1988年07月吴江县政府办公室综合科副科长1988年07月至1990年05月吴江县接待办副主任1990年05月至1992年06月吴江县接待办主任1992年06月至1995年10月吴江市政府外事办主任、接待办主任（其间：1993年12月至1994年07月兼任市旅游局局长）1995年10月至1997年05月吴江市北厍镇党委书记1997年05月至2001年06月吴江市委常委、宣传部部长2001年06月至2002年12月吴江市委副书记、组织部部长（其间：1999年09月至2002年07月中央党校政治学理论专业在职研究生学习）2002年12月至2003年07月吴江市委副书记2003年07月至2004年02月苏州市金阊区委副书记、代区长2004年02月至2006年06月苏州市金阊区委副书记、区长2006年06月至2006年11月苏州市金阊区委书记2006年11月至2011年06月宿迁市委常委、常务副市长2011年06月至2014年12月苏州市副市长2014年12月至2016年06月苏州市副市长'</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>'1979年09月至1981年07月江苏省洛社师范吴江分校学习1981年07月至1987年09月吴江县政府办公室秘书（其间：1983年06月至1986年08月江苏省高等教育自学考试党政干部基础专业学习）1987年09月至1988年07月吴江县政府办公室综合科副科长1988年07月至1990年05月吴江县接待办副主任1990年05月至1992年06月吴江县接待办主任1992年06月至1995年10月吴江市政府外事办主任、接待办主任（其间：1993年12月至1994年07月兼任市旅游局局长）1995年10月至1997年05月吴江市北厍镇党委书记1997年05月至2001年06月吴江市委常委、宣传部部长2001年06月至2002年12月吴江市委副书记、组织部部长（其间：1999年09月至2002年07月中央党校政治学理论专业在职研究生学习）2002年12月至2003年07月吴江市委副书记2003年07月至2004年02月苏州市金阊区委副书记、代区长2004年02月至2006年06月苏州市金阊区委副书记、区长2006年06月至2006年11月苏州市金阊区委书记2006年11月至2011年06月宿迁市委常委、常务副市长2011年06月至2014年12月苏州市副市长2014年12月至2016年06月苏州市副市长'</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>'1981年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="b">
         <v>1</v>
@@ -6483,7 +7223,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>'江苏盐城人', '担任江苏省人民政府副秘书长3', '出任中共扬州市委副书记、扬州市人民政府副市长、代市长'</t>
+          <t>'江苏盐城人', '江苏省人民政府副秘书长（正厅级）', '扬州市委副书记、扬州市人民政府副市长、代市长', '扬州市委副书记、扬州市人民政府市长', '扬州市委书记江苏省第十三届人大代表（人民网资料截至2019年12月）'</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6491,11 +7231,15 @@
           <t>'1988年4月加入中国共产党'</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>'在职研究生学历', '硕士学位'</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>'\n1985年7月参加工作'</t>
+          <t>'1985年7月参加工作'</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -6530,12 +7274,36 @@
           <t>1962-3</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>'赵县人', '（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>'1984年8月入党'</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>'朱政学', '省委党校在职研究生班经济管理专业毕业', '省委党校在职研究生学历'</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>'省委党校在职研究生班经济管理专业毕业'</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>'1981年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="b">
         <v>1</v>
@@ -6568,12 +7336,36 @@
           <t>1967-4</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>'女'</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>'山东烟台人', '市政府市长、党组书记2017.07-2019.12山东省妇联党组书记2019.12山东省日照市委书记（人民网资料截至2019年12月）'</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>'1988年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>'1985.09青岛海洋大学海洋生物系海洋生物专业学习1989.07青岛海洋大学工程系团总支代理书记、学生党总支书记1992.04青岛海洋大学麦岛校区团委副书记1994.09青岛海洋大学团委副书记1995.11共青团青岛市委副书记1997.02共青团青岛市委副书记', '市青联主席（1997.09-2001.06在青岛海洋大学海洋生物专业攻读硕士研究生', '获理学硕士学位）2001.12共青团青岛市委书记、党组书记2003.04青岛市委常委', '共青团青岛市委书记、党组书记（其间：2004.07-2005.01在山东省中青年干部赴美国马里兰大学培训班学习）2006.04青岛市委常委、统战部部长2007.11青岛市委常委、统战部部长', '省委高校工委副书记'</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>'1985.09青岛海洋大学海洋生物系海洋生物专业学习1989.07青岛海洋大学工程系团总支代理书记、学生党总支书记1992.04青岛海洋大学麦岛校区团委副书记1994.09青岛海洋大学团委副书记1995.11共青团青岛市委副书记1997.02共青团青岛市委副书记', '市青联主席（1997.09-2001.06在青岛海洋大学海洋生物专业攻读硕士研究生'</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>'1989年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="b">
         <v>1</v>
@@ -6606,25 +7398,29 @@
           <t>1963-12</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>'江西高安人', '第十一届全国人民代表大会四川地区代表1', '任成都市锦江区人民政府副区长', '兼任荥经县人大常委会主任', '兼任县人大常委会主任', '出任中共遂宁市委副书记、市人民政府副市长、代理市长', '担任全国人大代表2'</t>
+          <t>'江西高安人', '四川省荥经县委书记、县人大常委会主任', '汉源县委书记、县人大常委会主任2006.11四川省遂宁市委副书记、副市长、代市长2007.02四川省遂宁市委副书记、市长2012.02四川省甘孜藏族自治州委副书记（正厅级）2012.04四川省甘孜藏族自治州委书记2015.06青海省委常委、组织部部长2017.07福建省委常委、组织部部长', '兼省委党校校长2019.02福建省委常委、厦门市委书记第十九届中央候补委员（人民网资料截至2019年02月）'</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>'1985年12月加入中国共产党'</t>
+          <t>'1986年1月加入中国共产党'</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>'历史学博士学位', '山东大学历史学专业', '经济学副教授', '\n早年在成都理工大学资源与经济系学习', '毕业后留校任教'</t>
+          <t>'山东大学中国古代史专业毕业', '在职研究生学历', '历史学博士', '曾任成都地质学院资源与经济系党总支书记', '兼省委党校校长2019.02福建省委常委、厦门市委书记第十九届中央候补委员（人民网资料截至2019年02月）'</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>'山东大学历史学专业', '\n早年在成都理工大学资源与经济系学习', '历任资源与经济系教师、团总支书记'</t>
+          <t>'山东大学中国古代史专业毕业', '曾任成都地质学院资源与经济系党总支书记'</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6664,11 +7460,27 @@
           <t>1968-8</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>'湖南澧县人', '永州市委书记第十一届湖南省委委员（人民网资料截至2019年2月）'</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>'法学博士', '1987.09—1991.06湖南师范大学思想政治教育专业学习', '获法学学士学位1991.06—1993.01湖南大学化学化工系辅导员1993.01—1994.01湖南大学化学化工学院团委书记1994.01—1997.02湖南大学学生工作部教育管理办副主任1997.02—1999.07湖南大学团委常务副书记、学生工作部副部长1999.07—1999.09共青团湖南省委活动中心副主任1999.09—2000.03共青团湖南省委活动中心学校部副部长（主持工作）2000.03—2002.04共青团湖南省委学校部部长（其间2001.09—2004.06湖南大学高等教育学专业硕士研究生毕业', '获教育学硕士学位）2002.04—2006.09共青团湖南省委副书记、党组成员（其间2005.01—2005.07赴美国参加省中青年领导干部出国培训班）2006.09—2008.11岳阳市委常委、组织部长（其间2006.09—2011.12湖南师范大学科学社会主义与国际共产主义运动专业博士研究生学习', '获法学博士学位）2008.11—2011.09岳阳市委常委、组织部长、市委党校（行政学院、社会主义学院）第一校（院）长2011.09—2013.05岳阳市委常委、组织部长、统战部长、市委党校（行政学院、社会主义学院）第一校（院）长2013.05—2015.05湘潭市委常委、组织部长、统战部长2015.05—2016.08湘潭市委副书记、市委党校（市行政学院、市社会主义学院、韶山干部学院）校（院）长（其中2016.03—2016.07参加中央党校第16期中青2班学习）2016.08—2019.02中共湖南省委党校、湖南行政学院常务副校（院）长2019.02—'</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>'1987.09—1991.06湖南师范大学思想政治教育专业学习', '获法学学士学位1991.06—1993.01湖南大学化学化工系辅导员1993.01—1994.01湖南大学化学化工学院团委书记1994.01—1997.02湖南大学学生工作部教育管理办副主任1997.02—1999.07湖南大学团委常务副书记、学生工作部副部长1999.07—1999.09共青团湖南省委活动中心副主任1999.09—2000.03共青团湖南省委活动中心学校部副部长（主持工作）2000.03—2002.04共青团湖南省委学校部部长（其间2001.09—2004.06湖南大学高等教育学专业硕士研究生毕业', '获教育学硕士学位）2002.04—2006.09共青团湖南省委副书记、党组成员（其间2005.01—2005.07赴美国参加省中青年领导干部出国培训班）2006.09—2008.11岳阳市委常委、组织部长（其间2006.09—2011.12湖南师范大学科学社会主义与国际共产主义运动专业博士研究生学习'</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="b">
@@ -6702,10 +7514,22 @@
           <t>1962-12</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>'福建龙岩人', '市政府市长2019.03三明市委委员、常委、书记（人民网资料截至2019年3月）'</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>'中央党校研究生学历', '中学一级教师'</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -6740,12 +7564,32 @@
           <t>1964-8</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>'江苏高淳人', '2015年01月任福建省电子信息（集团）有限责任公司党委书记、董事长（法定代表人）', '2017年12月任福建省人民政府国有资产监督管理委员会党委书记、主任', '（人民网资料截至2019年3月）'</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>'研究生学历', '工学博士', '南京航空航天大学留校任教', '1993年10月任南京航空航天大学电子工程系副主任'</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>'1993年10月任南京航空航天大学电子工程系副主任'</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>'1990年04月参加工作'</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="b">
         <v>1</v>
@@ -6778,25 +7622,29 @@
           <t>1966-4</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>'河南禹州人'</t>
+          <t>'河南禹州人', '任高新技术发展及产业化司副司长）2004.12-2011.03陕西省知识产权局局长、党组书记（其间：2007.03-2007.07在中央党校第六期半年制中青班学习）2011.03-2011.04陕西省汉中市委常委2011.04-2013.04陕西省汉中市委常委、市政府党组副书记、常务副市长2013.04-2013.07陕西省汉中市委副书记2013.07-2017.12陕西省杨凌农业高新技术产业示范区党工委副书记、管委会常务副主任（正厅级）2017.12-2019.04陕西省委副秘书长、省委军民融合发展委员会办公室常务副主任（正厅长级）2019.04-陕西省渭南市委书记（人民网资料截至2019年5月）'</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>'1996年5月加入中共'</t>
+          <t>'1996年5月加入中国共产党'</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>'1988年毕业于西安交通大学材料科学与工程专业', '1991年取得西安交大材料科学与工程专业硕士学位', '1991年6月任西北工业大学材料科学与工程系教师', '1996年取得西北工大材料科学与工程专业博士学位'</t>
+          <t>'研究生学历、工学博士（西北工业大学材料科学与工程专业）', '1984.09-1988.09西安交通大学金属材料及热处理专业学习1988.09-1991.06西安交通大学腐蚀及防护专业硕士研究生1991.06-1997.01西北工业大学材料科学与工程系教师（其间：1993.06-1996.12在西北工业大学金属材料及热处理专业学习）1997.01-1999.03西安交通大学从事博士后研究工作1999.03-1999.06陕西省科委主任助理1999.06-2000.07陕西省科委主任助理、综合计划处处长2000.07-2000.09陕西省科技厅厅长助理、综合计划处处长2000.09-2001.03陕西省科技厅厅长助理（其间：2000.09-2001.01在陕西省委党校中青班学习）2001.03-2004.12陕西省科技厅总工程师（其间：2001.08-2002.02在美国西弗吉尼亚大学工商与经济学院进修', '任高新技术发展及产业化司副司长）2004.12-2011.03陕西省知识产权局局长、党组书记（其间：2007.03-2007.07在中央党校第六期半年制中青班学习）2011.03-2011.04陕西省汉中市委常委2011.04-2013.04陕西省汉中市委常委、市政府党组副书记、常务副市长2013.04-2013.07陕西省汉中市委副书记2013.07-2017.12陕西省杨凌农业高新技术产业示范区党工委副书记、管委会常务副主任（正厅级）2017.12-2019.04陕西省委副秘书长、省委军民融合发展委员会办公室常务副主任（正厅长级）2019.04-陕西省渭南市委书记（人民网资料截至2019年5月）'</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>'1988年毕业于西安交通大学材料科学与工程专业', '1991年取得西安交大材料科学与工程专业硕士学位', '1991年6月任西北工业大学材料科学与工程系教师', '1996年取得西北工大材料科学与工程专业博士学位'</t>
+          <t>'研究生学历、工学博士（西北工业大学材料科学与工程专业）', '1984.09-1988.09西安交通大学金属材料及热处理专业学习1988.09-1991.06西安交通大学腐蚀及防护专业硕士研究生1991.06-1997.01西北工业大学材料科学与工程系教师（其间：1993.06-1996.12在西北工业大学金属材料及热处理专业学习）1997.01-1999.03西安交通大学从事博士后研究工作1999.03-1999.06陕西省科委主任助理1999.06-2000.07陕西省科委主任助理、综合计划处处长2000.07-2000.09陕西省科技厅厅长助理、综合计划处处长2000.09-2001.03陕西省科技厅厅长助理（其间：2000.09-2001.01在陕西省委党校中青班学习）2001.03-2004.12陕西省科技厅总工程师（其间：2001.08-2002.02在美国西弗吉尼亚大学工商与经济学院进修'</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6836,12 +7684,32 @@
           <t>1963-2</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>'山西岢岚人', '（人民网资料截至2019年4月）'</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>'1988年11月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>'中国矿业大学工程硕士', '先后任省统计局农村调查队干事、办公室副主任、统计科学研究所所长（正处级）'</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作', '参加工作后在省统计局工作'</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="b">
         <v>1</v>
@@ -6874,12 +7742,28 @@
           <t>1964-10</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>'辽宁沈阳人', '市政府市长2019.04铁岭市委书记（人民网资料截至2019年4月）'</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>'锦州工学院毕业', '工学学士学位', '辽宁省国土资源厅财务处处长（期间在中共辽宁省委党校中青年干部培训班学习）', '辽宁省经济和信息化委员会党组成员、副主任（期间在省委党校市厅级领导干部第50期进修班学习）'</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>'1987年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="b">
         <v>1</v>
@@ -6912,15 +7796,27 @@
           <t>1968-11</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>'吉林梨树人', '、第十三届全国人民代表大会吉林地区代表', '被选为全国人大代表1'</t>
+          <t>'1996.11-2000.08四平市房产局人事科科长2000.08-2008.01四平市房产局副局长（2000.05-2000.11在吉林省建设厅房地产处挂职锻炼任副处长)（1999.08-2002.07吉林省委党校经济管理专业研究生学习）2008.01-2009.02四平市房产局局长2009.02-2012.01四平市政府市长助理（2009.06-2010.07在梅河口市挂职任市委副书记）2012.01-2013.10四平市委常委、市委秘书长2013.10-2014.11四平市委常委、秘书长、公主岭市委书记2014.11-2015.05四平市委常委、公主岭市委书记2015.05-2016.11四平市委常委（挂职）、公主岭市委书记2016.11-2017.12长白山保护开发区党工委书记、长白山管委会主任2017.12-2018.01松原市委副书记2018.01—2019.04松原市委副书记', '（人民网资料截至2019年4月）'</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>'1996.11-2000.08四平市房产局人事科科长2000.08-2008.01四平市房产局副局长（2000.05-2000.11在吉林省建设厅房地产处挂职锻炼任副处长)（1999.08-2002.07吉林省委党校经济管理专业研究生学习）2008.01-2009.02四平市房产局局长2009.02-2012.01四平市政府市长助理（2009.06-2010.07在梅河口市挂职任市委副书记）2012.01-2013.10四平市委常委、市委秘书长2013.10-2014.11四平市委常委、秘书长、公主岭市委书记2014.11-2015.05四平市委常委、公主岭市委书记2015.05-2016.11四平市委常委（挂职）、公主岭市委书记2016.11-2017.12长白山保护开发区党工委书记、长白山管委会主任2017.12-2018.01松原市委副书记2018.01—2019.04松原市委副书记'</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>'1996.11-2000.08四平市房产局人事科科长2000.08-2008.01四平市房产局副局长（2000.05-2000.11在吉林省建设厅房地产处挂职锻炼任副处长)（1999.08-2002.07吉林省委党校经济管理专业研究生学习）2008.01-2009.02四平市房产局局长2009.02-2012.01四平市政府市长助理（2009.06-2010.07在梅河口市挂职任市委副书记）2012.01-2013.10四平市委常委、市委秘书长2013.10-2014.11四平市委常委、秘书长、公主岭市委书记2014.11-2015.05四平市委常委、公主岭市委书记2015.05-2016.11四平市委常委（挂职）、公主岭市委书记2016.11-2017.12长白山保护开发区党工委书记、长白山管委会主任2017.12-2018.01松原市委副书记2018.01—2019.04松原市委副书记'</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="b">
@@ -6954,25 +7850,29 @@
           <t>1965-11</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>'河南永城人', '兼任汕头市人大常委会主任'</t>
+          <t>'河南永城人', '广州市白云区委书记、区人大常委会主任', '任广州市副市长、广州市人民政府党组成员', '任广州市副市长、广州市人民政府党组成员', '（人民网资料截至2019年5月）'</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>'1991年3月加入中共'</t>
+          <t>'1991年3月加入中国共产党'</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>'研究生学历', '工学博士、经济学博士', '毕业于周口市水利学校水利工程建设专业', '取得武汉水利电力学院计算机应用专业硕士学位', '以及华南理工大学建筑工程系结构工程专业博士学位'</t>
+          <t>'研究生学历（华南理工大学建筑工程系结构工程专业、中山大学岭南学院世界经济专业）', '工学博士、经济学博士', '河南省周口市水利学校水利工程建设专业学习', '河南省周口水利学校教师', '武汉水利电力学院计算机应用专业硕士研究生学习', '华南理工大学建筑工程系结构工程专业博士研究生、博士后学习', '在美国马里兰大学公共管理培训班学习）', '中山大学岭南学院世界经济专业博士研究生学习）'</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>'毕业于周口市水利学校水利工程建设专业', '取得武汉水利电力学院计算机应用专业硕士学位', '以及华南理工大学建筑工程系结构工程专业博士学位'</t>
+          <t>'研究生学历（华南理工大学建筑工程系结构工程专业、中山大学岭南学院世界经济专业）', '河南省周口市水利学校水利工程建设专业学习', '武汉水利电力学院计算机应用专业硕士研究生学习', '华南理工大学建筑工程系结构工程专业博士研究生、博士后学习', '中山大学岭南学院世界经济专业博士研究生学习）'</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7019,7 +7919,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>'山东安丘人', '\n1997年5月任广东省人事厅调配录用处助理调研员', '省人才评价中心副主任', '2001年11月任广东省人才评价中心主任（在2004年10月-2005年11月期间作为中共中央组织部、共青团中央选派的“博士服务团”成员', '任广东省人事考试局局长', '任广东省人力资源社会保障厅党组成员、副巡视员', '任广东省人民政府副秘书长、广东省信访局局长', '兼任潮州市人大常委会主任3'</t>
+          <t>'山东安丘人', '广东省人事厅调配录用处助理调研员', '省人才评价中心副主任2000.08--2001.11', '广东省人才评价中心副主任2001.11--2008.05', '广东省人才评价中心主任（其间：2004.10-2005.11', '广东省人事考试局局长2010.05--2013.09', '广东省人力资源社会保障厅党组成员、副巡视员', '（人民网资料截至2019年5月）'</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -7029,12 +7929,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>'山东师范大学教育系学校教育专业本科毕业', '华南师范大学心理学系发展心理学专业博士研究生学历', '教育学博士', '\n1994年7月在华南师范大学担任心理学系讲师、副教授', '任佛山市委常委、组织部长、市委党校校长'</t>
+          <t>'研究生学历', '教育学博士', '山东师范大学教育系学校教育专业学习1985.09--1988.07', '华南师范大学心理学系发展心理学专业硕士研究生学习1988.07--1990.09', '山东师范大学教育系助教1990.09--1994.07', '华南师范大学心理学系教育心理学专业博士研究生学习1994.07--1997.05', '华南师范大学心理学系讲师、副教授1997.05--2000.08', '广东省佛山市委常委、组织部长、市委党校校长2016.11--2017.07'</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>'山东师范大学教育系学校教育专业本科毕业', '华南师范大学心理学系发展心理学专业博士研究生学历', '\n1994年7月在华南师范大学担任心理学系讲师、副教授'</t>
+          <t>'山东师范大学教育系学校教育专业学习1985.09--1988.07', '华南师范大学心理学系发展心理学专业硕士研究生学习1988.07--1990.09', '山东师范大学教育系助教1990.09--1994.07', '华南师范大学心理学系教育心理学专业博士研究生学习1994.07--1997.05', '华南师范大学心理学系讲师、副教授1997.05--2000.08'</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7074,21 +7974,25 @@
           <t>1964-10</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>'男', '男'</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>'山东肥城人', '第十三届全国人民代表大会山东地区代表', '第十三届全国人大代表', '2007年12月兼任县人大常委会主任'</t>
+          <t>'重庆人', '西南财经大学财政系财政学专...省人大主任刘家义简历：刘家义', '重庆人', '湖南长沙人', '河南南阳人'</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>'山东大学运筹学与控制论专业研究生班学历', '理学硕士学位', '\n1986年毕业于山东大学物理系物理学专业', '1986-88年在山东大学运筹学与控制论专业研究生班学习'</t>
+          <t>'西南财经大学财政系财政学专...省人大主任刘家义简历：刘家义', '西南财经大学财政系财政学专...省长李干杰简历：李干杰', '研究生学...省政协主席付志方简历：付志方'</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>'山东大学运筹学与控制论专业研究生班学历', '\n1986年毕业于山东大学物理系物理学专业', '1986-88年在山东大学运筹学与控制论专业研究生班学习'</t>
+          <t>'西南财经大学财政系财政学专...省人大主任刘家义简历：刘家义', '西南财经大学财政系财政学专...省长李干杰简历：李干杰'</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -7124,12 +8028,36 @@
           <t>1963-9</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>'四川都江堰人', '1978.09-1981.08成都市温江卫校学习1981.08-1985.09新都县第二人民医院办公室干事、团支部书记1985.09-1988.10共青团新都县委副书记1988.10-1995.11共青团新都县委书记（其间：1989.08-1992.06在四川省委党校经济管理专业大专班学习', '1997.07兼任镇人大主席1997.12-1998.03新都县委常委、组织部部长', '斑竹园镇党委书记、镇人大主席（1997.09-1998.01参加市委党校第11期中青班培训学习）1998.03-2001.12新都县委常委、组织部部长（其间：1998.09-2000.07电子科技大学管理科学与工程研究生课程班学习）2001.12-2002.12成都市新都区委常委、组织部部长2002.12-2005.09成都市新都区委副书记2005.09-2006.08成都市新都区委副书记、常务副区长2006.08-2006.12成都市龙泉驿区委副书记、代区长', '成都经开区党工委副书记、管委会主任2011.12-2014.07成都市青白江区委书记2014.07-2016.02成都市龙泉驿区委书记、成都经开区党工委书记2016.02-2016.03成都市委常委、龙泉驿区委书记、成都经开区党工委书记2016.03-2016.04成都市委常委、市委宣传部部长、龙泉驿区委书记、成都经开区党工委书记2016.04-2017.06成都市委常委、市委宣传部部长2017.06-2018.03成都市委常委、市委统战部部长2018.03-2018.05成都市委常委、市委统战部部长、市委政法委书记2018.05-2019.07成都市委常委、市委政法委书记2019.07-资阳市委书记（人民网资料截至2019年7月）'</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>'1985年10月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>'四川省委党校经济管理专业毕业', '省委党校大学学历', '1978.09-1981.08成都市温江卫校学习1981.08-1985.09新都县第二人民医院办公室干事、团支部书记1985.09-1988.10共青团新都县委副书记1988.10-1995.11共青团新都县委书记（其间：1989.08-1992.06在四川省委党校经济管理专业大专班学习', '1991.03-1991.06在成都市委第二党校领导干部轮训班学习）1995.11-1997.06新都县斑竹园镇党委副书记', '1996.01任镇长（1994.08-1996.12在四川省委党校经济管理专业本科班学习）1997.06-1997.12新都县斑竹园镇党委书记', '斑竹园镇党委书记、镇人大主席（1997.09-1998.01参加市委党校第11期中青班培训学习）1998.03-2001.12新都县委常委、组织部部长（其间：1998.09-2000.07电子科技大学管理科学与工程研究生课程班学习）2001.12-2002.12成都市新都区委常委、组织部部长2002.12-2005.09成都市新都区委副书记2005.09-2006.08成都市新都区委副书记、常务副区长2006.08-2006.12成都市龙泉驿区委副书记、代区长'</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>'四川省委党校经济管理专业毕业', '1978.09-1981.08成都市温江卫校学习1981.08-1985.09新都县第二人民医院办公室干事、团支部书记1985.09-1988.10共青团新都县委副书记1988.10-1995.11共青团新都县委书记（其间：1989.08-1992.06在四川省委党校经济管理专业大专班学习', '1996.01任镇长（1994.08-1996.12在四川省委党校经济管理专业本科班学习）1997.06-1997.12新都县斑竹园镇党委书记'</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>'1981年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="b">
         <v>1</v>
@@ -7162,12 +8090,36 @@
           <t>1961-12</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>'贵州赤水人', '挂职任织金县委副书记);1999.11--2000.03贵州省政府办公厅信息督查处处长兼办公自动化室主任;2000.03--2003.06贵州省政府办公厅信息督查处处长;2003.06--2005.03贵州省政府办公厅人事处处长;2005.03--2005.09贵州省政府督查室主任;2005.09--2010.11贵州省政府副秘书长、办公厅党组成员(2003.09--2006.06在贵州省委党校在职研究生班经济学专业学习);2010.11--2015.08贵州省政府副秘书长', '市人民政府副市长、代理市长、党组书记2017.01--2019.07贵州省安顺市委副书记', '市政府市长\xa02019.07--2019.10贵州省安顺市委书记、市政府市长\xa02019.10--贵州省安顺市委书记（人民网资料截至2019年10月）'</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>'1985年7月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>'贵州省委党校研究生学历', '理学学士', '1979.09--1983.08贵阳师范学院数学系数学专业学习;1983.08--1987.04贵州省政府办公厅政治处、综合信息处工作员;1987.04--1991.05贵州省政府办公厅综合信息处、信息处副主任科员;1991.05--1993.05贵州省政府办公厅信息督查处办公自动化室主任(正科级)(1989.09--1992.07在贵州省委党校经济管理专业学习);1993.05--1999.11贵州省政府办公厅信息督查处副处长兼办公自动化室主任(其间:1997.02--1998.02参加省直赴织金县扶贫工作队任队长', '挂职任织金县委副书记);1999.11--2000.03贵州省政府办公厅信息督查处处长兼办公自动化室主任;2000.03--2003.06贵州省政府办公厅信息督查处处长;2003.06--2005.03贵州省政府办公厅人事处处长;2005.03--2005.09贵州省政府督查室主任;2005.09--2010.11贵州省政府副秘书长、办公厅党组成员(2003.09--2006.06在贵州省委党校在职研究生班经济学专业学习);2010.11--2015.08贵州省政府副秘书长'</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>'1979.09--1983.08贵阳师范学院数学系数学专业学习;1983.08--1987.04贵州省政府办公厅政治处、综合信息处工作员;1987.04--1991.05贵州省政府办公厅综合信息处、信息处副主任科员;1991.05--1993.05贵州省政府办公厅信息督查处办公自动化室主任(正科级)(1989.09--1992.07在贵州省委党校经济管理专业学习);1993.05--1999.11贵州省政府办公厅信息督查处副处长兼办公自动化室主任(其间:1997.02--1998.02参加省直赴织金县扶贫工作队任队长', '挂职任织金县委副书记);1999.11--2000.03贵州省政府办公厅信息督查处处长兼办公自动化室主任;2000.03--2003.06贵州省政府办公厅信息督查处处长;2003.06--2005.03贵州省政府办公厅人事处处长;2005.03--2005.09贵州省政府督查室主任;2005.09--2010.11贵州省政府副秘书长、办公厅党组成员(2003.09--2006.06在贵州省委党校在职研究生班经济学专业学习);2010.11--2015.08贵州省政府副秘书长'</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>'1983年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="b">
         <v>1</v>
@@ -7200,12 +8152,36 @@
           <t>1965-5</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>'吉林省大安人', '2017年12月吉林省政府国资委主任、党委书记2019年7月通化市委书记（人民网资料截至2019年7月）'</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>'1986年11月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>'美国伊利诺伊大学工商管理专业毕业', '在职研究生学历'</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>'美国伊利诺伊大学工商管理专业毕业'</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>'1988年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="b">
         <v>1</v>
@@ -7238,12 +8214,16 @@
           <t>1969-5</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>'管理学博士'</t>
+          <t>'在职研究生学历', '管理学博士'</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -7280,16 +8260,36 @@
           <t>1967-12</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>'河北清苑人', '、贵州省遵义市现任市委书记、第十三届全国人民代表大会贵州省代表1', '魏树旺被选为贵州省出席第十三届全国人民代表大会代表2'</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+          <t>'河北清苑人', '市政府党组书记、副市长、代理市长（保留正厅长级）2016.01—2018.01贵州省遵义市委副书记、市长2018.01—2018.02贵州省人民政府办公厅党组书记', '省政府秘书长、贵州省遵义市委副书记、市长2018.02—2018.03贵州省人民政府秘书长', '（人民网资料截至2019年10月）'</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>'1990年12月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>'法学博士', '1983.09—1986.07保定师范学校学习1986.07—1986.08待业1986.08—1988.08河北省望都县贾村中学教师1988.08—1992.07北京师范大学哲学系思想政治专业学习1992.07—1996.11北京师范大学团委干部、副书记（其间：1993.09--1996.01在北京师范大学哲学系伦理学攻读硕士', '获硕士学位）1996.11—2001.12团中央学校部中学中专处干部、正科级干部、副处长2001.12—2006.04团中央学校部全国学联办公室主任（其间:2002.09—2005.06在北京师范大学哲学系马克思主义理论与思想政治教育专业攻读博士,获博士学位）2006.04—2006.11团中央青年志愿者行动指导中心副主任、党组成员', '钟山区委书记2012.06—2013.01贵州省六盘水市委常委、副市长（其间：2012.08—2013.01在中央党校中青年干部培训班学习）2013.01—2013.05贵州省六盘水市委常委、副市长（分管市政府常务工作）', '市行政学院院长（兼）2013.05—2014.05贵州省六盘水市委副书记、副市长（分管市政府常务工作）', '市行政学院院长（兼）2014.05—2015.02贵州省委群众工作委员会专职副书记（正厅长级）2015.02—2015.05贵州省遵义市委副书记'</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>'1983.09—1986.07保定师范学校学习1986.07—1986.08待业1986.08—1988.08河北省望都县贾村中学教师1988.08—1992.07北京师范大学哲学系思想政治专业学习1992.07—1996.11北京师范大学团委干部、副书记（其间：1993.09--1996.01在北京师范大学哲学系伦理学攻读硕士', '获硕士学位）1996.11—2001.12团中央学校部中学中专处干部、正科级干部、副处长2001.12—2006.04团中央学校部全国学联办公室主任（其间:2002.09—2005.06在北京师范大学哲学系马克思主义理论与思想政治教育专业攻读博士,获博士学位）2006.04—2006.11团中央青年志愿者行动指导中心副主任、党组成员'</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>'1986年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="b">
         <v>1</v>
@@ -7329,7 +8329,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>'辽宁建平人', '曾任陕西省人民政府副省长', '当选陕西省人民政府副省长1'</t>
+          <t>'辽宁建平人', '第十二届全国人大代表', '（人民网资料截至2019年9月）'</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -7339,12 +8339,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>'辽宁大学经济系统计学专业毕业', '陕西财经学院经济学硕士', '厦门大学经济学博士', '自辽宁大学经济系计划统计专业毕业后', '王莉霞考入陕西财经学院（今西安交通大学经济与金融学院）统计系', '攻读硕士学位', '1988年7月毕业后', '在西安统计学院任教', '历任该校经济统计系讲师、副教授（其间', '于1997年9月至2000年7月在厦门大学经济学院进修', '获经济学博士学位）'</t>
+          <t>'在职研究生学历', '经济学博士', '1981.10——1985.09辽宁大学经济管理学院计划统计专业学习1985.09——2000.07西安统计学院经济统计系助教、讲师、副教授（其间：1985.09——1988.07陕西财经学院统计学专业在职研究生学习', '获经济学硕士学位', '1997.09——2000.07厦门大学经济学院统计学专业在职研究生学习', '获经济学博士学位）2000.07——2005.12陕西省统计局副局长（其间：2000.12评为教授', '2001.10——2002.01陕西省委党校中青班学习', '2003.07——2003.09清华大学、哈佛大学公共管理高级培训班学习）2005.12——2011.01陕西省统计局局长、党组书记（其间：2006.09——2006.11中央党校进修二班学习）2011.01——2011.04陕西省铜川市委副书记、代市长2011.04——2013.01陕西省铜川市委副书记、市长2013.01——2016.10陕西省副省长2016.10——2016.11内蒙古自治区党委常委2016.11——2019.08内蒙古自治区党委常委、统一战线工作部部长2019.08——内蒙古自治区党委常委、呼和浩特市委书记第十九届中央候补委员'</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>'辽宁大学经济系统计学专业毕业', '自辽宁大学经济系计划统计专业毕业后', '王莉霞考入陕西财经学院（今西安交通大学经济与金融学院）统计系', '历任该校经济统计系讲师、副教授（其间'</t>
+          <t>'1981.10——1985.09辽宁大学经济管理学院计划统计专业学习1985.09——2000.07西安统计学院经济统计系助教、讲师、副教授（其间：1985.09——1988.07陕西财经学院统计学专业在职研究生学习', '1997.09——2000.07厦门大学经济学院统计学专业在职研究生学习'</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7384,12 +8384,36 @@
           <t>1963-7</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>'1979.11--1982.12解放军战士1982.12--1988.06东宁县商业局干事、团委书记、党委委员(其间：1985.08--1987.08省广播电视大学党政干部专修科经济管理专业在职大专学习)1988.06--1991.05东宁县政府办科员、县委办秘书1991.05--1993.01东宁县委办副主任1993.01--1993.03东宁县委办副主任(正科级)1993.03--1993.08东宁县政府办主任1993.08--1997.10东宁县三岔口朝鲜族镇党委书记1997.10--2001.12东宁县政府副县长(1995.11--1998.12省经济管理干部学院经济管理专业在职大学学习)2001.12--2002.06东宁县委常委、政府副县长2002.06--2004.12东宁县委常委、政府副县长(正处级)(其间:2002.09--2004.06援藏任西藏自治区谢通门县委书记)2004.12--2005.12牡丹江市政府副秘书长2005.12--2006.03海林市委副书记、政府市长2006.03--2006.12海林市委副书记、政府市长、海林经济开发区管委会主任2006.12--2008.11海林市委书记、海林经济开发区党委书记2008.11--2010.04海林市委书记2010.04--2011.03牡丹江市人大常委会副主任候选人、海林市委书记2011.03--2011.11牡丹江市人大常委会副主任、海林市委书记2011.11--2014.11绥化市政府副市长2014.11--2016.11绥化市委常委、政府副市长2016.11--2016.12佳木斯市委常委', '政府副市长人选、政府党组副书记2016.12--2018.01佳木斯市委常委', '政府市长候选人、党组书记2018.08--2018.10黑河市委副书记', '政府市长、党组书记2020.01黑河市委委员、常委、书记（人民网资料截至2020年1月）'</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>'1982年2月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>'大学学历', '黑龙江省经济管理干部学院经济管理专业毕业', '1979.11--1982.12解放军战士1982.12--1988.06东宁县商业局干事、团委书记、党委委员(其间：1985.08--1987.08省广播电视大学党政干部专修科经济管理专业在职大专学习)1988.06--1991.05东宁县政府办科员、县委办秘书1991.05--1993.01东宁县委办副主任1993.01--1993.03东宁县委办副主任(正科级)1993.03--1993.08东宁县政府办主任1993.08--1997.10东宁县三岔口朝鲜族镇党委书记1997.10--2001.12东宁县政府副县长(1995.11--1998.12省经济管理干部学院经济管理专业在职大学学习)2001.12--2002.06东宁县委常委、政府副县长2002.06--2004.12东宁县委常委、政府副县长(正处级)(其间:2002.09--2004.06援藏任西藏自治区谢通门县委书记)2004.12--2005.12牡丹江市政府副秘书长2005.12--2006.03海林市委副书记、政府市长2006.03--2006.12海林市委副书记、政府市长、海林经济开发区管委会主任2006.12--2008.11海林市委书记、海林经济开发区党委书记2008.11--2010.04海林市委书记2010.04--2011.03牡丹江市人大常委会副主任候选人、海林市委书记2011.03--2011.11牡丹江市人大常委会副主任、海林市委书记2011.11--2014.11绥化市政府副市长2014.11--2016.11绥化市委常委、政府副市长2016.11--2016.12佳木斯市委常委', '政府副市长、政府党组副书记(其间:2017.09--2018.01挂职任广东省中山市副市长)2018.01--2018.02佳木斯市委副书记、政府党组副书记2018.02--2018.07佳木斯市委副书记、政法委书记、党校校长2018.07--2018.08黑河市委副书记'</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>'黑龙江省经济管理干部学院经济管理专业毕业', '1979.11--1982.12解放军战士1982.12--1988.06东宁县商业局干事、团委书记、党委委员(其间：1985.08--1987.08省广播电视大学党政干部专修科经济管理专业在职大专学习)1988.06--1991.05东宁县政府办科员、县委办秘书1991.05--1993.01东宁县委办副主任1993.01--1993.03东宁县委办副主任(正科级)1993.03--1993.08东宁县政府办主任1993.08--1997.10东宁县三岔口朝鲜族镇党委书记1997.10--2001.12东宁县政府副县长(1995.11--1998.12省经济管理干部学院经济管理专业在职大学学习)2001.12--2002.06东宁县委常委、政府副县长2002.06--2004.12东宁县委常委、政府副县长(正处级)(其间:2002.09--2004.06援藏任西藏自治区谢通门县委书记)2004.12--2005.12牡丹江市政府副秘书长2005.12--2006.03海林市委副书记、政府市长2006.03--2006.12海林市委副书记、政府市长、海林经济开发区管委会主任2006.12--2008.11海林市委书记、海林经济开发区党委书记2008.11--2010.04海林市委书记2010.04--2011.03牡丹江市人大常委会副主任候选人、海林市委书记2011.03--2011.11牡丹江市人大常委会副主任、海林市委书记2011.11--2014.11绥化市政府副市长2014.11--2016.11绥化市委常委、政府副市长2016.11--2016.12佳木斯市委常委'</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>'1979年11月参加工作'</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="b">
         <v>1</v>
@@ -7422,12 +8446,36 @@
           <t>1975-11</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>'浙江庆元人', '1992—1996年浙江林学院林学系林学专业学习1996—1998年浙江省庆元县屏都镇党委组织干事1998—1999年共青团浙江省庆元县委书记1999—2000年浙江省丽水地区卫生局副局长2000—2001年浙江省丽水市卫生局负责人2001—2003年浙江省丽水市卫生局副局长（2001.03—2002.08美国肯恩大学公共管理专业学习', '诸暨市委书记、市人大常委会主任2017—2018年浙江省绍兴市委常委', '诸暨市委书记2018—2019年浙江省台州市委副书记、代市长2019—2020年浙江省台州市委副书记、市长（其间：2019.03—2019.07在中央党校中青二班学习）2020—2020年汕尾市委书记2020—汕尾市委书记、市人大常委会主任（人民网资料'</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>'1996年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>'浙江林学院林学专业毕业', '大学学历', '1992—1996年浙江林学院林学系林学专业学习1996—1998年浙江省庆元县屏都镇党委组织干事1998—1999年共青团浙江省庆元县委书记1999—2000年浙江省丽水地区卫生局副局长2000—2001年浙江省丽水市卫生局负责人2001—2003年浙江省丽水市卫生局副局长（2001.03—2002.08美国肯恩大学公共管理专业学习', '获公共管理硕士学位）2003—2006年共青团浙江省丽水市委书记、党组书记2006—2007年浙江省景宁畲族自治县委常委、副县长（正处级）2007—2009年浙江省景宁畲族自治县委副书记、副县长、政法委书记（其间：2008.03—2008.06浙江省委党校中青年干部培训班学习）2009—2009年浙江省景宁畲族自治县委副书记、政法委书记2009—2010年浙江省遂昌县委副书记、代县长2010—2011年浙江省遂昌县委副书记、县长2011—2015年浙江省德清县委书记2015—2016年浙江省绍兴市委常委', '诸暨市委书记2018—2019年浙江省台州市委副书记、代市长2019—2020年浙江省台州市委副书记、市长（其间：2019.03—2019.07在中央党校中青二班学习）2020—2020年汕尾市委书记2020—汕尾市委书记、市人大常委会主任（人民网资料'</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>'浙江林学院林学专业毕业', '1992—1996年浙江林学院林学系林学专业学习1996—1998年浙江省庆元县屏都镇党委组织干事1998—1999年共青团浙江省庆元县委书记1999—2000年浙江省丽水地区卫生局副局长2000—2001年浙江省丽水市卫生局负责人2001—2003年浙江省丽水市卫生局副局长（2001.03—2002.08美国肯恩大学公共管理专业学习'</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>'1996年8月参加工作'</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="b">
         <v>1</v>
@@ -7460,12 +8508,36 @@
           <t>1969-10</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>'男'</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>'湖北洪湖人', '农机试验站副站长（副处级）1997.07-1998.10机械工业部人事劳动司办公室副处级干部1998.10-2000.11中央纪委驻国家机械工业局纪检组、监察局副处级干部', '获管理学硕士学位）2000.11-2003.07国家计委人事司委属处助理调研员', '综合处副处长2003.07-2009.08国家发展改革委人事司综合处副处长、处长', '机关干部处处长（2005.08-2007.09中欧国际工商学院工商管理硕士专业学习）2009.08-2016.08国家发展改革委人事司副巡视员、副司长（其间：2012.07-2012.10挂职任四川省发展改革委副主任、党组成员', '省西部开发办（攀西办）主任（兼）2020.01-四川省自贡市委书记（人民网资料截至2020年1月）'</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>'1990年6月加入中国共产党'</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>'吉林工业大学管理科学与工程专业管理学在职硕士研究生', '中欧国际工商学院工商管理硕士', '1987.09-1991.07吉林工业大学金属材料工程系焊接工艺及设备专业学习', '获工学学士学位1991.07-1997.07中国农业机械化科学研究院工艺所助理工程师、工程师', '综合室副主任（1998.09-2000.06吉林工业大学管理科学与工程专业在职研究生学习', '获管理学硕士学位）2000.11-2003.07国家计委人事司委属处助理调研员', '机关干部处处长（2005.08-2007.09中欧国际工商学院工商管理硕士专业学习）2009.08-2016.08国家发展改革委人事司副巡视员、副司长（其间：2012.07-2012.10挂职任四川省发展改革委副主任、党组成员'</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>'吉林工业大学管理科学与工程专业管理学在职硕士研究生', '1987.09-1991.07吉林工业大学金属材料工程系焊接工艺及设备专业学习', '综合室副主任（1998.09-2000.06吉林工业大学管理科学与工程专业在职研究生学习', '机关干部处处长（2005.08-2007.09中欧国际工商学院工商管理硕士专业学习）2009.08-2016.08国家发展改革委人事司副巡视员、副司长（其间：2012.07-2012.10挂职任四川省发展改革委副主任、党组成员'</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>'1991年7月参加工作'</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="b">
         <v>1</v>
@@ -7505,22 +8577,22 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>'山西省闻喜县人', '任运城市人民政府副市长'</t>
+          <t>'山西闻喜人', '（人民网资料截至2020年01月）'</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>'1985年1月加入中国共产党'</t>
+          <t>'1985年1月入党'</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>'山西师范大学数学专业毕业', '大学本科学历'</t>
+          <t>'硕士研究生毕业', '1981.09山西师范大学数学系数学专业学习', '1985.07山西师范大学数学系干事', '1987.12山西师范大学数学系办公室副主任', '1989.02山西师范大学数学系办公室主任', '1997.07共青团运城地委书记（1996.04-1998.03中国社科院研究生院农业经济专业课程班学习）', '2009.08运城市委常委、秘书长（2009.03-2010.03新加坡南洋理工大学学习', '获公共管理硕士学位）'</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>'山西师范大学数学专业毕业'</t>
+          <t>'1981.09山西师范大学数学系数学专业学习', '1985.07山西师范大学数学系干事', '1987.12山西师范大学数学系办公室副主任', '1989.02山西师范大学数学系办公室主任', '1997.07共青团运城地委书记（1996.04-1998.03中国社科院研究生院农业经济专业课程班学习）'</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7580,7 +8652,11 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>'省委党校在职研究生班经济管理专业毕业', '1980.09－1982.08化工部淮南化工建筑安装学校设备安装专业学习1982.08－1992.04化工部十二化建公司干部、团委副书记、书记（其间:1985.08－1987.07省委党校第三学员训练部理论班脱产学习）1992.04－1995.07共青团河北省委青工部负责人、副部长1995.07－1997.08共青团河北省委青工部部长（1993.08－1995.12中央党校函授学院经济管理专业学习）1997.08－1999.11共青团河北省委副书记（1996.12－1998.11中国社会科学院研究生院企业管理研究生班学习）1999.11－2001.07共青团河北省委副书记、党组成员2001.07－2003.03承德市委常委、组织部部长（1999.09－2001.12河北科技大学经济管理学院工业经济系工商管理专业学习）2003.03－2004.11承德市委副书记（2001.09－2004.07省委党校在职研究生班经济管理专业学习', '2004.03－2004.06国家行政学院司〈厅〉局级公务员进修班学习）2004.11－2008.01承德市委副书记、市纪委书记（其间:2006.09－2006.11省委党校中青年干部培训班学习）2008.01－2008.03承德市委副书记、代市长2008.03－2011.01承德市委副书记、市长（2006.03－2008.12中国农业大学人文与发展学院农业推广专业学习'</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>1984-05</t>
@@ -7688,14 +8764,22 @@
           <t>1961-12</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>'男', '男', '男', '女'</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>'福建南安人', '、第十三届全国人民代表大会福建省代表1', '任南平市人民政府市长', '许维泽被选为福建省出席第十三届全国人民代表大会代表2'</t>
+          <t>'贵州桐梓人', '研究生学历...省人大主任娄勤俭简历：娄勤俭', '贵州桐梓人', '江苏南京人', '江苏宿迁人'</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>'研究生学历...省人大主任娄勤俭简历：娄勤俭', '研究生学历...省长吴政隆简历：吴政隆', '大学学历', '在职研究生学...'</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -7805,7 +8889,11 @@
           <t>1980-12</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>'研究生学历...省人大主任娄勤俭简历：娄勤俭', '研究生学历...省长吴政隆简历：吴政隆', '大学学历', '在职研究生学...'</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -7846,29 +8934,21 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>'男'</t>
+          <t>'男', '男', '男', '女'</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>'安徽太湖人', '第十三届全国人民代表大会广东地区代表', '担任广州市人民政府副市长', '市人民政府市长4', '被选为全国人大代表5', '出任广东省人民政府秘书长、办公厅主任78'</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>'1993年6月加入中国共产党'</t>
-        </is>
-      </c>
+          <t>'贵州桐梓人', '研究生学历...省人大主任娄勤俭简历：娄勤俭', '贵州桐梓人', '江苏南京人', '江苏宿迁人'</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>'考入安徽大学历史系文秘档案专业', '毕业于中山大学历史系中国近现代史专业硕士', '担任广州大学城建设指挥部办公室副主任'</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>'考入安徽大学历史系文秘档案专业', '毕业于中山大学历史系中国近现代史专业硕士'</t>
-        </is>
-      </c>
+          <t>'研究生学历...省人大主任娄勤俭简历：娄勤俭', '研究生学历...省长吴政隆简历：吴政隆', '大学学历', '在职研究生学...'</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="b">
@@ -7986,11 +9066,7 @@
           <t>硕士研究生</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>'中央党校经济管理专业毕业', '安徽大学经济系经济学专业学习', '参加中央党校函授学院在职研究生班经济管理专业学习）'</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
           <t>1982-08</t>
